--- a/doc/design/sincos_error.xlsx
+++ b/doc/design/sincos_error.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19960" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22960" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="taylor estimate" sheetId="1" r:id="rId1"/>
@@ -1462,11 +1462,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2139065688"/>
-        <c:axId val="-2139073288"/>
+        <c:axId val="2131486360"/>
+        <c:axId val="2131489384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2139065688"/>
+        <c:axId val="2131486360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1476,7 +1476,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2139073288"/>
+        <c:crossAx val="2131489384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1484,7 +1484,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2139073288"/>
+        <c:axId val="2131489384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1495,7 +1495,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2139065688"/>
+        <c:crossAx val="2131486360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1523,12 +1523,12 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>41385</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>53932</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
@@ -59441,8 +59441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -59639,75 +59639,75 @@
     </row>
     <row r="13" spans="1:23">
       <c r="F13">
-        <f>MAX(F15:F1048576)</f>
+        <f t="shared" ref="F13:W13" si="2">MAX(F15:F1048576)</f>
         <v>646416</v>
       </c>
       <c r="G13">
-        <f>MAX(G15:G1048576)</f>
+        <f t="shared" si="2"/>
         <v>2525</v>
       </c>
       <c r="H13">
-        <f>MAX(H15:H1048576)</f>
+        <f t="shared" si="2"/>
         <v>262600</v>
       </c>
       <c r="I13">
-        <f>MAX(I15:I1048576)</f>
+        <f t="shared" si="2"/>
         <v>1026</v>
       </c>
       <c r="J13">
-        <f>MAX(J15:J1048576)</f>
+        <f t="shared" si="2"/>
         <v>262104</v>
       </c>
       <c r="K13">
-        <f>MAX(K15:K1048576)</f>
+        <f t="shared" si="2"/>
         <v>1024</v>
       </c>
       <c r="L13">
-        <f>MAX(L15:L1048576)</f>
+        <f t="shared" si="2"/>
         <v>256</v>
       </c>
       <c r="M13">
-        <f>MAX(M15:M1048576)</f>
+        <f t="shared" si="2"/>
         <v>65536</v>
       </c>
       <c r="N13">
-        <f>MAX(N15:N1048576)</f>
+        <f t="shared" si="2"/>
         <v>256</v>
       </c>
       <c r="O13">
-        <f>MAX(O15:O1048576)</f>
+        <f t="shared" si="2"/>
         <v>256</v>
       </c>
       <c r="P13">
-        <f>MAX(P15:P1048576)</f>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="Q13">
-        <f>MAX(Q15:Q1048576)</f>
+        <f t="shared" si="2"/>
         <v>3712</v>
       </c>
       <c r="R13">
-        <f>MAX(R15:R1048576)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="S13">
-        <f>MAX(S15:S1048576)</f>
+        <f t="shared" si="2"/>
         <v>256</v>
       </c>
       <c r="T13">
-        <f>MAX(T15:T1048576)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U13">
-        <f>MAX(U15:U1048576)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V13">
-        <f>MAX(V15:V1048576)</f>
+        <f t="shared" si="2"/>
         <v>1.0459236825997864E-2</v>
       </c>
       <c r="W13" t="e">
-        <f>MAX(W15:W1048576)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -59791,15 +59791,15 @@
         <v>3.1415926535897931</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15" si="2">-2*PI()+B15</f>
+        <f t="shared" ref="C15" si="3">-2*PI()+B15</f>
         <v>-3.1415926535897931</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15" si="3">C15*$B$3</f>
+        <f t="shared" ref="D15" si="4">C15*$B$3</f>
         <v>-804.24771931898704</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="E15" si="4">ROUND(D15,0)</f>
+        <f t="shared" ref="E15" si="5">ROUND(D15,0)</f>
         <v>-804</v>
       </c>
       <c r="F15">
@@ -59819,7 +59819,7 @@
         <v>1026</v>
       </c>
       <c r="J15">
-        <f t="shared" ref="J15:J46" si="5">E15*$B$6</f>
+        <f t="shared" ref="J15:J46" si="6">E15*$B$6</f>
         <v>-262104</v>
       </c>
       <c r="K15">
@@ -59867,11 +59867,11 @@
         <v>-1.22514845490862E-16</v>
       </c>
       <c r="V15">
-        <f t="shared" ref="V15" si="6">U15-T15</f>
+        <f t="shared" ref="V15" si="7">U15-T15</f>
         <v>-7.8125000000001232E-3</v>
       </c>
       <c r="W15">
-        <f t="shared" ref="W15" si="7">V15/T15</f>
+        <f t="shared" ref="W15" si="8">V15/T15</f>
         <v>-1.0000000000000158</v>
       </c>
     </row>
@@ -59880,91 +59880,91 @@
         <v>33</v>
       </c>
       <c r="B16">
-        <f t="shared" ref="B16:B79" si="8">A16/32*PI()</f>
+        <f t="shared" ref="B16:B79" si="9">A16/32*PI()</f>
         <v>3.2397674240144743</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16:C48" si="9">-2*PI()+B16</f>
+        <f t="shared" ref="C16:C48" si="10">-2*PI()+B16</f>
         <v>-3.043417883165112</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16:D48" si="10">C16*$B$3</f>
+        <f t="shared" ref="D16:D48" si="11">C16*$B$3</f>
         <v>-779.11497809026866</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="E16:E48" si="11">ROUND(D16,0)</f>
+        <f t="shared" ref="E16:E48" si="12">ROUND(D16,0)</f>
         <v>-779</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:F79" si="12">E16*E16</f>
+        <f t="shared" ref="F16:F79" si="13">E16*E16</f>
         <v>606841</v>
       </c>
       <c r="G16">
-        <f t="shared" ref="G16:G79" si="13">ROUND(F16/$B$3,0)</f>
+        <f t="shared" ref="G16:G79" si="14">ROUND(F16/$B$3,0)</f>
         <v>2370</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16:H79" si="14">G16*$B$7</f>
+        <f t="shared" ref="H16:H79" si="15">G16*$B$7</f>
         <v>246480</v>
       </c>
       <c r="I16">
-        <f t="shared" ref="I16:I79" si="15">ROUND(H16/$B$3,0)</f>
+        <f t="shared" ref="I16:I79" si="16">ROUND(H16/$B$3,0)</f>
         <v>963</v>
       </c>
       <c r="J16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-253954</v>
       </c>
       <c r="K16">
-        <f t="shared" ref="K16:K79" si="16">ROUND(J16/$B$3,0)</f>
+        <f t="shared" ref="K16:K79" si="17">ROUND(J16/$B$3,0)</f>
         <v>-992</v>
       </c>
       <c r="L16">
-        <f t="shared" ref="L16:L47" si="17">IF(E16&lt;0,K16+I16,K16-I16)</f>
+        <f t="shared" ref="L16:L47" si="18">IF(E16&lt;0,K16+I16,K16-I16)</f>
         <v>-29</v>
       </c>
       <c r="M16">
-        <f t="shared" ref="M16:M79" si="18">L16*L16</f>
+        <f t="shared" ref="M16:M79" si="19">L16*L16</f>
         <v>841</v>
       </c>
       <c r="N16">
-        <f t="shared" ref="N16:N79" si="19">ROUND(M16/$B$3,0)</f>
+        <f t="shared" ref="N16:N79" si="20">ROUND(M16/$B$3,0)</f>
         <v>3</v>
       </c>
       <c r="O16">
-        <f t="shared" ref="O16:O47" si="20">IF(L16&lt;0,0-N16,N16)</f>
+        <f t="shared" ref="O16:O47" si="21">IF(L16&lt;0,0-N16,N16)</f>
         <v>-3</v>
       </c>
       <c r="P16">
-        <f t="shared" ref="P16:P47" si="21">O16-L16</f>
+        <f t="shared" ref="P16:P47" si="22">O16-L16</f>
         <v>26</v>
       </c>
       <c r="Q16">
-        <f t="shared" ref="Q16:Q79" si="22">P16*$B$8</f>
+        <f t="shared" ref="Q16:Q79" si="23">P16*$B$8</f>
         <v>1508</v>
       </c>
       <c r="R16">
-        <f t="shared" ref="R16:R79" si="23">ROUND(Q16/$B$3,0)</f>
+        <f t="shared" ref="R16:R79" si="24">ROUND(Q16/$B$3,0)</f>
         <v>6</v>
       </c>
       <c r="S16">
-        <f t="shared" ref="S16:S47" si="24">R16+L16</f>
+        <f t="shared" ref="S16:S47" si="25">R16+L16</f>
         <v>-23</v>
       </c>
       <c r="T16">
-        <f t="shared" ref="T16:T79" si="25">S16/$B$3</f>
+        <f t="shared" ref="T16:T79" si="26">S16/$B$3</f>
         <v>-8.984375E-2</v>
       </c>
       <c r="U16">
-        <f t="shared" ref="U16:U47" si="26">SIN(C16)</f>
+        <f t="shared" ref="U16:U47" si="27">SIN(C16)</f>
         <v>-9.8017140329560826E-2</v>
       </c>
       <c r="V16">
-        <f t="shared" ref="V16:V48" si="27">U16-T16</f>
+        <f t="shared" ref="V16:V48" si="28">U16-T16</f>
         <v>-8.1733903295608257E-3</v>
       </c>
       <c r="W16">
-        <f t="shared" ref="W16:W48" si="28">V16/T16</f>
+        <f t="shared" ref="W16:W48" si="29">V16/T16</f>
         <v>9.0973388015981357E-2</v>
       </c>
     </row>
@@ -59973,91 +59973,91 @@
         <v>34</v>
       </c>
       <c r="B17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.3379421944391554</v>
       </c>
       <c r="C17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-2.9452431127404308</v>
       </c>
       <c r="D17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-753.98223686155029</v>
       </c>
       <c r="E17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-754</v>
       </c>
       <c r="F17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>568516</v>
       </c>
       <c r="G17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2221</v>
       </c>
       <c r="H17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>230984</v>
       </c>
       <c r="I17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>902</v>
       </c>
       <c r="J17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-245804</v>
       </c>
       <c r="K17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-960</v>
       </c>
       <c r="L17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-58</v>
       </c>
       <c r="M17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3364</v>
       </c>
       <c r="N17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>13</v>
       </c>
       <c r="O17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-13</v>
       </c>
       <c r="P17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>45</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2610</v>
       </c>
       <c r="R17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="S17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-48</v>
       </c>
       <c r="T17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-0.1875</v>
       </c>
       <c r="U17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.19509032201612861</v>
       </c>
       <c r="V17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-7.5903220161286089E-3</v>
       </c>
       <c r="W17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.0481717419352581E-2</v>
       </c>
     </row>
@@ -60066,91 +60066,91 @@
         <v>35</v>
       </c>
       <c r="B18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.4361169648638361</v>
       </c>
       <c r="C18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-2.8470683423157501</v>
       </c>
       <c r="D18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-728.84949563283203</v>
       </c>
       <c r="E18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-729</v>
       </c>
       <c r="F18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>531441</v>
       </c>
       <c r="G18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2076</v>
       </c>
       <c r="H18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>215904</v>
       </c>
       <c r="I18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>843</v>
       </c>
       <c r="J18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-237654</v>
       </c>
       <c r="K18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-928</v>
       </c>
       <c r="L18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-85</v>
       </c>
       <c r="M18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7225</v>
       </c>
       <c r="N18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>28</v>
       </c>
       <c r="O18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-28</v>
       </c>
       <c r="P18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>57</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3306</v>
       </c>
       <c r="R18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>13</v>
       </c>
       <c r="S18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-72</v>
       </c>
       <c r="T18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-0.28125</v>
       </c>
       <c r="U18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.29028467725446239</v>
       </c>
       <c r="V18">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-9.0346772544623866E-3</v>
       </c>
       <c r="W18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.2123296904755155E-2</v>
       </c>
     </row>
@@ -60159,91 +60159,91 @@
         <v>36</v>
       </c>
       <c r="B19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.5342917352885173</v>
       </c>
       <c r="C19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-2.748893571891069</v>
       </c>
       <c r="D19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-703.71675440411366</v>
       </c>
       <c r="E19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-704</v>
       </c>
       <c r="F19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>495616</v>
       </c>
       <c r="G19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1936</v>
       </c>
       <c r="H19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>201344</v>
       </c>
       <c r="I19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>787</v>
       </c>
       <c r="J19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-229504</v>
       </c>
       <c r="K19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-897</v>
       </c>
       <c r="L19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-110</v>
       </c>
       <c r="M19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>12100</v>
       </c>
       <c r="N19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>47</v>
       </c>
       <c r="O19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-47</v>
       </c>
       <c r="P19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>63</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3654</v>
       </c>
       <c r="R19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="S19">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-96</v>
       </c>
       <c r="T19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-0.375</v>
       </c>
       <c r="U19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.38268343236508989</v>
       </c>
       <c r="V19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-7.6834323650898928E-3</v>
       </c>
       <c r="W19">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.0489152973573049E-2</v>
       </c>
     </row>
@@ -60252,91 +60252,91 @@
         <v>37</v>
       </c>
       <c r="B20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.6324665057131984</v>
       </c>
       <c r="C20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-2.6507188014663878</v>
       </c>
       <c r="D20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-678.58401317539528</v>
       </c>
       <c r="E20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-679</v>
       </c>
       <c r="F20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>461041</v>
       </c>
       <c r="G20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1801</v>
       </c>
       <c r="H20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>187304</v>
       </c>
       <c r="I20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>732</v>
       </c>
       <c r="J20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-221354</v>
       </c>
       <c r="K20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-865</v>
       </c>
       <c r="L20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-133</v>
       </c>
       <c r="M20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>17689</v>
       </c>
       <c r="N20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>69</v>
       </c>
       <c r="O20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-69</v>
       </c>
       <c r="P20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>64</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3712</v>
       </c>
       <c r="R20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>15</v>
       </c>
       <c r="S20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-118</v>
       </c>
       <c r="T20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-0.4609375</v>
       </c>
       <c r="U20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.47139673682599786</v>
       </c>
       <c r="V20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-1.0459236825997864E-2</v>
       </c>
       <c r="W20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.2691225656402147E-2</v>
       </c>
     </row>
@@ -60345,184 +60345,184 @@
         <v>38</v>
       </c>
       <c r="B21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.7306412761378791</v>
       </c>
       <c r="C21">
+        <f t="shared" si="10"/>
+        <v>-2.5525440310417071</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="11"/>
+        <v>-653.45127194667702</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="12"/>
+        <v>-653</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="13"/>
+        <v>426409</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="14"/>
+        <v>1666</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="15"/>
+        <v>173264</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="16"/>
+        <v>677</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="6"/>
+        <v>-212878</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="17"/>
+        <v>-832</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="18"/>
+        <v>-155</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="19"/>
+        <v>24025</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="20"/>
+        <v>94</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="21"/>
+        <v>-94</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="22"/>
+        <v>61</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="23"/>
+        <v>3538</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="24"/>
+        <v>14</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="25"/>
+        <v>-141</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="26"/>
+        <v>-0.55078125</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="27"/>
+        <v>-0.55557023301960218</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="28"/>
+        <v>-4.7889830196021776E-3</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="29"/>
+        <v>8.694891156157146E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" s="2" customFormat="1">
+      <c r="A22" s="2">
+        <v>39</v>
+      </c>
+      <c r="B22" s="2">
         <f t="shared" si="9"/>
-        <v>-2.5525440310417071</v>
-      </c>
-      <c r="D21">
+        <v>3.8288160465625602</v>
+      </c>
+      <c r="C22" s="2">
         <f t="shared" si="10"/>
-        <v>-653.45127194667702</v>
-      </c>
-      <c r="E21">
+        <v>-2.454369260617026</v>
+      </c>
+      <c r="D22" s="2">
         <f t="shared" si="11"/>
-        <v>-653</v>
-      </c>
-      <c r="F21">
+        <v>-628.31853071795865</v>
+      </c>
+      <c r="E22" s="2">
         <f t="shared" si="12"/>
-        <v>426409</v>
-      </c>
-      <c r="G21">
+        <v>-628</v>
+      </c>
+      <c r="F22" s="2">
         <f t="shared" si="13"/>
-        <v>1666</v>
-      </c>
-      <c r="H21">
+        <v>394384</v>
+      </c>
+      <c r="G22" s="2">
         <f t="shared" si="14"/>
-        <v>173264</v>
-      </c>
-      <c r="I21">
+        <v>1541</v>
+      </c>
+      <c r="H22" s="2">
         <f t="shared" si="15"/>
-        <v>677</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="5"/>
-        <v>-212878</v>
-      </c>
-      <c r="K21">
+        <v>160264</v>
+      </c>
+      <c r="I22" s="2">
         <f t="shared" si="16"/>
-        <v>-832</v>
-      </c>
-      <c r="L21">
+        <v>626</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="6"/>
+        <v>-204728</v>
+      </c>
+      <c r="K22" s="2">
         <f t="shared" si="17"/>
-        <v>-155</v>
-      </c>
-      <c r="M21">
+        <v>-800</v>
+      </c>
+      <c r="L22" s="2">
         <f t="shared" si="18"/>
-        <v>24025</v>
-      </c>
-      <c r="N21">
+        <v>-174</v>
+      </c>
+      <c r="M22" s="2">
         <f t="shared" si="19"/>
-        <v>94</v>
-      </c>
-      <c r="O21">
+        <v>30276</v>
+      </c>
+      <c r="N22" s="2">
         <f t="shared" si="20"/>
-        <v>-94</v>
-      </c>
-      <c r="P21">
+        <v>118</v>
+      </c>
+      <c r="O22" s="2">
         <f t="shared" si="21"/>
-        <v>61</v>
-      </c>
-      <c r="Q21">
+        <v>-118</v>
+      </c>
+      <c r="P22" s="2">
         <f t="shared" si="22"/>
-        <v>3538</v>
-      </c>
-      <c r="R21">
+        <v>56</v>
+      </c>
+      <c r="Q22" s="2">
         <f t="shared" si="23"/>
-        <v>14</v>
-      </c>
-      <c r="S21">
+        <v>3248</v>
+      </c>
+      <c r="R22" s="2">
         <f t="shared" si="24"/>
-        <v>-141</v>
-      </c>
-      <c r="T21">
+        <v>13</v>
+      </c>
+      <c r="S22" s="2">
         <f t="shared" si="25"/>
-        <v>-0.55078125</v>
-      </c>
-      <c r="U21">
+        <v>-161</v>
+      </c>
+      <c r="T22" s="2">
         <f t="shared" si="26"/>
-        <v>-0.55557023301960218</v>
-      </c>
-      <c r="V21">
+        <v>-0.62890625</v>
+      </c>
+      <c r="U22" s="2">
         <f t="shared" si="27"/>
-        <v>-4.7889830196021776E-3</v>
-      </c>
-      <c r="W21">
+        <v>-0.63439328416364549</v>
+      </c>
+      <c r="V22" s="2">
         <f t="shared" si="28"/>
-        <v>8.694891156157146E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
-      <c r="A22">
-        <v>39</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="8"/>
-        <v>3.8288160465625602</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="9"/>
-        <v>-2.454369260617026</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="10"/>
-        <v>-628.31853071795865</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="11"/>
-        <v>-628</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="12"/>
-        <v>394384</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="13"/>
-        <v>1541</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="14"/>
-        <v>160264</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="15"/>
-        <v>626</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="5"/>
-        <v>-204728</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="16"/>
-        <v>-800</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="17"/>
-        <v>-174</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="18"/>
-        <v>30276</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="19"/>
-        <v>118</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="20"/>
-        <v>-118</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="21"/>
-        <v>56</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="22"/>
-        <v>3248</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="23"/>
-        <v>13</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="24"/>
-        <v>-161</v>
-      </c>
-      <c r="T22">
-        <f t="shared" si="25"/>
-        <v>-0.62890625</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="26"/>
-        <v>-0.63439328416364549</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="27"/>
         <v>-5.4870341636454878E-3</v>
       </c>
-      <c r="W22">
-        <f t="shared" si="28"/>
+      <c r="W22" s="2">
+        <f t="shared" si="29"/>
         <v>8.7247251297717082E-3</v>
       </c>
     </row>
@@ -60531,91 +60531,91 @@
         <v>40</v>
       </c>
       <c r="B23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.9269908169872414</v>
       </c>
       <c r="C23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-2.3561944901923448</v>
       </c>
       <c r="D23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-603.18578948924028</v>
       </c>
       <c r="E23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-603</v>
       </c>
       <c r="F23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>363609</v>
       </c>
       <c r="G23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1420</v>
       </c>
       <c r="H23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>147680</v>
       </c>
       <c r="I23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>577</v>
       </c>
       <c r="J23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-196578</v>
       </c>
       <c r="K23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-768</v>
       </c>
       <c r="L23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-191</v>
       </c>
       <c r="M23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>36481</v>
       </c>
       <c r="N23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>143</v>
       </c>
       <c r="O23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-143</v>
       </c>
       <c r="P23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>48</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2784</v>
       </c>
       <c r="R23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>11</v>
       </c>
       <c r="S23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-180</v>
       </c>
       <c r="T23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-0.703125</v>
       </c>
       <c r="U23">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.70710678118654757</v>
       </c>
       <c r="V23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-3.9817811865475727E-3</v>
       </c>
       <c r="W23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>5.6629776875343259E-3</v>
       </c>
     </row>
@@ -60624,91 +60624,91 @@
         <v>41</v>
       </c>
       <c r="B24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.0251655874119221</v>
       </c>
       <c r="C24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-2.2580197197676641</v>
       </c>
       <c r="D24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-578.05304826052202</v>
       </c>
       <c r="E24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-578</v>
       </c>
       <c r="F24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>334084</v>
       </c>
       <c r="G24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1305</v>
       </c>
       <c r="H24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>135720</v>
       </c>
       <c r="I24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>530</v>
       </c>
       <c r="J24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-188428</v>
       </c>
       <c r="K24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-736</v>
       </c>
       <c r="L24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-206</v>
       </c>
       <c r="M24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>42436</v>
       </c>
       <c r="N24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>166</v>
       </c>
       <c r="O24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-166</v>
       </c>
       <c r="P24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>40</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2320</v>
       </c>
       <c r="R24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
       <c r="S24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-197</v>
       </c>
       <c r="T24">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-0.76953125</v>
       </c>
       <c r="U24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.77301045336273677</v>
       </c>
       <c r="V24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-3.4792033627367713E-3</v>
       </c>
       <c r="W24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.5211982784802715E-3</v>
       </c>
     </row>
@@ -60717,91 +60717,91 @@
         <v>42</v>
       </c>
       <c r="B25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.1233403578366037</v>
       </c>
       <c r="C25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-2.1598449493429825</v>
       </c>
       <c r="D25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-552.92030703180353</v>
       </c>
       <c r="E25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-553</v>
       </c>
       <c r="F25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>305809</v>
       </c>
       <c r="G25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1195</v>
       </c>
       <c r="H25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>124280</v>
       </c>
       <c r="I25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>485</v>
       </c>
       <c r="J25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-180278</v>
       </c>
       <c r="K25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-704</v>
       </c>
       <c r="L25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-219</v>
       </c>
       <c r="M25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>47961</v>
       </c>
       <c r="N25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>187</v>
       </c>
       <c r="O25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-187</v>
       </c>
       <c r="P25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>32</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1856</v>
       </c>
       <c r="R25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="S25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-212</v>
       </c>
       <c r="T25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-0.828125</v>
       </c>
       <c r="U25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.83146961230254546</v>
       </c>
       <c r="V25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-3.3446123025454577E-3</v>
       </c>
       <c r="W25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.0387771200548926E-3</v>
       </c>
     </row>
@@ -60810,91 +60810,91 @@
         <v>43</v>
       </c>
       <c r="B26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.2215151282612844</v>
       </c>
       <c r="C26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-2.0616701789183018</v>
       </c>
       <c r="D26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-527.78756580308527</v>
       </c>
       <c r="E26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-528</v>
       </c>
       <c r="F26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>278784</v>
       </c>
       <c r="G26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1089</v>
       </c>
       <c r="H26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>113256</v>
       </c>
       <c r="I26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>442</v>
       </c>
       <c r="J26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-172128</v>
       </c>
       <c r="K26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-672</v>
       </c>
       <c r="L26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-230</v>
       </c>
       <c r="M26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>52900</v>
       </c>
       <c r="N26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>207</v>
       </c>
       <c r="O26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-207</v>
       </c>
       <c r="P26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>23</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1334</v>
       </c>
       <c r="R26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="S26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-225</v>
       </c>
       <c r="T26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-0.87890625</v>
       </c>
       <c r="U26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.88192126434835505</v>
       </c>
       <c r="V26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-3.0150143483550496E-3</v>
       </c>
       <c r="W26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.4304163252395232E-3</v>
       </c>
     </row>
@@ -60903,91 +60903,91 @@
         <v>44</v>
       </c>
       <c r="B27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.3196898986859651</v>
       </c>
       <c r="C27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1.9634954084936211</v>
       </c>
       <c r="D27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-502.65482457436701</v>
       </c>
       <c r="E27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-503</v>
       </c>
       <c r="F27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>253009</v>
       </c>
       <c r="G27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>988</v>
       </c>
       <c r="H27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>102752</v>
       </c>
       <c r="I27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>401</v>
       </c>
       <c r="J27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-163978</v>
       </c>
       <c r="K27">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-641</v>
       </c>
       <c r="L27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-240</v>
       </c>
       <c r="M27">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>57600</v>
       </c>
       <c r="N27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>225</v>
       </c>
       <c r="O27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-225</v>
       </c>
       <c r="P27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>15</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>870</v>
       </c>
       <c r="R27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="S27">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-237</v>
       </c>
       <c r="T27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-0.92578125</v>
       </c>
       <c r="U27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.92387953251128663</v>
       </c>
       <c r="V27">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.9017174887133725E-3</v>
       </c>
       <c r="W27">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-2.0541758527874406E-3</v>
       </c>
     </row>
@@ -60996,91 +60996,91 @@
         <v>45</v>
       </c>
       <c r="B28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.4178646691106467</v>
       </c>
       <c r="C28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1.8653206380689396</v>
       </c>
       <c r="D28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-477.52208334564853</v>
       </c>
       <c r="E28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-478</v>
       </c>
       <c r="F28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>228484</v>
       </c>
       <c r="G28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>893</v>
       </c>
       <c r="H28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>92872</v>
       </c>
       <c r="I28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>363</v>
       </c>
       <c r="J28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-155828</v>
       </c>
       <c r="K28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-609</v>
       </c>
       <c r="L28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-246</v>
       </c>
       <c r="M28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>60516</v>
       </c>
       <c r="N28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>236</v>
       </c>
       <c r="O28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-236</v>
       </c>
       <c r="P28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>580</v>
       </c>
       <c r="R28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="S28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-244</v>
       </c>
       <c r="T28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-0.953125</v>
       </c>
       <c r="U28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.95694033573220894</v>
       </c>
       <c r="V28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-3.8153357322089354E-3</v>
       </c>
       <c r="W28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.002975194448719E-3</v>
       </c>
     </row>
@@ -61089,91 +61089,91 @@
         <v>46</v>
       </c>
       <c r="B29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.5160394395353274</v>
       </c>
       <c r="C29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1.7671458676442588</v>
       </c>
       <c r="D29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-452.38934211693027</v>
       </c>
       <c r="E29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-452</v>
       </c>
       <c r="F29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>204304</v>
       </c>
       <c r="G29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>798</v>
       </c>
       <c r="H29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>82992</v>
       </c>
       <c r="I29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>324</v>
       </c>
       <c r="J29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-147352</v>
       </c>
       <c r="K29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-576</v>
       </c>
       <c r="L29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-252</v>
       </c>
       <c r="M29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>63504</v>
       </c>
       <c r="N29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>248</v>
       </c>
       <c r="O29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-248</v>
       </c>
       <c r="P29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>232</v>
       </c>
       <c r="R29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="S29">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-251</v>
       </c>
       <c r="T29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-0.98046875</v>
       </c>
       <c r="U29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.98078528040323043</v>
       </c>
       <c r="V29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-3.1653040323043058E-4</v>
       </c>
       <c r="W29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.2283578974896506E-4</v>
       </c>
     </row>
@@ -61182,91 +61182,91 @@
         <v>47</v>
       </c>
       <c r="B30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.614214209960009</v>
       </c>
       <c r="C30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1.6689710972195773</v>
       </c>
       <c r="D30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-427.25660088821178</v>
       </c>
       <c r="E30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-427</v>
       </c>
       <c r="F30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>182329</v>
       </c>
       <c r="G30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>712</v>
       </c>
       <c r="H30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>74048</v>
       </c>
       <c r="I30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>289</v>
       </c>
       <c r="J30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-139202</v>
       </c>
       <c r="K30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-544</v>
       </c>
       <c r="L30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-255</v>
       </c>
       <c r="M30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>65025</v>
       </c>
       <c r="N30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>254</v>
       </c>
       <c r="O30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-254</v>
       </c>
       <c r="P30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>58</v>
       </c>
       <c r="R30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-255</v>
       </c>
       <c r="T30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-0.99609375</v>
       </c>
       <c r="U30">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.99518472667219693</v>
       </c>
       <c r="V30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>9.0902332780307127E-4</v>
       </c>
       <c r="W30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-9.1258812516700489E-4</v>
       </c>
     </row>
@@ -61275,91 +61275,91 @@
         <v>48</v>
       </c>
       <c r="B31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.7123889803846897</v>
       </c>
       <c r="C31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1.5707963267948966</v>
       </c>
       <c r="D31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-402.12385965949352</v>
       </c>
       <c r="E31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-402</v>
       </c>
       <c r="F31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>161604</v>
       </c>
       <c r="G31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>631</v>
       </c>
       <c r="H31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>65624</v>
       </c>
       <c r="I31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>256</v>
       </c>
       <c r="J31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-131052</v>
       </c>
       <c r="K31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-512</v>
       </c>
       <c r="L31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-256</v>
       </c>
       <c r="M31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>65536</v>
       </c>
       <c r="N31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>256</v>
       </c>
       <c r="O31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-256</v>
       </c>
       <c r="P31">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Q31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="R31">
+      <c r="Q31">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
+      <c r="R31">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="S31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-256</v>
       </c>
       <c r="T31">
-        <f t="shared" si="25"/>
-        <v>-1</v>
-      </c>
-      <c r="U31">
         <f t="shared" si="26"/>
         <v>-1</v>
       </c>
+      <c r="U31">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
       <c r="V31">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W31">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -61368,91 +61368,91 @@
         <v>49</v>
       </c>
       <c r="B32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.8105637508093704</v>
       </c>
       <c r="C32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1.4726215563702159</v>
       </c>
       <c r="D32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-376.99111843077526</v>
       </c>
       <c r="E32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-377</v>
       </c>
       <c r="F32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>142129</v>
       </c>
       <c r="G32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>555</v>
       </c>
       <c r="H32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>57720</v>
       </c>
       <c r="I32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>225</v>
       </c>
       <c r="J32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-122902</v>
       </c>
       <c r="K32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-480</v>
       </c>
       <c r="L32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-255</v>
       </c>
       <c r="M32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>65025</v>
       </c>
       <c r="N32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>254</v>
       </c>
       <c r="O32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-254</v>
       </c>
       <c r="P32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>58</v>
       </c>
       <c r="R32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-255</v>
       </c>
       <c r="T32">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-0.99609375</v>
       </c>
       <c r="U32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.99518472667219693</v>
       </c>
       <c r="V32">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>9.0902332780307127E-4</v>
       </c>
       <c r="W32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-9.1258812516700489E-4</v>
       </c>
     </row>
@@ -61461,91 +61461,91 @@
         <v>50</v>
       </c>
       <c r="B33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.908738521234052</v>
       </c>
       <c r="C33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1.3744467859455343</v>
       </c>
       <c r="D33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-351.85837720205677</v>
       </c>
       <c r="E33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-352</v>
       </c>
       <c r="F33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>123904</v>
       </c>
       <c r="G33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>484</v>
       </c>
       <c r="H33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>50336</v>
       </c>
       <c r="I33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>197</v>
       </c>
       <c r="J33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-114752</v>
       </c>
       <c r="K33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-448</v>
       </c>
       <c r="L33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-251</v>
       </c>
       <c r="M33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>63001</v>
       </c>
       <c r="N33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>246</v>
       </c>
       <c r="O33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-246</v>
       </c>
       <c r="P33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>290</v>
       </c>
       <c r="R33">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="S33">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-250</v>
       </c>
       <c r="T33">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-0.9765625</v>
       </c>
       <c r="U33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.98078528040323043</v>
       </c>
       <c r="V33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-4.2227804032304306E-3</v>
       </c>
       <c r="W33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.3241271329079612E-3</v>
       </c>
     </row>
@@ -61554,91 +61554,91 @@
         <v>51</v>
       </c>
       <c r="B34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.0069132916587327</v>
       </c>
       <c r="C34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1.2762720155208536</v>
       </c>
       <c r="D34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-326.72563597333851</v>
       </c>
       <c r="E34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-327</v>
       </c>
       <c r="F34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>106929</v>
       </c>
       <c r="G34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>418</v>
       </c>
       <c r="H34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43472</v>
       </c>
       <c r="I34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>170</v>
       </c>
       <c r="J34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-106602</v>
       </c>
       <c r="K34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-416</v>
       </c>
       <c r="L34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-246</v>
       </c>
       <c r="M34">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>60516</v>
       </c>
       <c r="N34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>236</v>
       </c>
       <c r="O34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-236</v>
       </c>
       <c r="P34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>580</v>
       </c>
       <c r="R34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="S34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-244</v>
       </c>
       <c r="T34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-0.953125</v>
       </c>
       <c r="U34">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.95694033573220894</v>
       </c>
       <c r="V34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-3.8153357322089354E-3</v>
       </c>
       <c r="W34">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.002975194448719E-3</v>
       </c>
     </row>
@@ -61647,91 +61647,91 @@
         <v>52</v>
       </c>
       <c r="B35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.1050880620834143</v>
       </c>
       <c r="C35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1.178097245096172</v>
       </c>
       <c r="D35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-301.59289474462003</v>
       </c>
       <c r="E35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-302</v>
       </c>
       <c r="F35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>91204</v>
       </c>
       <c r="G35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>356</v>
       </c>
       <c r="H35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37024</v>
       </c>
       <c r="I35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>145</v>
       </c>
       <c r="J35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-98452</v>
       </c>
       <c r="K35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-385</v>
       </c>
       <c r="L35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-240</v>
       </c>
       <c r="M35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>57600</v>
       </c>
       <c r="N35">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>225</v>
       </c>
       <c r="O35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-225</v>
       </c>
       <c r="P35">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>15</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>870</v>
       </c>
       <c r="R35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="S35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-237</v>
       </c>
       <c r="T35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-0.92578125</v>
       </c>
       <c r="U35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.92387953251128652</v>
       </c>
       <c r="V35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.9017174887134836E-3</v>
       </c>
       <c r="W35">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-2.0541758527875603E-3</v>
       </c>
     </row>
@@ -61740,91 +61740,91 @@
         <v>53</v>
       </c>
       <c r="B36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.203262832508095</v>
       </c>
       <c r="C36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1.0799224746714913</v>
       </c>
       <c r="D36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-276.46015351590177</v>
       </c>
       <c r="E36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-276</v>
       </c>
       <c r="F36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>76176</v>
       </c>
       <c r="G36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>298</v>
       </c>
       <c r="H36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>30992</v>
       </c>
       <c r="I36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>121</v>
       </c>
       <c r="J36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-89976</v>
       </c>
       <c r="K36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-351</v>
       </c>
       <c r="L36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-230</v>
       </c>
       <c r="M36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>52900</v>
       </c>
       <c r="N36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>207</v>
       </c>
       <c r="O36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-207</v>
       </c>
       <c r="P36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>23</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1334</v>
       </c>
       <c r="R36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="S36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-225</v>
       </c>
       <c r="T36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-0.87890625</v>
       </c>
       <c r="U36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.88192126434835494</v>
       </c>
       <c r="V36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-3.0150143483549385E-3</v>
       </c>
       <c r="W36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.4304163252393965E-3</v>
       </c>
     </row>
@@ -61833,91 +61833,91 @@
         <v>54</v>
       </c>
       <c r="B37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.3014376029327757</v>
       </c>
       <c r="C37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.98174770424681057</v>
       </c>
       <c r="D37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-251.32741228718351</v>
       </c>
       <c r="E37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-251</v>
       </c>
       <c r="F37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>63001</v>
       </c>
       <c r="G37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>246</v>
       </c>
       <c r="H37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>25584</v>
       </c>
       <c r="I37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="J37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-81826</v>
       </c>
       <c r="K37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-320</v>
       </c>
       <c r="L37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-220</v>
       </c>
       <c r="M37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>48400</v>
       </c>
       <c r="N37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>189</v>
       </c>
       <c r="O37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-189</v>
       </c>
       <c r="P37">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>31</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1798</v>
       </c>
       <c r="R37">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="S37">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-213</v>
       </c>
       <c r="T37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-0.83203125</v>
       </c>
       <c r="U37">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.83146961230254535</v>
       </c>
       <c r="V37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5.6163769745465331E-4</v>
       </c>
       <c r="W37">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-6.7501995562625002E-4</v>
       </c>
     </row>
@@ -61926,91 +61926,91 @@
         <v>55</v>
       </c>
       <c r="B38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.3996123733574573</v>
       </c>
       <c r="C38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.88357293382212898</v>
       </c>
       <c r="D38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-226.19467105846502</v>
       </c>
       <c r="E38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-226</v>
       </c>
       <c r="F38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>51076</v>
       </c>
       <c r="G38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>200</v>
       </c>
       <c r="H38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>20800</v>
       </c>
       <c r="I38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>81</v>
       </c>
       <c r="J38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-73676</v>
       </c>
       <c r="K38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-288</v>
       </c>
       <c r="L38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-207</v>
       </c>
       <c r="M38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>42849</v>
       </c>
       <c r="N38">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>167</v>
       </c>
       <c r="O38">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-167</v>
       </c>
       <c r="P38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>40</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2320</v>
       </c>
       <c r="R38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
       <c r="S38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-198</v>
       </c>
       <c r="T38">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-0.7734375</v>
       </c>
       <c r="U38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.77301045336273677</v>
       </c>
       <c r="V38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4.2704663726322867E-4</v>
       </c>
       <c r="W38">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-5.5214110676457843E-4</v>
       </c>
     </row>
@@ -62019,91 +62019,91 @@
         <v>56</v>
       </c>
       <c r="B39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.497787143782138</v>
       </c>
       <c r="C39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.78539816339744828</v>
       </c>
       <c r="D39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-201.06192982974676</v>
       </c>
       <c r="E39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-201</v>
       </c>
       <c r="F39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>40401</v>
       </c>
       <c r="G39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>158</v>
       </c>
       <c r="H39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16432</v>
       </c>
       <c r="I39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>64</v>
       </c>
       <c r="J39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-65526</v>
       </c>
       <c r="K39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-256</v>
       </c>
       <c r="L39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-192</v>
       </c>
       <c r="M39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>36864</v>
       </c>
       <c r="N39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>144</v>
       </c>
       <c r="O39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-144</v>
       </c>
       <c r="P39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>48</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2784</v>
       </c>
       <c r="R39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>11</v>
       </c>
       <c r="S39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-181</v>
       </c>
       <c r="T39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-0.70703125</v>
       </c>
       <c r="U39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.70710678118654746</v>
       </c>
       <c r="V39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-7.5531186547461715E-5</v>
       </c>
       <c r="W39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.0682863953674144E-4</v>
       </c>
     </row>
@@ -62112,91 +62112,91 @@
         <v>57</v>
       </c>
       <c r="B40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.5959619142068187</v>
       </c>
       <c r="C40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.68722339297276758</v>
       </c>
       <c r="D40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-175.9291886010285</v>
       </c>
       <c r="E40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-176</v>
       </c>
       <c r="F40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>30976</v>
       </c>
       <c r="G40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>121</v>
       </c>
       <c r="H40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>12584</v>
       </c>
       <c r="I40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>49</v>
       </c>
       <c r="J40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-57376</v>
       </c>
       <c r="K40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-224</v>
       </c>
       <c r="L40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-175</v>
       </c>
       <c r="M40">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30625</v>
       </c>
       <c r="N40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>120</v>
       </c>
       <c r="O40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-120</v>
       </c>
       <c r="P40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>55</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3190</v>
       </c>
       <c r="R40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="S40">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-163</v>
       </c>
       <c r="T40">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-0.63671875</v>
       </c>
       <c r="U40">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.63439328416364571</v>
       </c>
       <c r="V40">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.3254658363542902E-3</v>
       </c>
       <c r="W40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-3.6522653626177809E-3</v>
       </c>
     </row>
@@ -62205,91 +62205,91 @@
         <v>58</v>
       </c>
       <c r="B41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.6941366846315002</v>
       </c>
       <c r="C41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.58904862254808599</v>
       </c>
       <c r="D41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-150.79644737231001</v>
       </c>
       <c r="E41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-151</v>
       </c>
       <c r="F41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>22801</v>
       </c>
       <c r="G41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>89</v>
       </c>
       <c r="H41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9256</v>
       </c>
       <c r="I41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>36</v>
       </c>
       <c r="J41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-49226</v>
       </c>
       <c r="K41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-192</v>
       </c>
       <c r="L41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-156</v>
       </c>
       <c r="M41">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>24336</v>
       </c>
       <c r="N41">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>95</v>
       </c>
       <c r="O41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-95</v>
       </c>
       <c r="P41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>61</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3538</v>
       </c>
       <c r="R41">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="S41">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-142</v>
       </c>
       <c r="T41">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-0.5546875</v>
       </c>
       <c r="U41">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.55557023301960207</v>
       </c>
       <c r="V41">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-8.8273301960206663E-4</v>
       </c>
       <c r="W41">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.5914060071699229E-3</v>
       </c>
     </row>
@@ -62298,91 +62298,91 @@
         <v>59</v>
       </c>
       <c r="B42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.7923114550561809</v>
       </c>
       <c r="C42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.49087385212340529</v>
       </c>
       <c r="D42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-125.66370614359175</v>
       </c>
       <c r="E42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-126</v>
       </c>
       <c r="F42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15876</v>
       </c>
       <c r="G42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>62</v>
       </c>
       <c r="H42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6448</v>
       </c>
       <c r="I42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>25</v>
       </c>
       <c r="J42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-41076</v>
       </c>
       <c r="K42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-160</v>
       </c>
       <c r="L42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-135</v>
       </c>
       <c r="M42">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>18225</v>
       </c>
       <c r="N42">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>71</v>
       </c>
       <c r="O42">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-71</v>
       </c>
       <c r="P42">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>64</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3712</v>
       </c>
       <c r="R42">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>15</v>
       </c>
       <c r="S42">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-120</v>
       </c>
       <c r="T42">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-0.46875</v>
       </c>
       <c r="U42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.47139673682599775</v>
       </c>
       <c r="V42">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-2.6467368259977531E-3</v>
       </c>
       <c r="W42">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>5.6463718954618729E-3</v>
       </c>
     </row>
@@ -62391,91 +62391,91 @@
         <v>60</v>
       </c>
       <c r="B43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.8904862254808616</v>
       </c>
       <c r="C43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.39269908169872458</v>
       </c>
       <c r="D43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-100.53096491487349</v>
       </c>
       <c r="E43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-101</v>
       </c>
       <c r="F43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10201</v>
       </c>
       <c r="G43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>40</v>
       </c>
       <c r="H43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4160</v>
       </c>
       <c r="I43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
       <c r="J43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-32926</v>
       </c>
       <c r="K43">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-129</v>
       </c>
       <c r="L43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-113</v>
       </c>
       <c r="M43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>12769</v>
       </c>
       <c r="N43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>50</v>
       </c>
       <c r="O43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-50</v>
       </c>
       <c r="P43">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>63</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3654</v>
       </c>
       <c r="R43">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="S43">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-99</v>
       </c>
       <c r="T43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-0.38671875</v>
       </c>
       <c r="U43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.38268343236509017</v>
       </c>
       <c r="V43">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4.0353176349098296E-3</v>
       </c>
       <c r="W43">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-1.0434760752898146E-2</v>
       </c>
     </row>
@@ -62484,91 +62484,91 @@
         <v>61</v>
       </c>
       <c r="B44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.9886609959055432</v>
       </c>
       <c r="C44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.29452431127404299</v>
       </c>
       <c r="D44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-75.398223686155006</v>
       </c>
       <c r="E44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-75</v>
       </c>
       <c r="F44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5625</v>
       </c>
       <c r="G44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22</v>
       </c>
       <c r="H44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2288</v>
       </c>
       <c r="I44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="J44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-24450</v>
       </c>
       <c r="K44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-96</v>
       </c>
       <c r="L44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-87</v>
       </c>
       <c r="M44">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7569</v>
       </c>
       <c r="N44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>30</v>
       </c>
       <c r="O44">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-30</v>
       </c>
       <c r="P44">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>57</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3306</v>
       </c>
       <c r="R44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>13</v>
       </c>
       <c r="S44">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-74</v>
       </c>
       <c r="T44">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-0.2890625</v>
       </c>
       <c r="U44">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.29028467725446228</v>
       </c>
       <c r="V44">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-1.2221772544622755E-3</v>
       </c>
       <c r="W44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.2280726640857103E-3</v>
       </c>
     </row>
@@ -62577,91 +62577,91 @@
         <v>62</v>
       </c>
       <c r="B45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.0868357663302239</v>
       </c>
       <c r="C45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.19634954084936229</v>
       </c>
       <c r="D45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-50.265482457436747</v>
       </c>
       <c r="E45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-50</v>
       </c>
       <c r="F45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2500</v>
       </c>
       <c r="G45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="H45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1040</v>
       </c>
       <c r="I45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="J45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-16300</v>
       </c>
       <c r="K45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-64</v>
       </c>
       <c r="L45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-60</v>
       </c>
       <c r="M45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3600</v>
       </c>
       <c r="N45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>14</v>
       </c>
       <c r="O45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-14</v>
       </c>
       <c r="P45">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>46</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2668</v>
       </c>
       <c r="R45">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="S45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-50</v>
       </c>
       <c r="T45">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-0.1953125</v>
       </c>
       <c r="U45">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.19509032201612847</v>
       </c>
       <c r="V45">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.2217798387152987E-4</v>
       </c>
       <c r="W45">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-1.1375512774222329E-3</v>
       </c>
     </row>
@@ -62670,91 +62670,91 @@
         <v>63</v>
       </c>
       <c r="B46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.1850105367549055</v>
       </c>
       <c r="C46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-9.8174770424680702E-2</v>
       </c>
       <c r="D46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-25.13274122871826</v>
       </c>
       <c r="E46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-25</v>
       </c>
       <c r="F46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>625</v>
       </c>
       <c r="G46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="H46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>208</v>
       </c>
       <c r="I46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="J46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-8150</v>
       </c>
       <c r="K46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-32</v>
       </c>
       <c r="L46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-31</v>
       </c>
       <c r="M46">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>961</v>
       </c>
       <c r="N46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="O46">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-4</v>
       </c>
       <c r="P46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>27</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1566</v>
       </c>
       <c r="R46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
       <c r="S46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-25</v>
       </c>
       <c r="T46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-9.765625E-2</v>
       </c>
       <c r="U46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-9.8017140329560271E-2</v>
       </c>
       <c r="V46">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-3.6089032956027056E-4</v>
       </c>
       <c r="W46">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.6955169746971704E-3</v>
       </c>
     </row>
@@ -62763,91 +62763,91 @@
         <v>64</v>
       </c>
       <c r="B47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.2831853071795862</v>
       </c>
       <c r="C47">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E47">
+      <c r="D47">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F47">
+      <c r="E47">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G47">
+      <c r="F47">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H47">
+      <c r="G47">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I47">
+      <c r="H47">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J47">
-        <f t="shared" ref="J47:J79" si="29">E47*$B$6</f>
-        <v>0</v>
-      </c>
-      <c r="K47">
+      <c r="I47">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L47">
+      <c r="J47">
+        <f t="shared" ref="J47:J79" si="30">E47*$B$6</f>
+        <v>0</v>
+      </c>
+      <c r="K47">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M47">
+      <c r="L47">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="N47">
+      <c r="M47">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="O47">
+      <c r="N47">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="P47">
+      <c r="O47">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Q47">
+      <c r="P47">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="R47">
+      <c r="Q47">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="S47">
+      <c r="R47">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="T47">
+      <c r="S47">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="U47">
+      <c r="T47">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="V47">
+      <c r="U47">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
+      <c r="V47">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
       <c r="W47" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -62860,15 +62860,15 @@
         <v>6.3813600776042669</v>
       </c>
       <c r="C48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.8174770424680702E-2</v>
       </c>
       <c r="D48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>25.13274122871826</v>
       </c>
       <c r="E48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="F48">
@@ -62888,7 +62888,7 @@
         <v>1</v>
       </c>
       <c r="J48">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>8150</v>
       </c>
       <c r="K48">
@@ -62936,11 +62936,11 @@
         <v>9.8017140329560271E-2</v>
       </c>
       <c r="V48">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3.6089032956027056E-4</v>
       </c>
       <c r="W48">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.6955169746971704E-3</v>
       </c>
     </row>
@@ -62949,91 +62949,91 @@
         <v>66</v>
       </c>
       <c r="B49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.4795348480289485</v>
       </c>
       <c r="C49">
-        <f t="shared" ref="C49:C79" si="30">-2*PI()+B49</f>
+        <f t="shared" ref="C49:C79" si="31">-2*PI()+B49</f>
         <v>0.19634954084936229</v>
       </c>
       <c r="D49">
-        <f t="shared" ref="D49:D79" si="31">C49*$B$3</f>
+        <f t="shared" ref="D49:D79" si="32">C49*$B$3</f>
         <v>50.265482457436747</v>
       </c>
       <c r="E49">
-        <f t="shared" ref="E49:E79" si="32">ROUND(D49,0)</f>
+        <f t="shared" ref="E49:E79" si="33">ROUND(D49,0)</f>
         <v>50</v>
       </c>
       <c r="F49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2500</v>
       </c>
       <c r="G49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="H49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1040</v>
       </c>
       <c r="I49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="J49">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>16300</v>
       </c>
       <c r="K49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>64</v>
       </c>
       <c r="L49">
-        <f t="shared" ref="L49:L72" si="33">IF(E49&lt;0,K49+I49,K49-I49)</f>
+        <f t="shared" ref="L49:L72" si="34">IF(E49&lt;0,K49+I49,K49-I49)</f>
         <v>60</v>
       </c>
       <c r="M49">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3600</v>
       </c>
       <c r="N49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>14</v>
       </c>
       <c r="O49">
-        <f t="shared" ref="O49:O72" si="34">IF(L49&lt;0,0-N49,N49)</f>
+        <f t="shared" ref="O49:O72" si="35">IF(L49&lt;0,0-N49,N49)</f>
         <v>14</v>
       </c>
       <c r="P49">
-        <f t="shared" ref="P49:P72" si="35">O49-L49</f>
+        <f t="shared" ref="P49:P72" si="36">O49-L49</f>
         <v>-46</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-2668</v>
       </c>
       <c r="R49">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-10</v>
       </c>
       <c r="S49">
-        <f t="shared" ref="S49:S72" si="36">R49+L49</f>
+        <f t="shared" ref="S49:S72" si="37">R49+L49</f>
         <v>50</v>
       </c>
       <c r="T49">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.1953125</v>
       </c>
       <c r="U49">
-        <f t="shared" ref="U49:U72" si="37">SIN(C49)</f>
+        <f t="shared" ref="U49:U72" si="38">SIN(C49)</f>
         <v>0.19509032201612847</v>
       </c>
       <c r="V49">
-        <f t="shared" ref="V49:V79" si="38">U49-T49</f>
+        <f t="shared" ref="V49:V79" si="39">U49-T49</f>
         <v>-2.2217798387152987E-4</v>
       </c>
       <c r="W49">
-        <f t="shared" ref="W49:W79" si="39">V49/T49</f>
+        <f t="shared" ref="W49:W79" si="40">V49/T49</f>
         <v>-1.1375512774222329E-3</v>
       </c>
     </row>
@@ -63042,91 +63042,91 @@
         <v>67</v>
       </c>
       <c r="B50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.5777096184536292</v>
       </c>
       <c r="C50">
+        <f t="shared" si="31"/>
+        <v>0.29452431127404299</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="32"/>
+        <v>75.398223686155006</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="33"/>
+        <v>75</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="13"/>
+        <v>5625</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="14"/>
+        <v>22</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="15"/>
+        <v>2288</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="J50">
         <f t="shared" si="30"/>
-        <v>0.29452431127404299</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="31"/>
-        <v>75.398223686155006</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="32"/>
-        <v>75</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="12"/>
-        <v>5625</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="13"/>
-        <v>22</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="14"/>
-        <v>2288</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="15"/>
-        <v>9</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="29"/>
         <v>24450</v>
       </c>
       <c r="K50">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>96</v>
       </c>
       <c r="L50">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>87</v>
       </c>
       <c r="M50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7569</v>
       </c>
       <c r="N50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>30</v>
       </c>
       <c r="O50">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>30</v>
       </c>
       <c r="P50">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-57</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-3306</v>
       </c>
       <c r="R50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-13</v>
       </c>
       <c r="S50">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>74</v>
       </c>
       <c r="T50">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.2890625</v>
       </c>
       <c r="U50">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.29028467725446228</v>
       </c>
       <c r="V50">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.2221772544622755E-3</v>
       </c>
       <c r="W50">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4.2280726640857103E-3</v>
       </c>
     </row>
@@ -63135,91 +63135,91 @@
         <v>68</v>
       </c>
       <c r="B51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.6758843888783108</v>
       </c>
       <c r="C51">
+        <f t="shared" si="31"/>
+        <v>0.39269908169872458</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="32"/>
+        <v>100.53096491487349</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="33"/>
+        <v>101</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="13"/>
+        <v>10201</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="15"/>
+        <v>4160</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="16"/>
+        <v>16</v>
+      </c>
+      <c r="J51">
         <f t="shared" si="30"/>
-        <v>0.39269908169872458</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="31"/>
-        <v>100.53096491487349</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="32"/>
-        <v>101</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="12"/>
-        <v>10201</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="13"/>
-        <v>40</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="14"/>
-        <v>4160</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="15"/>
-        <v>16</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="29"/>
         <v>32926</v>
       </c>
       <c r="K51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>129</v>
       </c>
       <c r="L51">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>113</v>
       </c>
       <c r="M51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>12769</v>
       </c>
       <c r="N51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>50</v>
       </c>
       <c r="O51">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>50</v>
       </c>
       <c r="P51">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-63</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-3654</v>
       </c>
       <c r="R51">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-14</v>
       </c>
       <c r="S51">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>99</v>
       </c>
       <c r="T51">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.38671875</v>
       </c>
       <c r="U51">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.38268343236509017</v>
       </c>
       <c r="V51">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-4.0353176349098296E-3</v>
       </c>
       <c r="W51">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>-1.0434760752898146E-2</v>
       </c>
     </row>
@@ -63228,91 +63228,91 @@
         <v>69</v>
       </c>
       <c r="B52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.7740591593029915</v>
       </c>
       <c r="C52">
+        <f t="shared" si="31"/>
+        <v>0.49087385212340529</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="32"/>
+        <v>125.66370614359175</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="33"/>
+        <v>126</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="13"/>
+        <v>15876</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="14"/>
+        <v>62</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="15"/>
+        <v>6448</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="16"/>
+        <v>25</v>
+      </c>
+      <c r="J52">
         <f t="shared" si="30"/>
-        <v>0.49087385212340529</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="31"/>
-        <v>125.66370614359175</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="32"/>
-        <v>126</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="12"/>
-        <v>15876</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="13"/>
-        <v>62</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="14"/>
-        <v>6448</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="15"/>
-        <v>25</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="29"/>
         <v>41076</v>
       </c>
       <c r="K52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>160</v>
       </c>
       <c r="L52">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>135</v>
       </c>
       <c r="M52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>18225</v>
       </c>
       <c r="N52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>71</v>
       </c>
       <c r="O52">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>71</v>
       </c>
       <c r="P52">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-64</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-3712</v>
       </c>
       <c r="R52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-15</v>
       </c>
       <c r="S52">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>120</v>
       </c>
       <c r="T52">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.46875</v>
       </c>
       <c r="U52">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.47139673682599775</v>
       </c>
       <c r="V52">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>2.6467368259977531E-3</v>
       </c>
       <c r="W52">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>5.6463718954618729E-3</v>
       </c>
     </row>
@@ -63321,91 +63321,91 @@
         <v>70</v>
       </c>
       <c r="B53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.8722339297276722</v>
       </c>
       <c r="C53">
+        <f t="shared" si="31"/>
+        <v>0.58904862254808599</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="32"/>
+        <v>150.79644737231001</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="33"/>
+        <v>151</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="13"/>
+        <v>22801</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="14"/>
+        <v>89</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="15"/>
+        <v>9256</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="16"/>
+        <v>36</v>
+      </c>
+      <c r="J53">
         <f t="shared" si="30"/>
-        <v>0.58904862254808599</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="31"/>
-        <v>150.79644737231001</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="32"/>
-        <v>151</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="12"/>
-        <v>22801</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="13"/>
-        <v>89</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="14"/>
-        <v>9256</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="15"/>
-        <v>36</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="29"/>
         <v>49226</v>
       </c>
       <c r="K53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>192</v>
       </c>
       <c r="L53">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>156</v>
       </c>
       <c r="M53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>24336</v>
       </c>
       <c r="N53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>95</v>
       </c>
       <c r="O53">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>95</v>
       </c>
       <c r="P53">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-61</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-3538</v>
       </c>
       <c r="R53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-14</v>
       </c>
       <c r="S53">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>142</v>
       </c>
       <c r="T53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.5546875</v>
       </c>
       <c r="U53">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.55557023301960207</v>
       </c>
       <c r="V53">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>8.8273301960206663E-4</v>
       </c>
       <c r="W53">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.5914060071699229E-3</v>
       </c>
     </row>
@@ -63414,91 +63414,91 @@
         <v>71</v>
       </c>
       <c r="B54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.9704087001523538</v>
       </c>
       <c r="C54">
+        <f t="shared" si="31"/>
+        <v>0.68722339297276758</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="32"/>
+        <v>175.9291886010285</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="33"/>
+        <v>176</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="13"/>
+        <v>30976</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="14"/>
+        <v>121</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="15"/>
+        <v>12584</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="J54">
         <f t="shared" si="30"/>
-        <v>0.68722339297276758</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="31"/>
-        <v>175.9291886010285</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="32"/>
-        <v>176</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="12"/>
-        <v>30976</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="13"/>
-        <v>121</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="14"/>
-        <v>12584</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="15"/>
-        <v>49</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="29"/>
         <v>57376</v>
       </c>
       <c r="K54">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>224</v>
       </c>
       <c r="L54">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>175</v>
       </c>
       <c r="M54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30625</v>
       </c>
       <c r="N54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>120</v>
       </c>
       <c r="O54">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>120</v>
       </c>
       <c r="P54">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-55</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-3190</v>
       </c>
       <c r="R54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-12</v>
       </c>
       <c r="S54">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>163</v>
       </c>
       <c r="T54">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.63671875</v>
       </c>
       <c r="U54">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.63439328416364571</v>
       </c>
       <c r="V54">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-2.3254658363542902E-3</v>
       </c>
       <c r="W54">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>-3.6522653626177809E-3</v>
       </c>
     </row>
@@ -63507,91 +63507,91 @@
         <v>72</v>
       </c>
       <c r="B55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.0685834705770345</v>
       </c>
       <c r="C55">
+        <f t="shared" si="31"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="32"/>
+        <v>201.06192982974676</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="33"/>
+        <v>201</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="13"/>
+        <v>40401</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="14"/>
+        <v>158</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="15"/>
+        <v>16432</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="16"/>
+        <v>64</v>
+      </c>
+      <c r="J55">
         <f t="shared" si="30"/>
-        <v>0.78539816339744828</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="31"/>
-        <v>201.06192982974676</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="32"/>
-        <v>201</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="12"/>
-        <v>40401</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="13"/>
-        <v>158</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="14"/>
-        <v>16432</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="15"/>
-        <v>64</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="29"/>
         <v>65526</v>
       </c>
       <c r="K55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>256</v>
       </c>
       <c r="L55">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>192</v>
       </c>
       <c r="M55">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>36864</v>
       </c>
       <c r="N55">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>144</v>
       </c>
       <c r="O55">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>144</v>
       </c>
       <c r="P55">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-48</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-2784</v>
       </c>
       <c r="R55">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-11</v>
       </c>
       <c r="S55">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>181</v>
       </c>
       <c r="T55">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.70703125</v>
       </c>
       <c r="U55">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.70710678118654746</v>
       </c>
       <c r="V55">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>7.5531186547461715E-5</v>
       </c>
       <c r="W55">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.0682863953674144E-4</v>
       </c>
     </row>
@@ -63600,91 +63600,91 @@
         <v>73</v>
       </c>
       <c r="B56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.1667582410017152</v>
       </c>
       <c r="C56">
+        <f t="shared" si="31"/>
+        <v>0.88357293382212898</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="32"/>
+        <v>226.19467105846502</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="33"/>
+        <v>226</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="13"/>
+        <v>51076</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="15"/>
+        <v>20800</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="16"/>
+        <v>81</v>
+      </c>
+      <c r="J56">
         <f t="shared" si="30"/>
-        <v>0.88357293382212898</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="31"/>
-        <v>226.19467105846502</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="32"/>
-        <v>226</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="12"/>
-        <v>51076</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="13"/>
-        <v>200</v>
-      </c>
-      <c r="H56">
-        <f t="shared" si="14"/>
-        <v>20800</v>
-      </c>
-      <c r="I56">
-        <f t="shared" si="15"/>
-        <v>81</v>
-      </c>
-      <c r="J56">
-        <f t="shared" si="29"/>
         <v>73676</v>
       </c>
       <c r="K56">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>288</v>
       </c>
       <c r="L56">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>207</v>
       </c>
       <c r="M56">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>42849</v>
       </c>
       <c r="N56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>167</v>
       </c>
       <c r="O56">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>167</v>
       </c>
       <c r="P56">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-40</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-2320</v>
       </c>
       <c r="R56">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-9</v>
       </c>
       <c r="S56">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>198</v>
       </c>
       <c r="T56">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.7734375</v>
       </c>
       <c r="U56">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.77301045336273677</v>
       </c>
       <c r="V56">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-4.2704663726322867E-4</v>
       </c>
       <c r="W56">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>-5.5214110676457843E-4</v>
       </c>
     </row>
@@ -63693,91 +63693,91 @@
         <v>74</v>
       </c>
       <c r="B57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.2649330114263968</v>
       </c>
       <c r="C57">
+        <f t="shared" si="31"/>
+        <v>0.98174770424681057</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="32"/>
+        <v>251.32741228718351</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="33"/>
+        <v>251</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="13"/>
+        <v>63001</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="14"/>
+        <v>246</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="15"/>
+        <v>25584</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="J57">
         <f t="shared" si="30"/>
-        <v>0.98174770424681057</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="31"/>
-        <v>251.32741228718351</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="32"/>
-        <v>251</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="12"/>
-        <v>63001</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="13"/>
-        <v>246</v>
-      </c>
-      <c r="H57">
-        <f t="shared" si="14"/>
-        <v>25584</v>
-      </c>
-      <c r="I57">
-        <f t="shared" si="15"/>
-        <v>100</v>
-      </c>
-      <c r="J57">
-        <f t="shared" si="29"/>
         <v>81826</v>
       </c>
       <c r="K57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>320</v>
       </c>
       <c r="L57">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>220</v>
       </c>
       <c r="M57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>48400</v>
       </c>
       <c r="N57">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>189</v>
       </c>
       <c r="O57">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>189</v>
       </c>
       <c r="P57">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-31</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-1798</v>
       </c>
       <c r="R57">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-7</v>
       </c>
       <c r="S57">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>213</v>
       </c>
       <c r="T57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.83203125</v>
       </c>
       <c r="U57">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.83146961230254535</v>
       </c>
       <c r="V57">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-5.6163769745465331E-4</v>
       </c>
       <c r="W57">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>-6.7501995562625002E-4</v>
       </c>
     </row>
@@ -63786,91 +63786,91 @@
         <v>75</v>
       </c>
       <c r="B58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.3631077818510775</v>
       </c>
       <c r="C58">
+        <f t="shared" si="31"/>
+        <v>1.0799224746714913</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="32"/>
+        <v>276.46015351590177</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="33"/>
+        <v>276</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="13"/>
+        <v>76176</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="14"/>
+        <v>298</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="15"/>
+        <v>30992</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="16"/>
+        <v>121</v>
+      </c>
+      <c r="J58">
         <f t="shared" si="30"/>
-        <v>1.0799224746714913</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="31"/>
-        <v>276.46015351590177</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="32"/>
-        <v>276</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="12"/>
-        <v>76176</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="13"/>
-        <v>298</v>
-      </c>
-      <c r="H58">
-        <f t="shared" si="14"/>
-        <v>30992</v>
-      </c>
-      <c r="I58">
-        <f t="shared" si="15"/>
-        <v>121</v>
-      </c>
-      <c r="J58">
-        <f t="shared" si="29"/>
         <v>89976</v>
       </c>
       <c r="K58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>351</v>
       </c>
       <c r="L58">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>230</v>
       </c>
       <c r="M58">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>52900</v>
       </c>
       <c r="N58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>207</v>
       </c>
       <c r="O58">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>207</v>
       </c>
       <c r="P58">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-23</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-1334</v>
       </c>
       <c r="R58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-5</v>
       </c>
       <c r="S58">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>225</v>
       </c>
       <c r="T58">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.87890625</v>
       </c>
       <c r="U58">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.88192126434835494</v>
       </c>
       <c r="V58">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>3.0150143483549385E-3</v>
       </c>
       <c r="W58">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>3.4304163252393965E-3</v>
       </c>
     </row>
@@ -63879,91 +63879,91 @@
         <v>76</v>
       </c>
       <c r="B59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.4612825522757582</v>
       </c>
       <c r="C59">
+        <f t="shared" si="31"/>
+        <v>1.178097245096172</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="32"/>
+        <v>301.59289474462003</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="33"/>
+        <v>302</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="13"/>
+        <v>91204</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="14"/>
+        <v>356</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="15"/>
+        <v>37024</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="16"/>
+        <v>145</v>
+      </c>
+      <c r="J59">
         <f t="shared" si="30"/>
-        <v>1.178097245096172</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="31"/>
-        <v>301.59289474462003</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="32"/>
-        <v>302</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="12"/>
-        <v>91204</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="13"/>
-        <v>356</v>
-      </c>
-      <c r="H59">
-        <f t="shared" si="14"/>
-        <v>37024</v>
-      </c>
-      <c r="I59">
-        <f t="shared" si="15"/>
-        <v>145</v>
-      </c>
-      <c r="J59">
-        <f t="shared" si="29"/>
         <v>98452</v>
       </c>
       <c r="K59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>385</v>
       </c>
       <c r="L59">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>240</v>
       </c>
       <c r="M59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>57600</v>
       </c>
       <c r="N59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>225</v>
       </c>
       <c r="O59">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>225</v>
       </c>
       <c r="P59">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-15</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-870</v>
       </c>
       <c r="R59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-3</v>
       </c>
       <c r="S59">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>237</v>
       </c>
       <c r="T59">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.92578125</v>
       </c>
       <c r="U59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.92387953251128652</v>
       </c>
       <c r="V59">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-1.9017174887134836E-3</v>
       </c>
       <c r="W59">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>-2.0541758527875603E-3</v>
       </c>
     </row>
@@ -63972,91 +63972,91 @@
         <v>77</v>
       </c>
       <c r="B60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.5594573227004398</v>
       </c>
       <c r="C60">
+        <f t="shared" si="31"/>
+        <v>1.2762720155208536</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="32"/>
+        <v>326.72563597333851</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="33"/>
+        <v>327</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="13"/>
+        <v>106929</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="14"/>
+        <v>418</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="15"/>
+        <v>43472</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="16"/>
+        <v>170</v>
+      </c>
+      <c r="J60">
         <f t="shared" si="30"/>
-        <v>1.2762720155208536</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="31"/>
-        <v>326.72563597333851</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="32"/>
-        <v>327</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="12"/>
-        <v>106929</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="13"/>
-        <v>418</v>
-      </c>
-      <c r="H60">
-        <f t="shared" si="14"/>
-        <v>43472</v>
-      </c>
-      <c r="I60">
-        <f t="shared" si="15"/>
-        <v>170</v>
-      </c>
-      <c r="J60">
-        <f t="shared" si="29"/>
         <v>106602</v>
       </c>
       <c r="K60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>416</v>
       </c>
       <c r="L60">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>246</v>
       </c>
       <c r="M60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>60516</v>
       </c>
       <c r="N60">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>236</v>
       </c>
       <c r="O60">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>236</v>
       </c>
       <c r="P60">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-10</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-580</v>
       </c>
       <c r="R60">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-2</v>
       </c>
       <c r="S60">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>244</v>
       </c>
       <c r="T60">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.953125</v>
       </c>
       <c r="U60">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.95694033573220894</v>
       </c>
       <c r="V60">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>3.8153357322089354E-3</v>
       </c>
       <c r="W60">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4.002975194448719E-3</v>
       </c>
     </row>
@@ -64065,91 +64065,91 @@
         <v>78</v>
       </c>
       <c r="B61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.6576320931251205</v>
       </c>
       <c r="C61">
+        <f t="shared" si="31"/>
+        <v>1.3744467859455343</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="32"/>
+        <v>351.85837720205677</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="33"/>
+        <v>352</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="13"/>
+        <v>123904</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="14"/>
+        <v>484</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="15"/>
+        <v>50336</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="16"/>
+        <v>197</v>
+      </c>
+      <c r="J61">
         <f t="shared" si="30"/>
-        <v>1.3744467859455343</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="31"/>
-        <v>351.85837720205677</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="32"/>
-        <v>352</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="12"/>
-        <v>123904</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="13"/>
-        <v>484</v>
-      </c>
-      <c r="H61">
-        <f t="shared" si="14"/>
-        <v>50336</v>
-      </c>
-      <c r="I61">
-        <f t="shared" si="15"/>
-        <v>197</v>
-      </c>
-      <c r="J61">
-        <f t="shared" si="29"/>
         <v>114752</v>
       </c>
       <c r="K61">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>448</v>
       </c>
       <c r="L61">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>251</v>
       </c>
       <c r="M61">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>63001</v>
       </c>
       <c r="N61">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>246</v>
       </c>
       <c r="O61">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>246</v>
       </c>
       <c r="P61">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-5</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-290</v>
       </c>
       <c r="R61">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
       <c r="S61">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>250</v>
       </c>
       <c r="T61">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.9765625</v>
       </c>
       <c r="U61">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.98078528040323043</v>
       </c>
       <c r="V61">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>4.2227804032304306E-3</v>
       </c>
       <c r="W61">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4.3241271329079612E-3</v>
       </c>
     </row>
@@ -64158,91 +64158,91 @@
         <v>79</v>
       </c>
       <c r="B62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.7558068635498021</v>
       </c>
       <c r="C62">
+        <f t="shared" si="31"/>
+        <v>1.4726215563702159</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="32"/>
+        <v>376.99111843077526</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="33"/>
+        <v>377</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="13"/>
+        <v>142129</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="14"/>
+        <v>555</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="15"/>
+        <v>57720</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="16"/>
+        <v>225</v>
+      </c>
+      <c r="J62">
         <f t="shared" si="30"/>
-        <v>1.4726215563702159</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="31"/>
-        <v>376.99111843077526</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="32"/>
-        <v>377</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="12"/>
-        <v>142129</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="13"/>
-        <v>555</v>
-      </c>
-      <c r="H62">
-        <f t="shared" si="14"/>
-        <v>57720</v>
-      </c>
-      <c r="I62">
-        <f t="shared" si="15"/>
-        <v>225</v>
-      </c>
-      <c r="J62">
-        <f t="shared" si="29"/>
         <v>122902</v>
       </c>
       <c r="K62">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>480</v>
       </c>
       <c r="L62">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>255</v>
       </c>
       <c r="M62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>65025</v>
       </c>
       <c r="N62">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>254</v>
       </c>
       <c r="O62">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>254</v>
       </c>
       <c r="P62">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-1</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-58</v>
       </c>
       <c r="R62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S62">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>255</v>
       </c>
       <c r="T62">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.99609375</v>
       </c>
       <c r="U62">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.99518472667219693</v>
       </c>
       <c r="V62">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-9.0902332780307127E-4</v>
       </c>
       <c r="W62">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>-9.1258812516700489E-4</v>
       </c>
     </row>
@@ -64251,91 +64251,91 @@
         <v>80</v>
       </c>
       <c r="B63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.8539816339744828</v>
       </c>
       <c r="C63">
+        <f t="shared" si="31"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="32"/>
+        <v>402.12385965949352</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="33"/>
+        <v>402</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="13"/>
+        <v>161604</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="14"/>
+        <v>631</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="15"/>
+        <v>65624</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="16"/>
+        <v>256</v>
+      </c>
+      <c r="J63">
         <f t="shared" si="30"/>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="31"/>
-        <v>402.12385965949352</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="32"/>
-        <v>402</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="12"/>
-        <v>161604</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="13"/>
-        <v>631</v>
-      </c>
-      <c r="H63">
-        <f t="shared" si="14"/>
-        <v>65624</v>
-      </c>
-      <c r="I63">
-        <f t="shared" si="15"/>
-        <v>256</v>
-      </c>
-      <c r="J63">
-        <f t="shared" si="29"/>
         <v>131052</v>
       </c>
       <c r="K63">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>512</v>
       </c>
       <c r="L63">
-        <f t="shared" si="33"/>
-        <v>256</v>
-      </c>
-      <c r="M63">
-        <f t="shared" si="18"/>
-        <v>65536</v>
-      </c>
-      <c r="N63">
-        <f t="shared" si="19"/>
-        <v>256</v>
-      </c>
-      <c r="O63">
         <f t="shared" si="34"/>
         <v>256</v>
       </c>
+      <c r="M63">
+        <f t="shared" si="19"/>
+        <v>65536</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="20"/>
+        <v>256</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="35"/>
+        <v>256</v>
+      </c>
       <c r="P63">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="R63">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
+      <c r="R63">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="S63">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>256</v>
       </c>
       <c r="T63">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="U63">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="V63">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W63">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
@@ -64344,91 +64344,91 @@
         <v>81</v>
       </c>
       <c r="B64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.9521564043991635</v>
       </c>
       <c r="C64">
+        <f t="shared" si="31"/>
+        <v>1.6689710972195773</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="32"/>
+        <v>427.25660088821178</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="33"/>
+        <v>427</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="13"/>
+        <v>182329</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="14"/>
+        <v>712</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="15"/>
+        <v>74048</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="16"/>
+        <v>289</v>
+      </c>
+      <c r="J64">
         <f t="shared" si="30"/>
-        <v>1.6689710972195773</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="31"/>
-        <v>427.25660088821178</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="32"/>
-        <v>427</v>
-      </c>
-      <c r="F64">
-        <f t="shared" si="12"/>
-        <v>182329</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="13"/>
-        <v>712</v>
-      </c>
-      <c r="H64">
-        <f t="shared" si="14"/>
-        <v>74048</v>
-      </c>
-      <c r="I64">
-        <f t="shared" si="15"/>
-        <v>289</v>
-      </c>
-      <c r="J64">
-        <f t="shared" si="29"/>
         <v>139202</v>
       </c>
       <c r="K64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>544</v>
       </c>
       <c r="L64">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>255</v>
       </c>
       <c r="M64">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>65025</v>
       </c>
       <c r="N64">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>254</v>
       </c>
       <c r="O64">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>254</v>
       </c>
       <c r="P64">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-1</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-58</v>
       </c>
       <c r="R64">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S64">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>255</v>
       </c>
       <c r="T64">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.99609375</v>
       </c>
       <c r="U64">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.99518472667219693</v>
       </c>
       <c r="V64">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-9.0902332780307127E-4</v>
       </c>
       <c r="W64">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>-9.1258812516700489E-4</v>
       </c>
     </row>
@@ -64437,91 +64437,91 @@
         <v>82</v>
       </c>
       <c r="B65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.0503311748238442</v>
       </c>
       <c r="C65">
+        <f t="shared" si="31"/>
+        <v>1.767145867644258</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="32"/>
+        <v>452.38934211693004</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="33"/>
+        <v>452</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="13"/>
+        <v>204304</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="14"/>
+        <v>798</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="15"/>
+        <v>82992</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="16"/>
+        <v>324</v>
+      </c>
+      <c r="J65">
         <f t="shared" si="30"/>
-        <v>1.767145867644258</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="31"/>
-        <v>452.38934211693004</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="32"/>
-        <v>452</v>
-      </c>
-      <c r="F65">
-        <f t="shared" si="12"/>
-        <v>204304</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="13"/>
-        <v>798</v>
-      </c>
-      <c r="H65">
-        <f t="shared" si="14"/>
-        <v>82992</v>
-      </c>
-      <c r="I65">
-        <f t="shared" si="15"/>
-        <v>324</v>
-      </c>
-      <c r="J65">
-        <f t="shared" si="29"/>
         <v>147352</v>
       </c>
       <c r="K65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>576</v>
       </c>
       <c r="L65">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>252</v>
       </c>
       <c r="M65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>63504</v>
       </c>
       <c r="N65">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>248</v>
       </c>
       <c r="O65">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>248</v>
       </c>
       <c r="P65">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-4</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-232</v>
       </c>
       <c r="R65">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
       <c r="S65">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>251</v>
       </c>
       <c r="T65">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.98046875</v>
       </c>
       <c r="U65">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.98078528040323054</v>
       </c>
       <c r="V65">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>3.165304032305416E-4</v>
       </c>
       <c r="W65">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>3.228357897490783E-4</v>
       </c>
     </row>
@@ -64530,91 +64530,91 @@
         <v>83</v>
       </c>
       <c r="B66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.1485059452485267</v>
       </c>
       <c r="C66">
+        <f t="shared" si="31"/>
+        <v>1.8653206380689404</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="32"/>
+        <v>477.52208334564875</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="33"/>
+        <v>478</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="13"/>
+        <v>228484</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="14"/>
+        <v>893</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="15"/>
+        <v>92872</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="16"/>
+        <v>363</v>
+      </c>
+      <c r="J66">
         <f t="shared" si="30"/>
-        <v>1.8653206380689404</v>
-      </c>
-      <c r="D66">
-        <f t="shared" si="31"/>
-        <v>477.52208334564875</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="32"/>
-        <v>478</v>
-      </c>
-      <c r="F66">
-        <f t="shared" si="12"/>
-        <v>228484</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="13"/>
-        <v>893</v>
-      </c>
-      <c r="H66">
-        <f t="shared" si="14"/>
-        <v>92872</v>
-      </c>
-      <c r="I66">
-        <f t="shared" si="15"/>
-        <v>363</v>
-      </c>
-      <c r="J66">
-        <f t="shared" si="29"/>
         <v>155828</v>
       </c>
       <c r="K66">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>609</v>
       </c>
       <c r="L66">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>246</v>
       </c>
       <c r="M66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>60516</v>
       </c>
       <c r="N66">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>236</v>
       </c>
       <c r="O66">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>236</v>
       </c>
       <c r="P66">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-10</v>
       </c>
       <c r="Q66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-580</v>
       </c>
       <c r="R66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-2</v>
       </c>
       <c r="S66">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>244</v>
       </c>
       <c r="T66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.953125</v>
       </c>
       <c r="U66">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.95694033573220871</v>
       </c>
       <c r="V66">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>3.8153357322087134E-3</v>
       </c>
       <c r="W66">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4.0029751944484857E-3</v>
       </c>
     </row>
@@ -64623,91 +64623,91 @@
         <v>84</v>
       </c>
       <c r="B67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.2466807156732074</v>
       </c>
       <c r="C67">
+        <f t="shared" si="31"/>
+        <v>1.9634954084936211</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="32"/>
+        <v>502.65482457436701</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="33"/>
+        <v>503</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="13"/>
+        <v>253009</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="14"/>
+        <v>988</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="15"/>
+        <v>102752</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="16"/>
+        <v>401</v>
+      </c>
+      <c r="J67">
         <f t="shared" si="30"/>
-        <v>1.9634954084936211</v>
-      </c>
-      <c r="D67">
-        <f t="shared" si="31"/>
-        <v>502.65482457436701</v>
-      </c>
-      <c r="E67">
-        <f t="shared" si="32"/>
-        <v>503</v>
-      </c>
-      <c r="F67">
-        <f t="shared" si="12"/>
-        <v>253009</v>
-      </c>
-      <c r="G67">
-        <f t="shared" si="13"/>
-        <v>988</v>
-      </c>
-      <c r="H67">
-        <f t="shared" si="14"/>
-        <v>102752</v>
-      </c>
-      <c r="I67">
-        <f t="shared" si="15"/>
-        <v>401</v>
-      </c>
-      <c r="J67">
-        <f t="shared" si="29"/>
         <v>163978</v>
       </c>
       <c r="K67">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>641</v>
       </c>
       <c r="L67">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>240</v>
       </c>
       <c r="M67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>57600</v>
       </c>
       <c r="N67">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>225</v>
       </c>
       <c r="O67">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>225</v>
       </c>
       <c r="P67">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-15</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-870</v>
       </c>
       <c r="R67">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-3</v>
       </c>
       <c r="S67">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>237</v>
       </c>
       <c r="T67">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.92578125</v>
       </c>
       <c r="U67">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.92387953251128663</v>
       </c>
       <c r="V67">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-1.9017174887133725E-3</v>
       </c>
       <c r="W67">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>-2.0541758527874406E-3</v>
       </c>
     </row>
@@ -64716,91 +64716,91 @@
         <v>85</v>
       </c>
       <c r="B68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.3448554860978881</v>
       </c>
       <c r="C68">
+        <f t="shared" si="31"/>
+        <v>2.0616701789183018</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="32"/>
+        <v>527.78756580308527</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="33"/>
+        <v>528</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="13"/>
+        <v>278784</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="14"/>
+        <v>1089</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="15"/>
+        <v>113256</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="16"/>
+        <v>442</v>
+      </c>
+      <c r="J68">
         <f t="shared" si="30"/>
-        <v>2.0616701789183018</v>
-      </c>
-      <c r="D68">
-        <f t="shared" si="31"/>
-        <v>527.78756580308527</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="32"/>
-        <v>528</v>
-      </c>
-      <c r="F68">
-        <f t="shared" si="12"/>
-        <v>278784</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="13"/>
-        <v>1089</v>
-      </c>
-      <c r="H68">
-        <f t="shared" si="14"/>
-        <v>113256</v>
-      </c>
-      <c r="I68">
-        <f t="shared" si="15"/>
-        <v>442</v>
-      </c>
-      <c r="J68">
-        <f t="shared" si="29"/>
         <v>172128</v>
       </c>
       <c r="K68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>672</v>
       </c>
       <c r="L68">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>230</v>
       </c>
       <c r="M68">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>52900</v>
       </c>
       <c r="N68">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>207</v>
       </c>
       <c r="O68">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>207</v>
       </c>
       <c r="P68">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-23</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-1334</v>
       </c>
       <c r="R68">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-5</v>
       </c>
       <c r="S68">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>225</v>
       </c>
       <c r="T68">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.87890625</v>
       </c>
       <c r="U68">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.88192126434835505</v>
       </c>
       <c r="V68">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>3.0150143483550496E-3</v>
       </c>
       <c r="W68">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>3.4304163252395232E-3</v>
       </c>
     </row>
@@ -64809,91 +64809,91 @@
         <v>86</v>
       </c>
       <c r="B69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.4430302565225688</v>
       </c>
       <c r="C69">
+        <f t="shared" si="31"/>
+        <v>2.1598449493429825</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="32"/>
+        <v>552.92030703180353</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="33"/>
+        <v>553</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="13"/>
+        <v>305809</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="14"/>
+        <v>1195</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="15"/>
+        <v>124280</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="16"/>
+        <v>485</v>
+      </c>
+      <c r="J69">
         <f t="shared" si="30"/>
-        <v>2.1598449493429825</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="31"/>
-        <v>552.92030703180353</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="32"/>
-        <v>553</v>
-      </c>
-      <c r="F69">
-        <f t="shared" si="12"/>
-        <v>305809</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="13"/>
-        <v>1195</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="14"/>
-        <v>124280</v>
-      </c>
-      <c r="I69">
-        <f t="shared" si="15"/>
-        <v>485</v>
-      </c>
-      <c r="J69">
-        <f t="shared" si="29"/>
         <v>180278</v>
       </c>
       <c r="K69">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>704</v>
       </c>
       <c r="L69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>219</v>
       </c>
       <c r="M69">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>47961</v>
       </c>
       <c r="N69">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>187</v>
       </c>
       <c r="O69">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>187</v>
       </c>
       <c r="P69">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-32</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-1856</v>
       </c>
       <c r="R69">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-7</v>
       </c>
       <c r="S69">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>212</v>
       </c>
       <c r="T69">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.828125</v>
       </c>
       <c r="U69">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.83146961230254546</v>
       </c>
       <c r="V69">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>3.3446123025454577E-3</v>
       </c>
       <c r="W69">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4.0387771200548926E-3</v>
       </c>
     </row>
@@ -64902,91 +64902,91 @@
         <v>87</v>
       </c>
       <c r="B70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.5412050269472495</v>
       </c>
       <c r="C70">
+        <f t="shared" si="31"/>
+        <v>2.2580197197676632</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="32"/>
+        <v>578.05304826052179</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="33"/>
+        <v>578</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="13"/>
+        <v>334084</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="14"/>
+        <v>1305</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="15"/>
+        <v>135720</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="16"/>
+        <v>530</v>
+      </c>
+      <c r="J70">
         <f t="shared" si="30"/>
-        <v>2.2580197197676632</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="31"/>
-        <v>578.05304826052179</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="32"/>
-        <v>578</v>
-      </c>
-      <c r="F70">
-        <f t="shared" si="12"/>
-        <v>334084</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="13"/>
-        <v>1305</v>
-      </c>
-      <c r="H70">
-        <f t="shared" si="14"/>
-        <v>135720</v>
-      </c>
-      <c r="I70">
-        <f t="shared" si="15"/>
-        <v>530</v>
-      </c>
-      <c r="J70">
-        <f t="shared" si="29"/>
         <v>188428</v>
       </c>
       <c r="K70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>736</v>
       </c>
       <c r="L70">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>206</v>
       </c>
       <c r="M70">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>42436</v>
       </c>
       <c r="N70">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>166</v>
       </c>
       <c r="O70">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>166</v>
       </c>
       <c r="P70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-40</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-2320</v>
       </c>
       <c r="R70">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-9</v>
       </c>
       <c r="S70">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>197</v>
       </c>
       <c r="T70">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.76953125</v>
       </c>
       <c r="U70">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.77301045336273733</v>
       </c>
       <c r="V70">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>3.4792033627373264E-3</v>
       </c>
       <c r="W70">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4.5211982784809923E-3</v>
       </c>
     </row>
@@ -64995,91 +64995,91 @@
         <v>88</v>
       </c>
       <c r="B71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.6393797973719302</v>
       </c>
       <c r="C71">
+        <f t="shared" si="31"/>
+        <v>2.3561944901923439</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="32"/>
+        <v>603.18578948924005</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="33"/>
+        <v>603</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="13"/>
+        <v>363609</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="14"/>
+        <v>1420</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="15"/>
+        <v>147680</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="16"/>
+        <v>577</v>
+      </c>
+      <c r="J71">
         <f t="shared" si="30"/>
-        <v>2.3561944901923439</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="31"/>
-        <v>603.18578948924005</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="32"/>
-        <v>603</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="12"/>
-        <v>363609</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="13"/>
-        <v>1420</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="14"/>
-        <v>147680</v>
-      </c>
-      <c r="I71">
-        <f t="shared" si="15"/>
-        <v>577</v>
-      </c>
-      <c r="J71">
-        <f t="shared" si="29"/>
         <v>196578</v>
       </c>
       <c r="K71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>768</v>
       </c>
       <c r="L71">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>191</v>
       </c>
       <c r="M71">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>36481</v>
       </c>
       <c r="N71">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>143</v>
       </c>
       <c r="O71">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>143</v>
       </c>
       <c r="P71">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-48</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-2784</v>
       </c>
       <c r="R71">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-11</v>
       </c>
       <c r="S71">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>180</v>
       </c>
       <c r="T71">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.703125</v>
       </c>
       <c r="U71">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.70710678118654824</v>
       </c>
       <c r="V71">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>3.9817811865482389E-3</v>
       </c>
       <c r="W71">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>5.6629776875352731E-3</v>
       </c>
     </row>
@@ -65088,91 +65088,91 @@
         <v>89</v>
       </c>
       <c r="B72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.7375545677966127</v>
       </c>
       <c r="C72">
+        <f t="shared" si="31"/>
+        <v>2.4543692606170264</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="32"/>
+        <v>628.31853071795877</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="33"/>
+        <v>628</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="13"/>
+        <v>394384</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="14"/>
+        <v>1541</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="15"/>
+        <v>160264</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="16"/>
+        <v>626</v>
+      </c>
+      <c r="J72">
         <f t="shared" si="30"/>
-        <v>2.4543692606170264</v>
-      </c>
-      <c r="D72">
-        <f t="shared" si="31"/>
-        <v>628.31853071795877</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="32"/>
-        <v>628</v>
-      </c>
-      <c r="F72">
-        <f t="shared" si="12"/>
-        <v>394384</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="13"/>
-        <v>1541</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="14"/>
-        <v>160264</v>
-      </c>
-      <c r="I72">
-        <f t="shared" si="15"/>
-        <v>626</v>
-      </c>
-      <c r="J72">
-        <f t="shared" si="29"/>
         <v>204728</v>
       </c>
       <c r="K72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>800</v>
       </c>
       <c r="L72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>174</v>
       </c>
       <c r="M72">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30276</v>
       </c>
       <c r="N72">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>118</v>
       </c>
       <c r="O72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>118</v>
       </c>
       <c r="P72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-56</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-3248</v>
       </c>
       <c r="R72">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-13</v>
       </c>
       <c r="S72">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>161</v>
       </c>
       <c r="T72">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.62890625</v>
       </c>
       <c r="U72">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.63439328416364515</v>
       </c>
       <c r="V72">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>5.4870341636451547E-3</v>
       </c>
       <c r="W72">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>8.7247251297711773E-3</v>
       </c>
     </row>
@@ -65185,15 +65185,15 @@
         <v>8.8357293382212934</v>
       </c>
       <c r="C73">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2.5525440310417071</v>
       </c>
       <c r="D73">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>653.45127194667702</v>
       </c>
       <c r="E73">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>653</v>
       </c>
       <c r="F73">
@@ -65213,7 +65213,7 @@
         <v>677</v>
       </c>
       <c r="J73">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>212878</v>
       </c>
       <c r="K73">
@@ -65261,11 +65261,11 @@
         <v>0.55557023301960218</v>
       </c>
       <c r="V73">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>4.7889830196021776E-3</v>
       </c>
       <c r="W73">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>8.694891156157146E-3</v>
       </c>
     </row>
@@ -65274,91 +65274,91 @@
         <v>91</v>
       </c>
       <c r="B74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.9339041086459741</v>
       </c>
       <c r="C74">
+        <f t="shared" si="31"/>
+        <v>2.6507188014663878</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="32"/>
+        <v>678.58401317539528</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="33"/>
+        <v>679</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="13"/>
+        <v>461041</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="14"/>
+        <v>1801</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="15"/>
+        <v>187304</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="16"/>
+        <v>732</v>
+      </c>
+      <c r="J74">
         <f t="shared" si="30"/>
-        <v>2.6507188014663878</v>
-      </c>
-      <c r="D74">
-        <f t="shared" si="31"/>
-        <v>678.58401317539528</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="32"/>
-        <v>679</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="12"/>
-        <v>461041</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="13"/>
-        <v>1801</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="14"/>
-        <v>187304</v>
-      </c>
-      <c r="I74">
-        <f t="shared" si="15"/>
-        <v>732</v>
-      </c>
-      <c r="J74">
-        <f t="shared" si="29"/>
         <v>221354</v>
       </c>
       <c r="K74">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>865</v>
       </c>
       <c r="L74">
-        <f t="shared" ref="L74:L79" si="40">IF(E74&lt;0,K74+I74,K74-I74)</f>
+        <f t="shared" ref="L74:L79" si="41">IF(E74&lt;0,K74+I74,K74-I74)</f>
         <v>133</v>
       </c>
       <c r="M74">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>17689</v>
       </c>
       <c r="N74">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>69</v>
       </c>
       <c r="O74">
-        <f t="shared" ref="O74:O79" si="41">IF(L74&lt;0,0-N74,N74)</f>
+        <f t="shared" ref="O74:O79" si="42">IF(L74&lt;0,0-N74,N74)</f>
         <v>69</v>
       </c>
       <c r="P74">
-        <f t="shared" ref="P74:P79" si="42">O74-L74</f>
+        <f t="shared" ref="P74:P79" si="43">O74-L74</f>
         <v>-64</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-3712</v>
       </c>
       <c r="R74">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-15</v>
       </c>
       <c r="S74">
-        <f t="shared" ref="S74:S79" si="43">R74+L74</f>
+        <f t="shared" ref="S74:S79" si="44">R74+L74</f>
         <v>118</v>
       </c>
       <c r="T74">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.4609375</v>
       </c>
       <c r="U74">
-        <f t="shared" ref="U74:U79" si="44">SIN(C74)</f>
+        <f t="shared" ref="U74:U79" si="45">SIN(C74)</f>
         <v>0.47139673682599786</v>
       </c>
       <c r="V74">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.0459236825997864E-2</v>
       </c>
       <c r="W74">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>2.2691225656402147E-2</v>
       </c>
     </row>
@@ -65367,91 +65367,91 @@
         <v>92</v>
       </c>
       <c r="B75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.0320788790706548</v>
       </c>
       <c r="C75">
+        <f t="shared" si="31"/>
+        <v>2.7488935718910685</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="32"/>
+        <v>703.71675440411354</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="33"/>
+        <v>704</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="13"/>
+        <v>495616</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="14"/>
+        <v>1936</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="15"/>
+        <v>201344</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="16"/>
+        <v>787</v>
+      </c>
+      <c r="J75">
         <f t="shared" si="30"/>
-        <v>2.7488935718910685</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="31"/>
-        <v>703.71675440411354</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="32"/>
-        <v>704</v>
-      </c>
-      <c r="F75">
-        <f t="shared" si="12"/>
-        <v>495616</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="13"/>
-        <v>1936</v>
-      </c>
-      <c r="H75">
-        <f t="shared" si="14"/>
-        <v>201344</v>
-      </c>
-      <c r="I75">
-        <f t="shared" si="15"/>
-        <v>787</v>
-      </c>
-      <c r="J75">
-        <f t="shared" si="29"/>
         <v>229504</v>
       </c>
       <c r="K75">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>897</v>
       </c>
       <c r="L75">
+        <f t="shared" si="41"/>
+        <v>110</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="19"/>
+        <v>12100</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="20"/>
+        <v>47</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="42"/>
+        <v>47</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="43"/>
+        <v>-63</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="23"/>
+        <v>-3654</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="24"/>
+        <v>-14</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="44"/>
+        <v>96</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="26"/>
+        <v>0.375</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="45"/>
+        <v>0.38268343236509028</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="39"/>
+        <v>7.6834323650902814E-3</v>
+      </c>
+      <c r="W75">
         <f t="shared" si="40"/>
-        <v>110</v>
-      </c>
-      <c r="M75">
-        <f t="shared" si="18"/>
-        <v>12100</v>
-      </c>
-      <c r="N75">
-        <f t="shared" si="19"/>
-        <v>47</v>
-      </c>
-      <c r="O75">
-        <f t="shared" si="41"/>
-        <v>47</v>
-      </c>
-      <c r="P75">
-        <f t="shared" si="42"/>
-        <v>-63</v>
-      </c>
-      <c r="Q75">
-        <f t="shared" si="22"/>
-        <v>-3654</v>
-      </c>
-      <c r="R75">
-        <f t="shared" si="23"/>
-        <v>-14</v>
-      </c>
-      <c r="S75">
-        <f t="shared" si="43"/>
-        <v>96</v>
-      </c>
-      <c r="T75">
-        <f t="shared" si="25"/>
-        <v>0.375</v>
-      </c>
-      <c r="U75">
-        <f t="shared" si="44"/>
-        <v>0.38268343236509028</v>
-      </c>
-      <c r="V75">
-        <f t="shared" si="38"/>
-        <v>7.6834323650902814E-3</v>
-      </c>
-      <c r="W75">
-        <f t="shared" si="39"/>
         <v>2.0489152973574083E-2</v>
       </c>
     </row>
@@ -65460,91 +65460,91 @@
         <v>93</v>
       </c>
       <c r="B76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.1302536494953355</v>
       </c>
       <c r="C76">
+        <f t="shared" si="31"/>
+        <v>2.8470683423157492</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="32"/>
+        <v>728.8494956328318</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="33"/>
+        <v>729</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="13"/>
+        <v>531441</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="14"/>
+        <v>2076</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="15"/>
+        <v>215904</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="16"/>
+        <v>843</v>
+      </c>
+      <c r="J76">
         <f t="shared" si="30"/>
-        <v>2.8470683423157492</v>
-      </c>
-      <c r="D76">
-        <f t="shared" si="31"/>
-        <v>728.8494956328318</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="32"/>
-        <v>729</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="12"/>
-        <v>531441</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="13"/>
-        <v>2076</v>
-      </c>
-      <c r="H76">
-        <f t="shared" si="14"/>
-        <v>215904</v>
-      </c>
-      <c r="I76">
-        <f t="shared" si="15"/>
-        <v>843</v>
-      </c>
-      <c r="J76">
-        <f t="shared" si="29"/>
         <v>237654</v>
       </c>
       <c r="K76">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>928</v>
       </c>
       <c r="L76">
+        <f t="shared" si="41"/>
+        <v>85</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="19"/>
+        <v>7225</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="20"/>
+        <v>28</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="42"/>
+        <v>28</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="43"/>
+        <v>-57</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="23"/>
+        <v>-3306</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="24"/>
+        <v>-13</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="44"/>
+        <v>72</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="26"/>
+        <v>0.28125</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="45"/>
+        <v>0.29028467725446322</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="39"/>
+        <v>9.0346772544632192E-3</v>
+      </c>
+      <c r="W76">
         <f t="shared" si="40"/>
-        <v>85</v>
-      </c>
-      <c r="M76">
-        <f t="shared" si="18"/>
-        <v>7225</v>
-      </c>
-      <c r="N76">
-        <f t="shared" si="19"/>
-        <v>28</v>
-      </c>
-      <c r="O76">
-        <f t="shared" si="41"/>
-        <v>28</v>
-      </c>
-      <c r="P76">
-        <f t="shared" si="42"/>
-        <v>-57</v>
-      </c>
-      <c r="Q76">
-        <f t="shared" si="22"/>
-        <v>-3306</v>
-      </c>
-      <c r="R76">
-        <f t="shared" si="23"/>
-        <v>-13</v>
-      </c>
-      <c r="S76">
-        <f t="shared" si="43"/>
-        <v>72</v>
-      </c>
-      <c r="T76">
-        <f t="shared" si="25"/>
-        <v>0.28125</v>
-      </c>
-      <c r="U76">
-        <f t="shared" si="44"/>
-        <v>0.29028467725446322</v>
-      </c>
-      <c r="V76">
-        <f t="shared" si="38"/>
-        <v>9.0346772544632192E-3</v>
-      </c>
-      <c r="W76">
-        <f t="shared" si="39"/>
         <v>3.2123296904758111E-2</v>
       </c>
     </row>
@@ -65553,91 +65553,91 @@
         <v>94</v>
       </c>
       <c r="B77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.2284284199200179</v>
       </c>
       <c r="C77">
+        <f t="shared" si="31"/>
+        <v>2.9452431127404317</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="32"/>
+        <v>753.98223686155052</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="33"/>
+        <v>754</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="13"/>
+        <v>568516</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="14"/>
+        <v>2221</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="15"/>
+        <v>230984</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="16"/>
+        <v>902</v>
+      </c>
+      <c r="J77">
         <f t="shared" si="30"/>
-        <v>2.9452431127404317</v>
-      </c>
-      <c r="D77">
-        <f t="shared" si="31"/>
-        <v>753.98223686155052</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="32"/>
-        <v>754</v>
-      </c>
-      <c r="F77">
-        <f t="shared" si="12"/>
-        <v>568516</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="13"/>
-        <v>2221</v>
-      </c>
-      <c r="H77">
-        <f t="shared" si="14"/>
-        <v>230984</v>
-      </c>
-      <c r="I77">
-        <f t="shared" si="15"/>
-        <v>902</v>
-      </c>
-      <c r="J77">
-        <f t="shared" si="29"/>
         <v>245804</v>
       </c>
       <c r="K77">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>960</v>
       </c>
       <c r="L77">
+        <f t="shared" si="41"/>
+        <v>58</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="19"/>
+        <v>3364</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="20"/>
+        <v>13</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="42"/>
+        <v>13</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="43"/>
+        <v>-45</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="23"/>
+        <v>-2610</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="24"/>
+        <v>-10</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="44"/>
+        <v>48</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="26"/>
+        <v>0.1875</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="45"/>
+        <v>0.19509032201612772</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="39"/>
+        <v>7.5903220161277207E-3</v>
+      </c>
+      <c r="W77">
         <f t="shared" si="40"/>
-        <v>58</v>
-      </c>
-      <c r="M77">
-        <f t="shared" si="18"/>
-        <v>3364</v>
-      </c>
-      <c r="N77">
-        <f t="shared" si="19"/>
-        <v>13</v>
-      </c>
-      <c r="O77">
-        <f t="shared" si="41"/>
-        <v>13</v>
-      </c>
-      <c r="P77">
-        <f t="shared" si="42"/>
-        <v>-45</v>
-      </c>
-      <c r="Q77">
-        <f t="shared" si="22"/>
-        <v>-2610</v>
-      </c>
-      <c r="R77">
-        <f t="shared" si="23"/>
-        <v>-10</v>
-      </c>
-      <c r="S77">
-        <f t="shared" si="43"/>
-        <v>48</v>
-      </c>
-      <c r="T77">
-        <f t="shared" si="25"/>
-        <v>0.1875</v>
-      </c>
-      <c r="U77">
-        <f t="shared" si="44"/>
-        <v>0.19509032201612772</v>
-      </c>
-      <c r="V77">
-        <f t="shared" si="38"/>
-        <v>7.5903220161277207E-3</v>
-      </c>
-      <c r="W77">
-        <f t="shared" si="39"/>
         <v>4.0481717419347842E-2</v>
       </c>
     </row>
@@ -65646,91 +65646,91 @@
         <v>95</v>
       </c>
       <c r="B78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.3266031903446986</v>
       </c>
       <c r="C78">
+        <f t="shared" si="31"/>
+        <v>3.0434178831651124</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="32"/>
+        <v>779.11497809026878</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="33"/>
+        <v>779</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="13"/>
+        <v>606841</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="14"/>
+        <v>2370</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="15"/>
+        <v>246480</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="16"/>
+        <v>963</v>
+      </c>
+      <c r="J78">
         <f t="shared" si="30"/>
-        <v>3.0434178831651124</v>
-      </c>
-      <c r="D78">
-        <f t="shared" si="31"/>
-        <v>779.11497809026878</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="32"/>
-        <v>779</v>
-      </c>
-      <c r="F78">
-        <f t="shared" si="12"/>
-        <v>606841</v>
-      </c>
-      <c r="G78">
-        <f t="shared" si="13"/>
-        <v>2370</v>
-      </c>
-      <c r="H78">
-        <f t="shared" si="14"/>
-        <v>246480</v>
-      </c>
-      <c r="I78">
-        <f t="shared" si="15"/>
-        <v>963</v>
-      </c>
-      <c r="J78">
-        <f t="shared" si="29"/>
         <v>253954</v>
       </c>
       <c r="K78">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>992</v>
       </c>
       <c r="L78">
+        <f t="shared" si="41"/>
+        <v>29</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="19"/>
+        <v>841</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="42"/>
+        <v>3</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="43"/>
+        <v>-26</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="23"/>
+        <v>-1508</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="24"/>
+        <v>-6</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="44"/>
+        <v>23</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="26"/>
+        <v>8.984375E-2</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="45"/>
+        <v>9.8017140329560395E-2</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="39"/>
+        <v>8.1733903295603955E-3</v>
+      </c>
+      <c r="W78">
         <f t="shared" si="40"/>
-        <v>29</v>
-      </c>
-      <c r="M78">
-        <f t="shared" si="18"/>
-        <v>841</v>
-      </c>
-      <c r="N78">
-        <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="O78">
-        <f t="shared" si="41"/>
-        <v>3</v>
-      </c>
-      <c r="P78">
-        <f t="shared" si="42"/>
-        <v>-26</v>
-      </c>
-      <c r="Q78">
-        <f t="shared" si="22"/>
-        <v>-1508</v>
-      </c>
-      <c r="R78">
-        <f t="shared" si="23"/>
-        <v>-6</v>
-      </c>
-      <c r="S78">
-        <f t="shared" si="43"/>
-        <v>23</v>
-      </c>
-      <c r="T78">
-        <f t="shared" si="25"/>
-        <v>8.984375E-2</v>
-      </c>
-      <c r="U78">
-        <f t="shared" si="44"/>
-        <v>9.8017140329560395E-2</v>
-      </c>
-      <c r="V78">
-        <f t="shared" si="38"/>
-        <v>8.1733903295603955E-3</v>
-      </c>
-      <c r="W78">
-        <f t="shared" si="39"/>
         <v>9.097338801597657E-2</v>
       </c>
     </row>
@@ -65739,91 +65739,91 @@
         <v>96</v>
       </c>
       <c r="B79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.4247779607693793</v>
       </c>
       <c r="C79">
+        <f t="shared" si="31"/>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="32"/>
+        <v>804.24771931898704</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="33"/>
+        <v>804</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="13"/>
+        <v>646416</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="14"/>
+        <v>2525</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="15"/>
+        <v>262600</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="16"/>
+        <v>1026</v>
+      </c>
+      <c r="J79">
         <f t="shared" si="30"/>
-        <v>3.1415926535897931</v>
-      </c>
-      <c r="D79">
-        <f t="shared" si="31"/>
-        <v>804.24771931898704</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="32"/>
-        <v>804</v>
-      </c>
-      <c r="F79">
-        <f t="shared" si="12"/>
-        <v>646416</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="13"/>
-        <v>2525</v>
-      </c>
-      <c r="H79">
-        <f t="shared" si="14"/>
-        <v>262600</v>
-      </c>
-      <c r="I79">
-        <f t="shared" si="15"/>
-        <v>1026</v>
-      </c>
-      <c r="J79">
-        <f t="shared" si="29"/>
         <v>262104</v>
       </c>
       <c r="K79">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1024</v>
       </c>
       <c r="L79">
+        <f t="shared" si="41"/>
+        <v>-2</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="23"/>
+        <v>116</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="44"/>
+        <v>-2</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="26"/>
+        <v>-7.8125E-3</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="45"/>
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="39"/>
+        <v>7.8125000000001232E-3</v>
+      </c>
+      <c r="W79">
         <f t="shared" si="40"/>
-        <v>-2</v>
-      </c>
-      <c r="M79">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="N79">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O79">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="P79">
-        <f t="shared" si="42"/>
-        <v>2</v>
-      </c>
-      <c r="Q79">
-        <f t="shared" si="22"/>
-        <v>116</v>
-      </c>
-      <c r="R79">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="S79">
-        <f t="shared" si="43"/>
-        <v>-2</v>
-      </c>
-      <c r="T79">
-        <f t="shared" si="25"/>
-        <v>-7.8125E-3</v>
-      </c>
-      <c r="U79">
-        <f t="shared" si="44"/>
-        <v>1.22514845490862E-16</v>
-      </c>
-      <c r="V79">
-        <f t="shared" si="38"/>
-        <v>7.8125000000001232E-3</v>
-      </c>
-      <c r="W79">
-        <f t="shared" si="39"/>
         <v>-1.0000000000000158</v>
       </c>
     </row>

--- a/doc/design/sincos_error.xlsx
+++ b/doc/design/sincos_error.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22960" tabRatio="500" activeTab="4"/>
@@ -1462,11 +1462,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2131486360"/>
-        <c:axId val="2131489384"/>
+        <c:axId val="2124380200"/>
+        <c:axId val="2125302152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2131486360"/>
+        <c:axId val="2124380200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1476,7 +1476,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131489384"/>
+        <c:crossAx val="2125302152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1484,7 +1484,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2131489384"/>
+        <c:axId val="2125302152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1495,7 +1495,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131486360"/>
+        <c:crossAx val="2124380200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -59442,7 +59442,7 @@
   <dimension ref="A1:W79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -59540,6 +59540,17 @@
         <f t="shared" si="0"/>
         <v>402</v>
       </c>
+      <c r="E9">
+        <v>-2.0511240000000002</v>
+      </c>
+      <c r="F9">
+        <f>SIN(E9)</f>
+        <v>-0.88684356250129026</v>
+      </c>
+      <c r="G9">
+        <f>COS(E9)</f>
+        <v>-0.46206979521498714</v>
+      </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10">

--- a/doc/design/sincos_error.xlsx
+++ b/doc/design/sincos_error.xlsx
@@ -1462,11 +1462,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2124380200"/>
-        <c:axId val="2125302152"/>
+        <c:axId val="2087849944"/>
+        <c:axId val="2087846952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2124380200"/>
+        <c:axId val="2087849944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1476,7 +1476,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125302152"/>
+        <c:crossAx val="2087846952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1484,7 +1484,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125302152"/>
+        <c:axId val="2087846952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1495,7 +1495,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124380200"/>
+        <c:crossAx val="2087849944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -59442,7 +59442,7 @@
   <dimension ref="A1:W79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E9" sqref="E9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -59540,17 +59540,6 @@
         <f t="shared" si="0"/>
         <v>402</v>
       </c>
-      <c r="E9">
-        <v>-2.0511240000000002</v>
-      </c>
-      <c r="F9">
-        <f>SIN(E9)</f>
-        <v>-0.88684356250129026</v>
-      </c>
-      <c r="G9">
-        <f>COS(E9)</f>
-        <v>-0.46206979521498714</v>
-      </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10">

--- a/doc/design/sincos_error.xlsx
+++ b/doc/design/sincos_error.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22960" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19960" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="taylor estimate" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="bhaskara" sheetId="3" r:id="rId3"/>
     <sheet name="quadratic curve" sheetId="4" r:id="rId4"/>
     <sheet name="quadratic curve hardware" sheetId="5" r:id="rId5"/>
+    <sheet name="quadratic curve hardware (2)" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="62">
   <si>
     <t>x</t>
   </si>
@@ -221,7 +222,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -282,7 +282,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="152">
+  <cellStyleXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -435,13 +435,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="47"/>
   </cellXfs>
-  <cellStyles count="152">
+  <cellStyles count="170">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -517,6 +535,15 @@
     <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="47" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -593,6 +620,15 @@
     <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1462,11 +1498,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2087849944"/>
-        <c:axId val="2087846952"/>
+        <c:axId val="2110439224"/>
+        <c:axId val="2110442200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2087849944"/>
+        <c:axId val="2110439224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1476,7 +1512,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087846952"/>
+        <c:crossAx val="2110442200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1484,7 +1520,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2087846952"/>
+        <c:axId val="2110442200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1495,7 +1531,924 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087849944"/>
+        <c:crossAx val="2110439224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'quadratic curve hardware (2)'!$C$15:$C$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="65"/>
+                <c:pt idx="0">
+                  <c:v>-3.141592653589793</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.043417883165112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.945243112740431</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.84706834231575</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.748893571891069</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.650718801466388</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.552544031041707</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.454369260617026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.356194490192345</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.258019719767664</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.159844949342983</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.061670178918302</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.963495408493621</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.865320638068939</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.767145867644259</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.668971097219577</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.570796326794897</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.472621556370216</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.374446785945534</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.276272015520854</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.178097245096172</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.079922474671491</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.981747704246811</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.883572933822129</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.785398163397448</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.687223392972767</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.589048622548086</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.490873852123405</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.392699081698725</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.294524311274043</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.196349540849362</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.0981747704246807</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0981747704246807</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.196349540849362</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.294524311274043</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.392699081698725</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.490873852123405</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.589048622548086</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.687223392972767</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.785398163397448</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.883572933822129</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.981747704246811</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.079922474671491</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.178097245096172</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.276272015520854</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.374446785945534</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.472621556370216</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.570796326794897</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.668971097219577</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.767145867644258</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.86532063806894</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.963495408493621</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.061670178918302</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.159844949342983</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.258019719767663</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.356194490192344</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.454369260617026</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.552544031041707</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.650718801466388</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.748893571891068</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.847068342315749</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.945243112740432</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.043417883165112</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.141592653589793</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'quadratic curve hardware (2)'!$T$15:$T$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="65"/>
+                <c:pt idx="0">
+                  <c:v>2.38418579101562E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.0971468091011047</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.194000065326691</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.289364755153656</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.382128715515137</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.47126179933548</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.555816471576691</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.634927630424499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.707812309265137</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.77377039194107</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.832183718681335</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.882516741752624</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.924316346645355</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.95721161365509</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.980914235115051</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.995218217372894</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.999999940395355</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.995218217372894</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.980914294719696</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.957211673259735</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.924316346645355</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.882516860961914</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.832183837890625</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.773770451545715</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.707812488079071</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.634927749633789</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.555816650390625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.471262037754059</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.382128894329071</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.289364993572235</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.194000244140625</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.097146987915039</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.097146987915039</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.194000244140625</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.289364993572235</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.382128894329071</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.471262037754059</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.555816650390625</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.634927749633789</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.707812488079071</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.773770451545715</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.832183837890625</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.882516860961914</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.924316346645355</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.957211673259735</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.980914294719696</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.995218217372894</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.999999940395355</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.995218217372894</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.980914235115051</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.95721161365509</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.924316346645355</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.882516741752624</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.832183718681335</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.77377039194107</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.707812309265137</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.634927630424499</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.555816471576691</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.47126179933548</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.382128715515137</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.289364755153656</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.194000065326691</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.0971468091011047</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-2.38418579101562E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'quadratic curve hardware (2)'!$C$15:$C$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="65"/>
+                <c:pt idx="0">
+                  <c:v>-3.141592653589793</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.043417883165112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.945243112740431</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.84706834231575</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.748893571891069</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.650718801466388</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.552544031041707</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.454369260617026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.356194490192345</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.258019719767664</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.159844949342983</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.061670178918302</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.963495408493621</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.865320638068939</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.767145867644259</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.668971097219577</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.570796326794897</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.472621556370216</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.374446785945534</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.276272015520854</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.178097245096172</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.079922474671491</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.981747704246811</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.883572933822129</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.785398163397448</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.687223392972767</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.589048622548086</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.490873852123405</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.392699081698725</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.294524311274043</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.196349540849362</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.0981747704246807</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0981747704246807</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.196349540849362</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.294524311274043</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.392699081698725</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.490873852123405</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.589048622548086</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.687223392972767</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.785398163397448</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.883572933822129</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.981747704246811</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.079922474671491</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.178097245096172</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.276272015520854</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.374446785945534</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.472621556370216</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.570796326794897</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.668971097219577</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.767145867644258</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.86532063806894</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.963495408493621</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.061670178918302</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.159844949342983</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.258019719767663</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.356194490192344</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.454369260617026</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.552544031041707</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.650718801466388</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.748893571891068</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.847068342315749</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.945243112740432</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.043417883165112</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.141592653589793</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'quadratic curve hardware (2)'!$U$15:$U$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="65"/>
+                <c:pt idx="0">
+                  <c:v>-1.22514845490862E-16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.0980171403295608</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.195090322016129</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.290284677254462</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.38268343236509</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.471396736825998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.555570233019602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.634393284163645</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.707106781186548</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.773010453362737</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.831469612302545</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.881921264348355</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.923879532511287</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.956940335732209</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.98078528040323</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.995184726672197</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.995184726672197</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.98078528040323</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.956940335732209</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.923879532511286</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.881921264348355</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.831469612302545</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.773010453362737</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.707106781186547</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.634393284163646</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.555570233019602</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.471396736825998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.38268343236509</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.290284677254462</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.195090322016128</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.0980171403295602</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0980171403295602</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.195090322016128</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.290284677254462</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.38268343236509</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.471396736825998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.555570233019602</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.634393284163646</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.707106781186547</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.773010453362737</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.831469612302545</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.881921264348355</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.923879532511286</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.956940335732209</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.98078528040323</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.995184726672197</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.995184726672197</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.980785280403231</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.956940335732209</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.923879532511287</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.881921264348355</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.831469612302545</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.773010453362737</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.707106781186548</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.634393284163645</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.555570233019602</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.471396736825998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.38268343236509</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.290284677254463</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.195090322016128</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.0980171403295604</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.22514845490862E-16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2126714008"/>
+        <c:axId val="2126711016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2126714008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2126711016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2126711016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2126714008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1536,6 +2489,43 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>41385</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -59441,8 +60431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -65837,4 +66827,6406 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" customWidth="1"/>
+    <col min="20" max="20" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <f>2^B2</f>
+        <v>16777216</v>
+      </c>
+      <c r="C3">
+        <f>1/B3</f>
+        <v>5.9604644775390625E-8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <f>B1-B2-1</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <f>2^B4</f>
+        <v>8388608</v>
+      </c>
+      <c r="C5">
+        <f>B5^(1/3)</f>
+        <v>203.18733465192955</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6">
+        <v>1.2732395400000001</v>
+      </c>
+      <c r="B6">
+        <f>ROUND(A6*$B$3,0)</f>
+        <v>21361415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7">
+        <v>0.40528473500000001</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:B11" si="0">ROUND(A7*$B$3,0)</f>
+        <v>6799550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>3774874</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9">
+        <v>1.5707963199999999</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>26353589</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10">
+        <v>3.1415926500000002</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>52707178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11">
+        <v>6.2831853100000004</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>105414357</v>
+      </c>
+      <c r="V11">
+        <f>MIN(V15:V79)</f>
+        <v>-1.0902566894379351E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="F12">
+        <f>LOG(F13)/LOG(2)</f>
+        <v>51.302992284494152</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12:W12" si="1">LOG(G13)/LOG(2)</f>
+        <v>27.302992286201352</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>50.000000126263409</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>26.000000128986983</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>50.000000022110896</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>26.000000021497833</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>23.999999914008672</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>47.999999828017344</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>23.999999828017337</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>23.999999828017337</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>21.995678834325425</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>43.843675893753833</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>19.843675740880375</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="1"/>
+        <v>23.999999914008672</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="1"/>
+        <v>-8.5991327994145617E-8</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="1"/>
+        <v>-9.8411164423388335</v>
+      </c>
+      <c r="W12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="F13">
+        <f t="shared" ref="F13:W13" si="2">MAX(F15:F1048576)</f>
+        <v>2778046718138041</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>165584488</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>1125900005380400</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>67108870</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>1125899924098285</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>67108865</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>16777215</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>281474943156225</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>16777214</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>16777214</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="2"/>
+        <v>4181760</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>15785617098240</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>940896</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="2"/>
+        <v>16777215</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="2"/>
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="2"/>
+        <v>1.0902566894370469E-3</v>
+      </c>
+      <c r="W13" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" t="s">
+        <v>57</v>
+      </c>
+      <c r="O14" t="s">
+        <v>56</v>
+      </c>
+      <c r="P14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>59</v>
+      </c>
+      <c r="R14" t="s">
+        <v>60</v>
+      </c>
+      <c r="S14" t="s">
+        <v>7</v>
+      </c>
+      <c r="T14" t="s">
+        <v>44</v>
+      </c>
+      <c r="U14" t="s">
+        <v>45</v>
+      </c>
+      <c r="V14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <f>A15/32*PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:C78" si="3">-2*PI()+B15</f>
+        <v>-3.1415926535897931</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:D78" si="4">C15*$B$3</f>
+        <v>-52707178.533289135</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:E78" si="5">ROUND(D15,0)</f>
+        <v>-52707179</v>
+      </c>
+      <c r="F15">
+        <f>E15*E15</f>
+        <v>2778046718138041</v>
+      </c>
+      <c r="G15">
+        <f>ROUND(F15/$B$3,0)</f>
+        <v>165584488</v>
+      </c>
+      <c r="H15">
+        <f>G15*$B$7</f>
+        <v>1125900005380400</v>
+      </c>
+      <c r="I15">
+        <f>ROUND(H15/$B$3,0)</f>
+        <v>67108870</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15:J78" si="6">E15*$B$6</f>
+        <v>-1125899924098285</v>
+      </c>
+      <c r="K15">
+        <f>ROUND(J15/$B$3,0)</f>
+        <v>-67108865</v>
+      </c>
+      <c r="L15">
+        <f>IF(E15&lt;0,K15+I15,K15-I15)</f>
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <f>L15*L15</f>
+        <v>25</v>
+      </c>
+      <c r="N15">
+        <f>ROUND(M15/$B$3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f>IF(L15&lt;0,0-N15,N15)</f>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f>O15-L15</f>
+        <v>-5</v>
+      </c>
+      <c r="Q15">
+        <f>P15*$B$8</f>
+        <v>-18874370</v>
+      </c>
+      <c r="R15">
+        <f>ROUND(Q15/$B$3,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="S15">
+        <f>R15+L15</f>
+        <v>4</v>
+      </c>
+      <c r="T15">
+        <f>S15/$B$3</f>
+        <v>2.384185791015625E-7</v>
+      </c>
+      <c r="U15">
+        <f>SIN(C15)</f>
+        <v>-1.22514845490862E-16</v>
+      </c>
+      <c r="V15">
+        <f t="shared" ref="V15:V78" si="7">U15-T15</f>
+        <v>-2.3841857922407735E-7</v>
+      </c>
+      <c r="W15">
+        <f t="shared" ref="W15:W78" si="8">V15/T15</f>
+        <v>-1.0000000005138645</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ref="B16:B79" si="9">A16/32*PI()</f>
+        <v>3.2397674240144743</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="3"/>
+        <v>-3.043417883165112</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="4"/>
+        <v>-51060079.204123847</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="5"/>
+        <v>-51060079</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16:F79" si="10">E16*E16</f>
+        <v>2607131667486241</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G79" si="11">ROUND(F16/$B$3,0)</f>
+        <v>155397157</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16:H79" si="12">G16*$B$7</f>
+        <v>1056630738879350</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ref="I16:I79" si="13">ROUND(H16/$B$3,0)</f>
+        <v>62980100</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="6"/>
+        <v>-1090715537451785</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ref="K16:K79" si="14">ROUND(J16/$B$3,0)</f>
+        <v>-65011712</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ref="L16:L47" si="15">IF(E16&lt;0,K16+I16,K16-I16)</f>
+        <v>-2031612</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ref="M16:M79" si="16">L16*L16</f>
+        <v>4127447318544</v>
+      </c>
+      <c r="N16">
+        <f t="shared" ref="N16:N79" si="17">ROUND(M16/$B$3,0)</f>
+        <v>246015</v>
+      </c>
+      <c r="O16">
+        <f t="shared" ref="O16:O47" si="18">IF(L16&lt;0,0-N16,N16)</f>
+        <v>-246015</v>
+      </c>
+      <c r="P16">
+        <f t="shared" ref="P16:P47" si="19">O16-L16</f>
+        <v>1785597</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" ref="Q16:Q79" si="20">P16*$B$8</f>
+        <v>6740403689778</v>
+      </c>
+      <c r="R16">
+        <f t="shared" ref="R16:R79" si="21">ROUND(Q16/$B$3,0)</f>
+        <v>401759</v>
+      </c>
+      <c r="S16">
+        <f t="shared" ref="S16:S47" si="22">R16+L16</f>
+        <v>-1629853</v>
+      </c>
+      <c r="T16">
+        <f t="shared" ref="T16:T79" si="23">S16/$B$3</f>
+        <v>-9.7146809101104736E-2</v>
+      </c>
+      <c r="U16">
+        <f t="shared" ref="U16:U47" si="24">SIN(C16)</f>
+        <v>-9.8017140329560826E-2</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="7"/>
+        <v>-8.7033122845608935E-4</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="8"/>
+        <v>8.9589275912325579E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17">
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="9"/>
+        <v>3.3379421944391554</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="3"/>
+        <v>-2.9452431127404308</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="4"/>
+        <v>-49412979.87495856</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="5"/>
+        <v>-49412980</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="10"/>
+        <v>2441642592480400</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="11"/>
+        <v>145533239</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="12"/>
+        <v>989560535242450</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="13"/>
+        <v>58982404</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="6"/>
+        <v>-1055531172166700</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="14"/>
+        <v>-62914561</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="15"/>
+        <v>-3932157</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="16"/>
+        <v>15461858672649</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="17"/>
+        <v>921599</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="18"/>
+        <v>-921599</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="19"/>
+        <v>3010558</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="20"/>
+        <v>11364477119692</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="21"/>
+        <v>677376</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="22"/>
+        <v>-3254781</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="23"/>
+        <v>-0.19400006532669067</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="24"/>
+        <v>-0.19509032201612861</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="7"/>
+        <v>-1.0902566894379351E-3</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="8"/>
+        <v>5.6198779500510653E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="9"/>
+        <v>3.4361169648638361</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="3"/>
+        <v>-2.8470683423157501</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="4"/>
+        <v>-47765880.54579328</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="5"/>
+        <v>-47765881</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="10"/>
+        <v>2281579387706161</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="11"/>
+        <v>135992729</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="12"/>
+        <v>924689360471950</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="13"/>
+        <v>55115781</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="6"/>
+        <v>-1020346806881615</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="14"/>
+        <v>-60817409</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="15"/>
+        <v>-5701628</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="16"/>
+        <v>32508561850384</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="17"/>
+        <v>1937661</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="18"/>
+        <v>-1937661</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="19"/>
+        <v>3763967</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="20"/>
+        <v>14208501165158</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="21"/>
+        <v>846893</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="22"/>
+        <v>-4854735</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="23"/>
+        <v>-0.28936475515365601</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="24"/>
+        <v>-0.29028467725446239</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="7"/>
+        <v>-9.199221008063807E-4</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="8"/>
+        <v>3.1791090118003192E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="9"/>
+        <v>3.5342917352885173</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="3"/>
+        <v>-2.748893571891069</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="4"/>
+        <v>-46118781.216627993</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="5"/>
+        <v>-46118781</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="10"/>
+        <v>2126941960925961</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="11"/>
+        <v>126775620</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="12"/>
+        <v>862017166971000</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="13"/>
+        <v>51380227</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="6"/>
+        <v>-985162420235115</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="14"/>
+        <v>-58720256</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="15"/>
+        <v>-7340029</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="16"/>
+        <v>53876025720841</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="17"/>
+        <v>3211261</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="18"/>
+        <v>-3211261</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="19"/>
+        <v>4128768</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="20"/>
+        <v>15585578975232</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="21"/>
+        <v>928973</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="22"/>
+        <v>-6411056</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="23"/>
+        <v>-0.38212871551513672</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="24"/>
+        <v>-0.38268343236508989</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="7"/>
+        <v>-5.5471684995317405E-4</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="8"/>
+        <v>1.4516492151221251E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20">
+        <v>37</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="9"/>
+        <v>3.6324665057131984</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="3"/>
+        <v>-2.6507188014663878</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="4"/>
+        <v>-44471681.887462705</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="5"/>
+        <v>-44471682</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="10"/>
+        <v>1977730499909124</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="11"/>
+        <v>117881924</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="12"/>
+        <v>801544036334200</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="13"/>
+        <v>47775748</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="6"/>
+        <v>-949978054950030</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="14"/>
+        <v>-56623105</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="15"/>
+        <v>-8847357</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="16"/>
+        <v>78275725885449</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="17"/>
+        <v>4665597</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="18"/>
+        <v>-4665597</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="19"/>
+        <v>4181760</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="20"/>
+        <v>15785617098240</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="21"/>
+        <v>940896</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="22"/>
+        <v>-7906461</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="23"/>
+        <v>-0.47126179933547974</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="24"/>
+        <v>-0.47139673682599786</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="7"/>
+        <v>-1.3493749051812776E-4</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="8"/>
+        <v>2.8633233312863761E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21">
+        <v>38</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="9"/>
+        <v>3.7306412761378791</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="3"/>
+        <v>-2.5525440310417071</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="4"/>
+        <v>-42824582.558297426</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="5"/>
+        <v>-42824583</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="10"/>
+        <v>1833944909123889</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="11"/>
+        <v>109311635</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="12"/>
+        <v>743269927764250</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="13"/>
+        <v>44302340</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="6"/>
+        <v>-914793689664945</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="14"/>
+        <v>-54525953</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="15"/>
+        <v>-10223613</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="16"/>
+        <v>104522262773769</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="17"/>
+        <v>6230012</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="18"/>
+        <v>-6230012</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="19"/>
+        <v>3993601</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="20"/>
+        <v>15075340581274</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="21"/>
+        <v>898560</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="22"/>
+        <v>-9325053</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="23"/>
+        <v>-0.55581647157669067</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="24"/>
+        <v>-0.55557023301960218</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="7"/>
+        <v>2.4623855708849618E-4</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="8"/>
+        <v>-4.4302133830253099E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" s="2" customFormat="1">
+      <c r="A22" s="2">
+        <v>39</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="9"/>
+        <v>3.8288160465625602</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="3"/>
+        <v>-2.454369260617026</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="4"/>
+        <v>-41177483.229132138</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="5"/>
+        <v>-41177483</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="10"/>
+        <v>1695585106215289</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="11"/>
+        <v>101064748</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="12"/>
+        <v>687194807263400</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="13"/>
+        <v>40960002</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="6"/>
+        <v>-879609303018445</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="14"/>
+        <v>-52428800</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="15"/>
+        <v>-11468798</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="16"/>
+        <v>131533327564804</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="17"/>
+        <v>7839997</v>
+      </c>
+      <c r="O22" s="2">
+        <f t="shared" si="18"/>
+        <v>-7839997</v>
+      </c>
+      <c r="P22" s="2">
+        <f t="shared" si="19"/>
+        <v>3628801</v>
+      </c>
+      <c r="Q22" s="2">
+        <f t="shared" si="20"/>
+        <v>13698266546074</v>
+      </c>
+      <c r="R22" s="2">
+        <f t="shared" si="21"/>
+        <v>816480</v>
+      </c>
+      <c r="S22" s="2">
+        <f t="shared" si="22"/>
+        <v>-10652318</v>
+      </c>
+      <c r="T22" s="2">
+        <f t="shared" si="23"/>
+        <v>-0.63492763042449951</v>
+      </c>
+      <c r="U22" s="2">
+        <f t="shared" si="24"/>
+        <v>-0.63439328416364549</v>
+      </c>
+      <c r="V22" s="2">
+        <f t="shared" si="7"/>
+        <v>5.3434626085402392E-4</v>
+      </c>
+      <c r="W22" s="2">
+        <f t="shared" si="8"/>
+        <v>-8.4158608831808284E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23">
+        <v>40</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="9"/>
+        <v>3.9269908169872414</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="3"/>
+        <v>-2.3561944901923448</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="4"/>
+        <v>-39530383.899966851</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="5"/>
+        <v>-39530384</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="10"/>
+        <v>1562651259187456</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="11"/>
+        <v>93141273</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="12"/>
+        <v>633318742827150</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="13"/>
+        <v>37748739</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="6"/>
+        <v>-844424937733360</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="14"/>
+        <v>-50331648</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="15"/>
+        <v>-12582909</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="16"/>
+        <v>158329598902281</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="17"/>
+        <v>9437180</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="18"/>
+        <v>-9437180</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="19"/>
+        <v>3145729</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="20"/>
+        <v>11874730613146</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="21"/>
+        <v>707789</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="22"/>
+        <v>-11875120</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="23"/>
+        <v>-0.70781230926513672</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="24"/>
+        <v>-0.70710678118654757</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="7"/>
+        <v>7.0552807858914601E-4</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="8"/>
+        <v>-9.9677282996340913E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24">
+        <v>41</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="9"/>
+        <v>4.0251655874119221</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="3"/>
+        <v>-2.2580197197676641</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="4"/>
+        <v>-37883284.570801571</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="5"/>
+        <v>-37883285</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="10"/>
+        <v>1435143282391225</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="11"/>
+        <v>85541206</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="12"/>
+        <v>581641707257300</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="13"/>
+        <v>34668547</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="6"/>
+        <v>-809240572448275</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="14"/>
+        <v>-48234497</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="15"/>
+        <v>-13565950</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="16"/>
+        <v>184034999402500</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="17"/>
+        <v>10969341</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="18"/>
+        <v>-10969341</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="19"/>
+        <v>2596609</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="20"/>
+        <v>9801871802266</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="21"/>
+        <v>584237</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="22"/>
+        <v>-12981713</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="23"/>
+        <v>-0.77377039194107056</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="24"/>
+        <v>-0.77301045336273677</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="7"/>
+        <v>7.5993857833378531E-4</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="8"/>
+        <v>-9.8212413688692976E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25">
+        <v>42</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="9"/>
+        <v>4.1233403578366037</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="3"/>
+        <v>-2.1598449493429825</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="4"/>
+        <v>-36236185.241636276</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="5"/>
+        <v>-36236185</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="10"/>
+        <v>1313061103354225</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="11"/>
+        <v>78264541</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="12"/>
+        <v>532163659756550</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="13"/>
+        <v>31719426</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="6"/>
+        <v>-774056185801775</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="14"/>
+        <v>-46137344</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="15"/>
+        <v>-14417918</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="16"/>
+        <v>207876359454724</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="17"/>
+        <v>12390397</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="18"/>
+        <v>-12390397</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="19"/>
+        <v>2027521</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="20"/>
+        <v>7653636307354</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="21"/>
+        <v>456192</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="22"/>
+        <v>-13961726</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="23"/>
+        <v>-0.83218371868133545</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="24"/>
+        <v>-0.83146961230254546</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="7"/>
+        <v>7.141063787899915E-4</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="8"/>
+        <v>-8.5811145154528212E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26">
+        <v>43</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="9"/>
+        <v>4.2215151282612844</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="3"/>
+        <v>-2.0616701789183018</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="4"/>
+        <v>-34589085.912470996</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="5"/>
+        <v>-34589086</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="10"/>
+        <v>1196404870315396</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="11"/>
+        <v>71311287</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="12"/>
+        <v>484884661520850</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="13"/>
+        <v>28901378</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="6"/>
+        <v>-738871820516690</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="14"/>
+        <v>-44040192</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="15"/>
+        <v>-15138814</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="16"/>
+        <v>229183689326596</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="17"/>
+        <v>13660412</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="18"/>
+        <v>-13660412</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="19"/>
+        <v>1478402</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="20"/>
+        <v>5580781271348</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="21"/>
+        <v>332640</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="22"/>
+        <v>-14806174</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="23"/>
+        <v>-0.88251674175262451</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="24"/>
+        <v>-0.88192126434835505</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="7"/>
+        <v>5.9547740426946216E-4</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="8"/>
+        <v>-6.7474913063618523E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27">
+        <v>44</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="9"/>
+        <v>4.3196898986859651</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="3"/>
+        <v>-1.9634954084936211</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="4"/>
+        <v>-32941986.583305717</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="5"/>
+        <v>-32941987</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="10"/>
+        <v>1085174507508169</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="11"/>
+        <v>64681441</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="12"/>
+        <v>439804692151550</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="13"/>
+        <v>26214402</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="6"/>
+        <v>-703687455231605</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="14"/>
+        <v>-41943041</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="15"/>
+        <v>-15728639</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="16"/>
+        <v>247390084792321</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="17"/>
+        <v>14745598</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="18"/>
+        <v>-14745598</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="19"/>
+        <v>983041</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="20"/>
+        <v>3710855911834</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="21"/>
+        <v>221184</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="22"/>
+        <v>-15507455</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="23"/>
+        <v>-0.92431634664535522</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="24"/>
+        <v>-0.92387953251128663</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="7"/>
+        <v>4.3681413406859715E-4</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="8"/>
+        <v>-4.7258077351324337E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28">
+        <v>45</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="9"/>
+        <v>4.4178646691106467</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="3"/>
+        <v>-1.8653206380689396</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="4"/>
+        <v>-31294887.254140422</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="5"/>
+        <v>-31294887</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="10"/>
+        <v>979369952342769</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="11"/>
+        <v>58374998</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="12"/>
+        <v>396923717650900</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="13"/>
+        <v>23658497</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="6"/>
+        <v>-668503068585105</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="14"/>
+        <v>-39845888</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="15"/>
+        <v>-16187391</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="16"/>
+        <v>262031627386881</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="17"/>
+        <v>15618302</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="18"/>
+        <v>-15618302</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="19"/>
+        <v>569089</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="20"/>
+        <v>2148239269786</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="21"/>
+        <v>128045</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="22"/>
+        <v>-16059346</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="23"/>
+        <v>-0.95721161365509033</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="24"/>
+        <v>-0.95694033573220894</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="7"/>
+        <v>2.7127792288139663E-4</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="8"/>
+        <v>-2.8340433715124725E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29">
+        <v>46</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="9"/>
+        <v>4.5160394395353274</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="3"/>
+        <v>-1.7671458676442588</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="4"/>
+        <v>-29647787.924975142</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="5"/>
+        <v>-29647788</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="10"/>
+        <v>878991333292944</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="11"/>
+        <v>52391966</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="12"/>
+        <v>356241792415300</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="13"/>
+        <v>21233665</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="6"/>
+        <v>-633318703300020</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="14"/>
+        <v>-37748736</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="15"/>
+        <v>-16515071</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="16"/>
+        <v>272747570135041</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="17"/>
+        <v>16257022</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="18"/>
+        <v>-16257022</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="19"/>
+        <v>258049</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="20"/>
+        <v>974102460826</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="21"/>
+        <v>58061</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="22"/>
+        <v>-16457010</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="23"/>
+        <v>-0.98091423511505127</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="24"/>
+        <v>-0.98078528040323043</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="7"/>
+        <v>1.2895471182083895E-4</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="8"/>
+        <v>-1.3146379897903499E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30">
+        <v>47</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="9"/>
+        <v>4.614214209960009</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="3"/>
+        <v>-1.6689710972195773</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="4"/>
+        <v>-28000688.595809847</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="5"/>
+        <v>-28000689</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="10"/>
+        <v>784038584474721</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="11"/>
+        <v>46732341</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="12"/>
+        <v>317758889246550</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="13"/>
+        <v>18939906</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="6"/>
+        <v>-598134338014935</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="14"/>
+        <v>-35651585</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="15"/>
+        <v>-16711679</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="16"/>
+        <v>279280214999041</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="17"/>
+        <v>16646398</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="18"/>
+        <v>-16646398</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="19"/>
+        <v>65281</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="20"/>
+        <v>246427549594</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="21"/>
+        <v>14688</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="22"/>
+        <v>-16696991</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="23"/>
+        <v>-0.99521821737289429</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="24"/>
+        <v>-0.99518472667219693</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="7"/>
+        <v>3.3490700697358378E-5</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="8"/>
+        <v>-3.3651615407286986E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31">
+        <v>48</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="9"/>
+        <v>4.7123889803846897</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="3"/>
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="4"/>
+        <v>-26353589.266644567</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="5"/>
+        <v>-26353589</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="10"/>
+        <v>694511653180921</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="11"/>
+        <v>41396120</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="12"/>
+        <v>281474987746000</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="13"/>
+        <v>16777217</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="6"/>
+        <v>-562949951368435</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="14"/>
+        <v>-33554432</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="15"/>
+        <v>-16777215</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="16"/>
+        <v>281474943156225</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="17"/>
+        <v>16777214</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="18"/>
+        <v>-16777214</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="20"/>
+        <v>3774874</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="22"/>
+        <v>-16777215</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="23"/>
+        <v>-0.99999994039535522</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="7"/>
+        <v>-5.9604644775390625E-8</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="8"/>
+        <v>5.9604648328104516E-8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32">
+        <v>49</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="9"/>
+        <v>4.8105637508093704</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="3"/>
+        <v>-1.4726215563702159</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="4"/>
+        <v>-24706489.937479287</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="5"/>
+        <v>-24706490</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="10"/>
+        <v>610410648120100</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="11"/>
+        <v>36383310</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="12"/>
+        <v>247390135510500</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="13"/>
+        <v>14745601</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="6"/>
+        <v>-527765586083350</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="14"/>
+        <v>-31457280</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="15"/>
+        <v>-16711679</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="16"/>
+        <v>279280214999041</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="17"/>
+        <v>16646398</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="18"/>
+        <v>-16646398</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="19"/>
+        <v>65281</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="20"/>
+        <v>246427549594</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="21"/>
+        <v>14688</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="22"/>
+        <v>-16696991</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="23"/>
+        <v>-0.99521821737289429</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="24"/>
+        <v>-0.99518472667219693</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="7"/>
+        <v>3.3490700697358378E-5</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="8"/>
+        <v>-3.3651615407286986E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33">
+        <v>50</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="9"/>
+        <v>4.908738521234052</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="3"/>
+        <v>-1.3744467859455343</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="4"/>
+        <v>-23059390.608313993</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="5"/>
+        <v>-23059391</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="10"/>
+        <v>531735513290881</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="11"/>
+        <v>31693906</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="12"/>
+        <v>215504298542300</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="13"/>
+        <v>12845057</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="6"/>
+        <v>-492581220798265</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="14"/>
+        <v>-29360129</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="15"/>
+        <v>-16515072</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="16"/>
+        <v>272747603165184</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="17"/>
+        <v>16257024</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="18"/>
+        <v>-16257024</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="19"/>
+        <v>258048</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="20"/>
+        <v>974098685952</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="21"/>
+        <v>58061</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="22"/>
+        <v>-16457011</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="23"/>
+        <v>-0.98091429471969604</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="24"/>
+        <v>-0.98078528040323043</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="7"/>
+        <v>1.2901431646561434E-4</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="8"/>
+        <v>-1.3152455536646164E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34">
+        <v>51</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="9"/>
+        <v>5.0069132916587327</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="3"/>
+        <v>-1.2762720155208536</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="4"/>
+        <v>-21412291.279148713</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="5"/>
+        <v>-21412291</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="10"/>
+        <v>458486205868681</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="11"/>
+        <v>27327907</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="12"/>
+        <v>185817470041850</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="13"/>
+        <v>11075584</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="6"/>
+        <v>-457396834151765</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="14"/>
+        <v>-27262976</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="15"/>
+        <v>-16187392</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="16"/>
+        <v>262031659761664</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="17"/>
+        <v>15618304</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="18"/>
+        <v>-15618304</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="19"/>
+        <v>569088</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="20"/>
+        <v>2148235494912</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="21"/>
+        <v>128045</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="22"/>
+        <v>-16059347</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="23"/>
+        <v>-0.95721167325973511</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="24"/>
+        <v>-0.95694033573220894</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="7"/>
+        <v>2.7133752752617202E-4</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="8"/>
+        <v>-2.8346658853641645E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35">
+        <v>52</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="9"/>
+        <v>5.1050880620834143</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="3"/>
+        <v>-1.178097245096172</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="4"/>
+        <v>-19765191.949983418</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="5"/>
+        <v>-19765192</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="10"/>
+        <v>390662814796864</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="11"/>
+        <v>23285318</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="12"/>
+        <v>158329684006900</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="13"/>
+        <v>9437185</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="6"/>
+        <v>-422212468866680</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="14"/>
+        <v>-25165824</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="15"/>
+        <v>-15728639</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="16"/>
+        <v>247390084792321</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="17"/>
+        <v>14745598</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="18"/>
+        <v>-14745598</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="19"/>
+        <v>983041</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="20"/>
+        <v>3710855911834</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="21"/>
+        <v>221184</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="22"/>
+        <v>-15507455</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="23"/>
+        <v>-0.92431634664535522</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="24"/>
+        <v>-0.92387953251128652</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="7"/>
+        <v>4.3681413406870817E-4</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="8"/>
+        <v>-4.7258077351336345E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36">
+        <v>53</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="9"/>
+        <v>5.203262832508095</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="3"/>
+        <v>-1.0799224746714913</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="4"/>
+        <v>-18118092.620818138</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="5"/>
+        <v>-18118093</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="10"/>
+        <v>328265293956649</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="11"/>
+        <v>19566136</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="12"/>
+        <v>133040920038800</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="13"/>
+        <v>7929857</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="6"/>
+        <v>-387028103581595</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="14"/>
+        <v>-23068673</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="15"/>
+        <v>-15138816</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="16"/>
+        <v>229183749881856</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="17"/>
+        <v>13660416</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="18"/>
+        <v>-13660416</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="19"/>
+        <v>1478400</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="20"/>
+        <v>5580773721600</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="21"/>
+        <v>332640</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="22"/>
+        <v>-14806176</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="23"/>
+        <v>-0.88251686096191406</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="24"/>
+        <v>-0.88192126434835494</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="7"/>
+        <v>5.9559661355912397E-4</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="8"/>
+        <v>-6.7488411825916098E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37">
+        <v>54</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="9"/>
+        <v>5.3014376029327757</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="3"/>
+        <v>-0.98174770424681057</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="4"/>
+        <v>-16470993.291652858</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="5"/>
+        <v>-16470993</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="10"/>
+        <v>271293610406049</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="11"/>
+        <v>16170359</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="12"/>
+        <v>109951164538450</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="13"/>
+        <v>6553600</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="6"/>
+        <v>-351843716935095</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="14"/>
+        <v>-20971520</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="15"/>
+        <v>-14417920</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="16"/>
+        <v>207876417126400</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="17"/>
+        <v>12390400</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="18"/>
+        <v>-12390400</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="19"/>
+        <v>2027520</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="20"/>
+        <v>7653632532480</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="21"/>
+        <v>456192</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="22"/>
+        <v>-13961728</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="23"/>
+        <v>-0.832183837890625</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="24"/>
+        <v>-0.83146961230254535</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="7"/>
+        <v>7.1422558807965331E-4</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="8"/>
+        <v>-8.5825457736602296E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38">
+        <v>55</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="9"/>
+        <v>5.3996123733574573</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="3"/>
+        <v>-0.88357293382212898</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="4"/>
+        <v>-14823893.962487563</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="5"/>
+        <v>-14823894</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="10"/>
+        <v>219747833323236</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="11"/>
+        <v>13097992</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="12"/>
+        <v>89060451503600</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="13"/>
+        <v>5308417</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="6"/>
+        <v>-316659351650010</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="14"/>
+        <v>-18874368</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="15"/>
+        <v>-13565951</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="16"/>
+        <v>184035026534401</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="17"/>
+        <v>10969342</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="18"/>
+        <v>-10969342</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="19"/>
+        <v>2596609</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="20"/>
+        <v>9801871802266</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="21"/>
+        <v>584237</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="22"/>
+        <v>-12981714</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="23"/>
+        <v>-0.77377045154571533</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="24"/>
+        <v>-0.77301045336273677</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="7"/>
+        <v>7.599981829785607E-4</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="8"/>
+        <v>-9.8220109266302096E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39">
+        <v>56</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="9"/>
+        <v>5.497787143782138</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="3"/>
+        <v>-0.78539816339744828</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="4"/>
+        <v>-13176794.633322284</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="5"/>
+        <v>-13176795</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="10"/>
+        <v>173627926472025</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="11"/>
+        <v>10349031</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="12"/>
+        <v>70368753736050</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="13"/>
+        <v>4194305</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="6"/>
+        <v>-281474986364925</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="14"/>
+        <v>-16777217</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="15"/>
+        <v>-12582912</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="16"/>
+        <v>158329674399744</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="17"/>
+        <v>9437184</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="18"/>
+        <v>-9437184</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="19"/>
+        <v>3145728</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="20"/>
+        <v>11874726838272</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="21"/>
+        <v>707789</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="22"/>
+        <v>-11875123</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="23"/>
+        <v>-0.70781248807907104</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="24"/>
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="7"/>
+        <v>7.0570689252358321E-4</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="8"/>
+        <v>-9.9702520711212337E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40">
+        <v>57</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="9"/>
+        <v>5.5959619142068187</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="3"/>
+        <v>-0.68722339297276758</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="4"/>
+        <v>-11529695.304157004</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="5"/>
+        <v>-11529695</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="10"/>
+        <v>132933866793025</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="11"/>
+        <v>7923476</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="12"/>
+        <v>53876071235800</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="13"/>
+        <v>3211264</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="6"/>
+        <v>-246290599718425</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="14"/>
+        <v>-14680064</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="15"/>
+        <v>-11468800</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="16"/>
+        <v>131533373440000</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="17"/>
+        <v>7840000</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="18"/>
+        <v>-7840000</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="19"/>
+        <v>3628800</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="20"/>
+        <v>13698262771200</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="21"/>
+        <v>816480</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="22"/>
+        <v>-10652320</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="23"/>
+        <v>-0.63492774963378906</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="24"/>
+        <v>-0.63439328416364571</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="7"/>
+        <v>5.3446547014335266E-4</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="8"/>
+        <v>-8.4177368283496726E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41">
+        <v>58</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="9"/>
+        <v>5.6941366846315002</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="3"/>
+        <v>-0.58904862254808599</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="4"/>
+        <v>-9882595.974991709</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="5"/>
+        <v>-9882596</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="10"/>
+        <v>97665703699216</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="11"/>
+        <v>5821330</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="12"/>
+        <v>39582424401500</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="13"/>
+        <v>2359296</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="6"/>
+        <v>-211106234433340</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="14"/>
+        <v>-12582912</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="15"/>
+        <v>-10223616</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="16"/>
+        <v>104522324115456</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="17"/>
+        <v>6230016</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="18"/>
+        <v>-6230016</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="19"/>
+        <v>3993600</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="20"/>
+        <v>15075336806400</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="21"/>
+        <v>898560</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="22"/>
+        <v>-9325056</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="23"/>
+        <v>-0.555816650390625</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="24"/>
+        <v>-0.55557023301960207</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="7"/>
+        <v>2.4641737102293337E-4</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="8"/>
+        <v>-4.4334290966230062E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42">
+        <v>59</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="9"/>
+        <v>5.7923114550561809</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="3"/>
+        <v>-0.49087385212340529</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="4"/>
+        <v>-8235496.6458264291</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="5"/>
+        <v>-8235497</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="10"/>
+        <v>67823410837009</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="11"/>
+        <v>4042590</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="12"/>
+        <v>27487792834500</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="13"/>
+        <v>1638400</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="6"/>
+        <v>-175921869148255</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="14"/>
+        <v>-10485761</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="15"/>
+        <v>-8847361</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="16"/>
+        <v>78275796664321</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="17"/>
+        <v>4665601</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="18"/>
+        <v>-4665601</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="19"/>
+        <v>4181760</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="20"/>
+        <v>15785617098240</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="21"/>
+        <v>940896</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="22"/>
+        <v>-7906465</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="23"/>
+        <v>-0.47126203775405884</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="24"/>
+        <v>-0.47139673682599775</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="7"/>
+        <v>-1.3469907193891517E-4</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="8"/>
+        <v>2.8582627317248841E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43">
+        <v>60</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="9"/>
+        <v>5.8904862254808616</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="3"/>
+        <v>-0.39269908169872458</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="4"/>
+        <v>-6588397.3166611493</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="5"/>
+        <v>-6588397</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="10"/>
+        <v>43406975029609</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="11"/>
+        <v>2587257</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="12"/>
+        <v>17592183334350</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="13"/>
+        <v>1048576</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="6"/>
+        <v>-140737482501755</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="14"/>
+        <v>-8388608</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="15"/>
+        <v>-7340032</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="16"/>
+        <v>53876069761024</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="17"/>
+        <v>3211264</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="18"/>
+        <v>-3211264</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="19"/>
+        <v>4128768</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="20"/>
+        <v>15585578975232</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="21"/>
+        <v>928973</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="22"/>
+        <v>-6411059</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="23"/>
+        <v>-0.38212889432907104</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="24"/>
+        <v>-0.38268343236509017</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="7"/>
+        <v>-5.5453803601912544E-4</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="8"/>
+        <v>1.4511805944242048E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44">
+        <v>61</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="9"/>
+        <v>5.9886609959055432</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="3"/>
+        <v>-0.29452431127404299</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="4"/>
+        <v>-4941297.9874958545</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="5"/>
+        <v>-4941298</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="10"/>
+        <v>24416425924804</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="11"/>
+        <v>1455332</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="12"/>
+        <v>9895602700600</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="13"/>
+        <v>589824</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="6"/>
+        <v>-105553117216670</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="14"/>
+        <v>-6291456</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="15"/>
+        <v>-5701632</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="16"/>
+        <v>32508607463424</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="17"/>
+        <v>1937664</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="18"/>
+        <v>-1937664</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="19"/>
+        <v>3763968</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="20"/>
+        <v>14208504940032</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="21"/>
+        <v>846893</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="22"/>
+        <v>-4854739</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="23"/>
+        <v>-0.28936499357223511</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="24"/>
+        <v>-0.29028467725446228</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="7"/>
+        <v>-9.1968368222716812E-4</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="8"/>
+        <v>3.1782824552258238E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45">
+        <v>62</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="9"/>
+        <v>6.0868357663302239</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="3"/>
+        <v>-0.19634954084936229</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="4"/>
+        <v>-3294198.6583305746</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="5"/>
+        <v>-3294199</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="10"/>
+        <v>10851747051601</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="11"/>
+        <v>646815</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="12"/>
+        <v>4398050933250</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="13"/>
+        <v>262144</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="6"/>
+        <v>-70368751931585</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="14"/>
+        <v>-4194304</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="15"/>
+        <v>-3932160</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="16"/>
+        <v>15461882265600</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="17"/>
+        <v>921600</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="18"/>
+        <v>-921600</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="19"/>
+        <v>3010560</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="20"/>
+        <v>11364484669440</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="21"/>
+        <v>677376</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="22"/>
+        <v>-3254784</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="23"/>
+        <v>-0.194000244140625</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="24"/>
+        <v>-0.19509032201612847</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="7"/>
+        <v>-1.0900778755034701E-3</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="8"/>
+        <v>5.618951049944582E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46">
+        <v>63</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="9"/>
+        <v>6.1850105367549055</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="3"/>
+        <v>-9.8174770424680702E-2</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="4"/>
+        <v>-1647099.3291652799</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="5"/>
+        <v>-1647099</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="10"/>
+        <v>2712935115801</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="11"/>
+        <v>161704</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="12"/>
+        <v>1099514433200</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="13"/>
+        <v>65536</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="6"/>
+        <v>-35184365285085</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="14"/>
+        <v>-2097152</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="15"/>
+        <v>-2031616</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="16"/>
+        <v>4127463571456</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="17"/>
+        <v>246016</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="18"/>
+        <v>-246016</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="19"/>
+        <v>1785600</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="20"/>
+        <v>6740415014400</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="21"/>
+        <v>401760</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="22"/>
+        <v>-1629856</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="23"/>
+        <v>-9.7146987915039062E-2</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="24"/>
+        <v>-9.8017140329560271E-2</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="7"/>
+        <v>-8.7015241452120806E-4</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="8"/>
+        <v>8.9570704475388282E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47">
+        <v>64</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="9"/>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W47" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48">
+        <v>65</v>
+      </c>
+      <c r="B48">
+        <f>A48/32*PI()</f>
+        <v>6.3813600776042669</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="3"/>
+        <v>9.8174770424680702E-2</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="4"/>
+        <v>1647099.3291652799</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="5"/>
+        <v>1647099</v>
+      </c>
+      <c r="F48">
+        <f>E48*E48</f>
+        <v>2712935115801</v>
+      </c>
+      <c r="G48">
+        <f>ROUND(F48/$B$3,0)</f>
+        <v>161704</v>
+      </c>
+      <c r="H48">
+        <f>G48*$B$7</f>
+        <v>1099514433200</v>
+      </c>
+      <c r="I48">
+        <f>ROUND(H48/$B$3,0)</f>
+        <v>65536</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="6"/>
+        <v>35184365285085</v>
+      </c>
+      <c r="K48">
+        <f>ROUND(J48/$B$3,0)</f>
+        <v>2097152</v>
+      </c>
+      <c r="L48">
+        <f>IF(E48&lt;0,K48+I48,K48-I48)</f>
+        <v>2031616</v>
+      </c>
+      <c r="M48">
+        <f>L48*L48</f>
+        <v>4127463571456</v>
+      </c>
+      <c r="N48">
+        <f>ROUND(M48/$B$3,0)</f>
+        <v>246016</v>
+      </c>
+      <c r="O48">
+        <f>IF(L48&lt;0,0-N48,N48)</f>
+        <v>246016</v>
+      </c>
+      <c r="P48">
+        <f>O48-L48</f>
+        <v>-1785600</v>
+      </c>
+      <c r="Q48">
+        <f>P48*$B$8</f>
+        <v>-6740415014400</v>
+      </c>
+      <c r="R48">
+        <f>ROUND(Q48/$B$3,0)</f>
+        <v>-401760</v>
+      </c>
+      <c r="S48">
+        <f>R48+L48</f>
+        <v>1629856</v>
+      </c>
+      <c r="T48">
+        <f>S48/$B$3</f>
+        <v>9.7146987915039062E-2</v>
+      </c>
+      <c r="U48">
+        <f>SIN(C48)</f>
+        <v>9.8017140329560271E-2</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="7"/>
+        <v>8.7015241452120806E-4</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="8"/>
+        <v>8.9570704475388282E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
+      <c r="A49">
+        <v>66</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="9"/>
+        <v>6.4795348480289485</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="3"/>
+        <v>0.19634954084936229</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="4"/>
+        <v>3294198.6583305746</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="5"/>
+        <v>3294199</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="10"/>
+        <v>10851747051601</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="11"/>
+        <v>646815</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="12"/>
+        <v>4398050933250</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="13"/>
+        <v>262144</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="6"/>
+        <v>70368751931585</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="14"/>
+        <v>4194304</v>
+      </c>
+      <c r="L49">
+        <f t="shared" ref="L49:L72" si="25">IF(E49&lt;0,K49+I49,K49-I49)</f>
+        <v>3932160</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="16"/>
+        <v>15461882265600</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="17"/>
+        <v>921600</v>
+      </c>
+      <c r="O49">
+        <f t="shared" ref="O49:O72" si="26">IF(L49&lt;0,0-N49,N49)</f>
+        <v>921600</v>
+      </c>
+      <c r="P49">
+        <f t="shared" ref="P49:P72" si="27">O49-L49</f>
+        <v>-3010560</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="20"/>
+        <v>-11364484669440</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="21"/>
+        <v>-677376</v>
+      </c>
+      <c r="S49">
+        <f t="shared" ref="S49:S72" si="28">R49+L49</f>
+        <v>3254784</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="23"/>
+        <v>0.194000244140625</v>
+      </c>
+      <c r="U49">
+        <f t="shared" ref="U49:U72" si="29">SIN(C49)</f>
+        <v>0.19509032201612847</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="7"/>
+        <v>1.0900778755034701E-3</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="8"/>
+        <v>5.618951049944582E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="A50">
+        <v>67</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="9"/>
+        <v>6.5777096184536292</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="3"/>
+        <v>0.29452431127404299</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="4"/>
+        <v>4941297.9874958545</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="5"/>
+        <v>4941298</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="10"/>
+        <v>24416425924804</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="11"/>
+        <v>1455332</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="12"/>
+        <v>9895602700600</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="13"/>
+        <v>589824</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="6"/>
+        <v>105553117216670</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="14"/>
+        <v>6291456</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="25"/>
+        <v>5701632</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="16"/>
+        <v>32508607463424</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="17"/>
+        <v>1937664</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="26"/>
+        <v>1937664</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="27"/>
+        <v>-3763968</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="20"/>
+        <v>-14208504940032</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="21"/>
+        <v>-846893</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="28"/>
+        <v>4854739</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="23"/>
+        <v>0.28936499357223511</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="29"/>
+        <v>0.29028467725446228</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="7"/>
+        <v>9.1968368222716812E-4</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="8"/>
+        <v>3.1782824552258238E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
+      <c r="A51">
+        <v>68</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="9"/>
+        <v>6.6758843888783108</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="3"/>
+        <v>0.39269908169872458</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="4"/>
+        <v>6588397.3166611493</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="5"/>
+        <v>6588397</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="10"/>
+        <v>43406975029609</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="11"/>
+        <v>2587257</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="12"/>
+        <v>17592183334350</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="13"/>
+        <v>1048576</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="6"/>
+        <v>140737482501755</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="14"/>
+        <v>8388608</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="25"/>
+        <v>7340032</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="16"/>
+        <v>53876069761024</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="17"/>
+        <v>3211264</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="26"/>
+        <v>3211264</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="27"/>
+        <v>-4128768</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="20"/>
+        <v>-15585578975232</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="21"/>
+        <v>-928973</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="28"/>
+        <v>6411059</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="23"/>
+        <v>0.38212889432907104</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="29"/>
+        <v>0.38268343236509017</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="7"/>
+        <v>5.5453803601912544E-4</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="8"/>
+        <v>1.4511805944242048E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
+      <c r="A52">
+        <v>69</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="9"/>
+        <v>6.7740591593029915</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="3"/>
+        <v>0.49087385212340529</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="4"/>
+        <v>8235496.6458264291</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="5"/>
+        <v>8235497</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="10"/>
+        <v>67823410837009</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="11"/>
+        <v>4042590</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="12"/>
+        <v>27487792834500</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="13"/>
+        <v>1638400</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="6"/>
+        <v>175921869148255</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="14"/>
+        <v>10485761</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="25"/>
+        <v>8847361</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="16"/>
+        <v>78275796664321</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="17"/>
+        <v>4665601</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="26"/>
+        <v>4665601</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="27"/>
+        <v>-4181760</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="20"/>
+        <v>-15785617098240</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="21"/>
+        <v>-940896</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="28"/>
+        <v>7906465</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="23"/>
+        <v>0.47126203775405884</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="29"/>
+        <v>0.47139673682599775</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="7"/>
+        <v>1.3469907193891517E-4</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="8"/>
+        <v>2.8582627317248841E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
+      <c r="A53">
+        <v>70</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="9"/>
+        <v>6.8722339297276722</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="3"/>
+        <v>0.58904862254808599</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="4"/>
+        <v>9882595.974991709</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="5"/>
+        <v>9882596</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="10"/>
+        <v>97665703699216</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="11"/>
+        <v>5821330</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="12"/>
+        <v>39582424401500</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="13"/>
+        <v>2359296</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="6"/>
+        <v>211106234433340</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="14"/>
+        <v>12582912</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="25"/>
+        <v>10223616</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="16"/>
+        <v>104522324115456</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="17"/>
+        <v>6230016</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="26"/>
+        <v>6230016</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="27"/>
+        <v>-3993600</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="20"/>
+        <v>-15075336806400</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="21"/>
+        <v>-898560</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="28"/>
+        <v>9325056</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="23"/>
+        <v>0.555816650390625</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="29"/>
+        <v>0.55557023301960207</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="7"/>
+        <v>-2.4641737102293337E-4</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="8"/>
+        <v>-4.4334290966230062E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
+      <c r="A54">
+        <v>71</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="9"/>
+        <v>6.9704087001523538</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="3"/>
+        <v>0.68722339297276758</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="4"/>
+        <v>11529695.304157004</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="5"/>
+        <v>11529695</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="10"/>
+        <v>132933866793025</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="11"/>
+        <v>7923476</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="12"/>
+        <v>53876071235800</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="13"/>
+        <v>3211264</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="6"/>
+        <v>246290599718425</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="14"/>
+        <v>14680064</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="25"/>
+        <v>11468800</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="16"/>
+        <v>131533373440000</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="17"/>
+        <v>7840000</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="26"/>
+        <v>7840000</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="27"/>
+        <v>-3628800</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="20"/>
+        <v>-13698262771200</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="21"/>
+        <v>-816480</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="28"/>
+        <v>10652320</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="23"/>
+        <v>0.63492774963378906</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="29"/>
+        <v>0.63439328416364571</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="7"/>
+        <v>-5.3446547014335266E-4</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="8"/>
+        <v>-8.4177368283496726E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
+      <c r="A55">
+        <v>72</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="9"/>
+        <v>7.0685834705770345</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="3"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="4"/>
+        <v>13176794.633322284</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="5"/>
+        <v>13176795</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="10"/>
+        <v>173627926472025</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="11"/>
+        <v>10349031</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="12"/>
+        <v>70368753736050</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="13"/>
+        <v>4194305</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="6"/>
+        <v>281474986364925</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="14"/>
+        <v>16777217</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="25"/>
+        <v>12582912</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="16"/>
+        <v>158329674399744</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="17"/>
+        <v>9437184</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="26"/>
+        <v>9437184</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="27"/>
+        <v>-3145728</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="20"/>
+        <v>-11874726838272</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="21"/>
+        <v>-707789</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="28"/>
+        <v>11875123</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="23"/>
+        <v>0.70781248807907104</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="29"/>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="7"/>
+        <v>-7.0570689252358321E-4</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="8"/>
+        <v>-9.9702520711212337E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
+      <c r="A56">
+        <v>73</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="9"/>
+        <v>7.1667582410017152</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="3"/>
+        <v>0.88357293382212898</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="4"/>
+        <v>14823893.962487563</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="5"/>
+        <v>14823894</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="10"/>
+        <v>219747833323236</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="11"/>
+        <v>13097992</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="12"/>
+        <v>89060451503600</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="13"/>
+        <v>5308417</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="6"/>
+        <v>316659351650010</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="14"/>
+        <v>18874368</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="25"/>
+        <v>13565951</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="16"/>
+        <v>184035026534401</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="17"/>
+        <v>10969342</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="26"/>
+        <v>10969342</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="27"/>
+        <v>-2596609</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="20"/>
+        <v>-9801871802266</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="21"/>
+        <v>-584237</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="28"/>
+        <v>12981714</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="23"/>
+        <v>0.77377045154571533</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="29"/>
+        <v>0.77301045336273677</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="7"/>
+        <v>-7.599981829785607E-4</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="8"/>
+        <v>-9.8220109266302096E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="A57">
+        <v>74</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="9"/>
+        <v>7.2649330114263968</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="3"/>
+        <v>0.98174770424681057</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="4"/>
+        <v>16470993.291652858</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="5"/>
+        <v>16470993</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="10"/>
+        <v>271293610406049</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="11"/>
+        <v>16170359</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="12"/>
+        <v>109951164538450</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="13"/>
+        <v>6553600</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="6"/>
+        <v>351843716935095</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="14"/>
+        <v>20971520</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="25"/>
+        <v>14417920</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="16"/>
+        <v>207876417126400</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="17"/>
+        <v>12390400</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="26"/>
+        <v>12390400</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="27"/>
+        <v>-2027520</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="20"/>
+        <v>-7653632532480</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="21"/>
+        <v>-456192</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="28"/>
+        <v>13961728</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="23"/>
+        <v>0.832183837890625</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="29"/>
+        <v>0.83146961230254535</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="7"/>
+        <v>-7.1422558807965331E-4</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="8"/>
+        <v>-8.5825457736602296E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="A58">
+        <v>75</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="9"/>
+        <v>7.3631077818510775</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="3"/>
+        <v>1.0799224746714913</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="4"/>
+        <v>18118092.620818138</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="5"/>
+        <v>18118093</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="10"/>
+        <v>328265293956649</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="11"/>
+        <v>19566136</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="12"/>
+        <v>133040920038800</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="13"/>
+        <v>7929857</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="6"/>
+        <v>387028103581595</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="14"/>
+        <v>23068673</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="25"/>
+        <v>15138816</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="16"/>
+        <v>229183749881856</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="17"/>
+        <v>13660416</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="26"/>
+        <v>13660416</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="27"/>
+        <v>-1478400</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="20"/>
+        <v>-5580773721600</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="21"/>
+        <v>-332640</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="28"/>
+        <v>14806176</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="23"/>
+        <v>0.88251686096191406</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="29"/>
+        <v>0.88192126434835494</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="7"/>
+        <v>-5.9559661355912397E-4</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="8"/>
+        <v>-6.7488411825916098E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="A59">
+        <v>76</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="9"/>
+        <v>7.4612825522757582</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="3"/>
+        <v>1.178097245096172</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="4"/>
+        <v>19765191.949983418</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="5"/>
+        <v>19765192</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="10"/>
+        <v>390662814796864</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="11"/>
+        <v>23285318</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="12"/>
+        <v>158329684006900</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="13"/>
+        <v>9437185</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="6"/>
+        <v>422212468866680</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="14"/>
+        <v>25165824</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="25"/>
+        <v>15728639</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="16"/>
+        <v>247390084792321</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="17"/>
+        <v>14745598</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="26"/>
+        <v>14745598</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="27"/>
+        <v>-983041</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="20"/>
+        <v>-3710855911834</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="21"/>
+        <v>-221184</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="28"/>
+        <v>15507455</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="23"/>
+        <v>0.92431634664535522</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="29"/>
+        <v>0.92387953251128652</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="7"/>
+        <v>-4.3681413406870817E-4</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="8"/>
+        <v>-4.7258077351336345E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60">
+        <v>77</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="9"/>
+        <v>7.5594573227004398</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="3"/>
+        <v>1.2762720155208536</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="4"/>
+        <v>21412291.279148713</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="5"/>
+        <v>21412291</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="10"/>
+        <v>458486205868681</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="11"/>
+        <v>27327907</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="12"/>
+        <v>185817470041850</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="13"/>
+        <v>11075584</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="6"/>
+        <v>457396834151765</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="14"/>
+        <v>27262976</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="25"/>
+        <v>16187392</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="16"/>
+        <v>262031659761664</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="17"/>
+        <v>15618304</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="26"/>
+        <v>15618304</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="27"/>
+        <v>-569088</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="20"/>
+        <v>-2148235494912</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="21"/>
+        <v>-128045</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="28"/>
+        <v>16059347</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="23"/>
+        <v>0.95721167325973511</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="29"/>
+        <v>0.95694033573220894</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="7"/>
+        <v>-2.7133752752617202E-4</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="8"/>
+        <v>-2.8346658853641645E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
+      <c r="A61">
+        <v>78</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="9"/>
+        <v>7.6576320931251205</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="3"/>
+        <v>1.3744467859455343</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="4"/>
+        <v>23059390.608313993</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="5"/>
+        <v>23059391</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="10"/>
+        <v>531735513290881</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="11"/>
+        <v>31693906</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="12"/>
+        <v>215504298542300</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="13"/>
+        <v>12845057</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="6"/>
+        <v>492581220798265</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="14"/>
+        <v>29360129</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="25"/>
+        <v>16515072</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="16"/>
+        <v>272747603165184</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="17"/>
+        <v>16257024</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="26"/>
+        <v>16257024</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="27"/>
+        <v>-258048</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="20"/>
+        <v>-974098685952</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="21"/>
+        <v>-58061</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="28"/>
+        <v>16457011</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="23"/>
+        <v>0.98091429471969604</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="29"/>
+        <v>0.98078528040323043</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="7"/>
+        <v>-1.2901431646561434E-4</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="8"/>
+        <v>-1.3152455536646164E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
+      <c r="A62">
+        <v>79</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="9"/>
+        <v>7.7558068635498021</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="3"/>
+        <v>1.4726215563702159</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="4"/>
+        <v>24706489.937479287</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="5"/>
+        <v>24706490</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="10"/>
+        <v>610410648120100</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="11"/>
+        <v>36383310</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="12"/>
+        <v>247390135510500</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="13"/>
+        <v>14745601</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="6"/>
+        <v>527765586083350</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="14"/>
+        <v>31457280</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="25"/>
+        <v>16711679</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="16"/>
+        <v>279280214999041</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="17"/>
+        <v>16646398</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="26"/>
+        <v>16646398</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="27"/>
+        <v>-65281</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="20"/>
+        <v>-246427549594</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="21"/>
+        <v>-14688</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="28"/>
+        <v>16696991</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="23"/>
+        <v>0.99521821737289429</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="29"/>
+        <v>0.99518472667219693</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="7"/>
+        <v>-3.3490700697358378E-5</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="8"/>
+        <v>-3.3651615407286986E-5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
+      <c r="A63">
+        <v>80</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="9"/>
+        <v>7.8539816339744828</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="3"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="4"/>
+        <v>26353589.266644567</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="5"/>
+        <v>26353589</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="10"/>
+        <v>694511653180921</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="11"/>
+        <v>41396120</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="12"/>
+        <v>281474987746000</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="13"/>
+        <v>16777217</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="6"/>
+        <v>562949951368435</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="14"/>
+        <v>33554432</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="25"/>
+        <v>16777215</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="16"/>
+        <v>281474943156225</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="17"/>
+        <v>16777214</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="26"/>
+        <v>16777214</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="20"/>
+        <v>-3774874</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="28"/>
+        <v>16777215</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="23"/>
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="7"/>
+        <v>5.9604644775390625E-8</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="8"/>
+        <v>5.9604648328104516E-8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
+      <c r="A64">
+        <v>81</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="9"/>
+        <v>7.9521564043991635</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="3"/>
+        <v>1.6689710972195773</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="4"/>
+        <v>28000688.595809847</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="5"/>
+        <v>28000689</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="10"/>
+        <v>784038584474721</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="11"/>
+        <v>46732341</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="12"/>
+        <v>317758889246550</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="13"/>
+        <v>18939906</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="6"/>
+        <v>598134338014935</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="14"/>
+        <v>35651585</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="25"/>
+        <v>16711679</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="16"/>
+        <v>279280214999041</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="17"/>
+        <v>16646398</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="26"/>
+        <v>16646398</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="27"/>
+        <v>-65281</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="20"/>
+        <v>-246427549594</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="21"/>
+        <v>-14688</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="28"/>
+        <v>16696991</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="23"/>
+        <v>0.99521821737289429</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="29"/>
+        <v>0.99518472667219693</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="7"/>
+        <v>-3.3490700697358378E-5</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="8"/>
+        <v>-3.3651615407286986E-5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
+      <c r="A65">
+        <v>82</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="9"/>
+        <v>8.0503311748238442</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="3"/>
+        <v>1.767145867644258</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="4"/>
+        <v>29647787.924975127</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="5"/>
+        <v>29647788</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="10"/>
+        <v>878991333292944</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="11"/>
+        <v>52391966</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="12"/>
+        <v>356241792415300</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="13"/>
+        <v>21233665</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="6"/>
+        <v>633318703300020</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="14"/>
+        <v>37748736</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="25"/>
+        <v>16515071</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="16"/>
+        <v>272747570135041</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="17"/>
+        <v>16257022</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="26"/>
+        <v>16257022</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="27"/>
+        <v>-258049</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="20"/>
+        <v>-974102460826</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="21"/>
+        <v>-58061</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="28"/>
+        <v>16457010</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="23"/>
+        <v>0.98091423511505127</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="29"/>
+        <v>0.98078528040323054</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="7"/>
+        <v>-1.2895471182072793E-4</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="8"/>
+        <v>-1.314637989789218E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
+      <c r="A66">
+        <v>83</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="9"/>
+        <v>8.1485059452485267</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="3"/>
+        <v>1.8653206380689404</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="4"/>
+        <v>31294887.254140437</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="5"/>
+        <v>31294887</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="10"/>
+        <v>979369952342769</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="11"/>
+        <v>58374998</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="12"/>
+        <v>396923717650900</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="13"/>
+        <v>23658497</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="6"/>
+        <v>668503068585105</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="14"/>
+        <v>39845888</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="25"/>
+        <v>16187391</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="16"/>
+        <v>262031627386881</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="17"/>
+        <v>15618302</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="26"/>
+        <v>15618302</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="27"/>
+        <v>-569089</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="20"/>
+        <v>-2148239269786</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="21"/>
+        <v>-128045</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="28"/>
+        <v>16059346</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="23"/>
+        <v>0.95721161365509033</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="29"/>
+        <v>0.95694033573220871</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="7"/>
+        <v>-2.7127792288161867E-4</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="8"/>
+        <v>-2.8340433715147922E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
+      <c r="A67">
+        <v>84</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="9"/>
+        <v>8.2466807156732074</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="3"/>
+        <v>1.9634954084936211</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="4"/>
+        <v>32941986.583305717</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="5"/>
+        <v>32941987</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="10"/>
+        <v>1085174507508169</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="11"/>
+        <v>64681441</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="12"/>
+        <v>439804692151550</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="13"/>
+        <v>26214402</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="6"/>
+        <v>703687455231605</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="14"/>
+        <v>41943041</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="25"/>
+        <v>15728639</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="16"/>
+        <v>247390084792321</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="17"/>
+        <v>14745598</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="26"/>
+        <v>14745598</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="27"/>
+        <v>-983041</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="20"/>
+        <v>-3710855911834</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="21"/>
+        <v>-221184</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="28"/>
+        <v>15507455</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="23"/>
+        <v>0.92431634664535522</v>
+      </c>
+      <c r="U67">
+        <f t="shared" si="29"/>
+        <v>0.92387953251128663</v>
+      </c>
+      <c r="V67">
+        <f t="shared" si="7"/>
+        <v>-4.3681413406859715E-4</v>
+      </c>
+      <c r="W67">
+        <f t="shared" si="8"/>
+        <v>-4.7258077351324337E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
+      <c r="A68">
+        <v>85</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="9"/>
+        <v>8.3448554860978881</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="3"/>
+        <v>2.0616701789183018</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="4"/>
+        <v>34589085.912470996</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="5"/>
+        <v>34589086</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="10"/>
+        <v>1196404870315396</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="11"/>
+        <v>71311287</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="12"/>
+        <v>484884661520850</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="13"/>
+        <v>28901378</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="6"/>
+        <v>738871820516690</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="14"/>
+        <v>44040192</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="25"/>
+        <v>15138814</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="16"/>
+        <v>229183689326596</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="17"/>
+        <v>13660412</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="26"/>
+        <v>13660412</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="27"/>
+        <v>-1478402</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="20"/>
+        <v>-5580781271348</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="21"/>
+        <v>-332640</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="28"/>
+        <v>14806174</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="23"/>
+        <v>0.88251674175262451</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="29"/>
+        <v>0.88192126434835505</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="7"/>
+        <v>-5.9547740426946216E-4</v>
+      </c>
+      <c r="W68">
+        <f t="shared" si="8"/>
+        <v>-6.7474913063618523E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
+      <c r="A69">
+        <v>86</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="9"/>
+        <v>8.4430302565225688</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="3"/>
+        <v>2.1598449493429825</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="4"/>
+        <v>36236185.241636276</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="5"/>
+        <v>36236185</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="10"/>
+        <v>1313061103354225</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="11"/>
+        <v>78264541</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="12"/>
+        <v>532163659756550</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="13"/>
+        <v>31719426</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="6"/>
+        <v>774056185801775</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="14"/>
+        <v>46137344</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="25"/>
+        <v>14417918</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="16"/>
+        <v>207876359454724</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="17"/>
+        <v>12390397</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="26"/>
+        <v>12390397</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="27"/>
+        <v>-2027521</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="20"/>
+        <v>-7653636307354</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="21"/>
+        <v>-456192</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="28"/>
+        <v>13961726</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="23"/>
+        <v>0.83218371868133545</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="29"/>
+        <v>0.83146961230254546</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="7"/>
+        <v>-7.141063787899915E-4</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="8"/>
+        <v>-8.5811145154528212E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
+      <c r="A70">
+        <v>87</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="9"/>
+        <v>8.5412050269472495</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="3"/>
+        <v>2.2580197197676632</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="4"/>
+        <v>37883284.570801556</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="5"/>
+        <v>37883285</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="10"/>
+        <v>1435143282391225</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="11"/>
+        <v>85541206</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="12"/>
+        <v>581641707257300</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="13"/>
+        <v>34668547</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="6"/>
+        <v>809240572448275</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="14"/>
+        <v>48234497</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="25"/>
+        <v>13565950</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="16"/>
+        <v>184034999402500</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="17"/>
+        <v>10969341</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="26"/>
+        <v>10969341</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="27"/>
+        <v>-2596609</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="20"/>
+        <v>-9801871802266</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="21"/>
+        <v>-584237</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="28"/>
+        <v>12981713</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="23"/>
+        <v>0.77377039194107056</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="29"/>
+        <v>0.77301045336273733</v>
+      </c>
+      <c r="V70">
+        <f t="shared" si="7"/>
+        <v>-7.599385783332302E-4</v>
+      </c>
+      <c r="W70">
+        <f t="shared" si="8"/>
+        <v>-9.8212413688621245E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
+      <c r="A71">
+        <v>88</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="9"/>
+        <v>8.6393797973719302</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="3"/>
+        <v>2.3561944901923439</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="4"/>
+        <v>39530383.899966836</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="5"/>
+        <v>39530384</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="10"/>
+        <v>1562651259187456</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="11"/>
+        <v>93141273</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="12"/>
+        <v>633318742827150</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="13"/>
+        <v>37748739</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="6"/>
+        <v>844424937733360</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="14"/>
+        <v>50331648</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="25"/>
+        <v>12582909</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="16"/>
+        <v>158329598902281</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="17"/>
+        <v>9437180</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="26"/>
+        <v>9437180</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="27"/>
+        <v>-3145729</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="20"/>
+        <v>-11874730613146</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="21"/>
+        <v>-707789</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="28"/>
+        <v>11875120</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="23"/>
+        <v>0.70781230926513672</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="29"/>
+        <v>0.70710678118654824</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="7"/>
+        <v>-7.0552807858847988E-4</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="8"/>
+        <v>-9.9677282996246783E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
+      <c r="A72">
+        <v>89</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="9"/>
+        <v>8.7375545677966127</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="3"/>
+        <v>2.4543692606170264</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="4"/>
+        <v>41177483.229132146</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="5"/>
+        <v>41177483</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="10"/>
+        <v>1695585106215289</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="11"/>
+        <v>101064748</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="12"/>
+        <v>687194807263400</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="13"/>
+        <v>40960002</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="6"/>
+        <v>879609303018445</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="14"/>
+        <v>52428800</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="25"/>
+        <v>11468798</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="16"/>
+        <v>131533327564804</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="17"/>
+        <v>7839997</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="26"/>
+        <v>7839997</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="27"/>
+        <v>-3628801</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="20"/>
+        <v>-13698266546074</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="21"/>
+        <v>-816480</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="28"/>
+        <v>10652318</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="23"/>
+        <v>0.63492763042449951</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="29"/>
+        <v>0.63439328416364515</v>
+      </c>
+      <c r="V72">
+        <f t="shared" si="7"/>
+        <v>-5.3434626085435699E-4</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="8"/>
+        <v>-8.4158608831860749E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
+      <c r="A73">
+        <v>90</v>
+      </c>
+      <c r="B73">
+        <f>A73/32*PI()</f>
+        <v>8.8357293382212934</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="3"/>
+        <v>2.5525440310417071</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="4"/>
+        <v>42824582.558297426</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="5"/>
+        <v>42824583</v>
+      </c>
+      <c r="F73">
+        <f>E73*E73</f>
+        <v>1833944909123889</v>
+      </c>
+      <c r="G73">
+        <f>ROUND(F73/$B$3,0)</f>
+        <v>109311635</v>
+      </c>
+      <c r="H73">
+        <f>G73*$B$7</f>
+        <v>743269927764250</v>
+      </c>
+      <c r="I73">
+        <f>ROUND(H73/$B$3,0)</f>
+        <v>44302340</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="6"/>
+        <v>914793689664945</v>
+      </c>
+      <c r="K73">
+        <f>ROUND(J73/$B$3,0)</f>
+        <v>54525953</v>
+      </c>
+      <c r="L73">
+        <f>IF(E73&lt;0,K73+I73,K73-I73)</f>
+        <v>10223613</v>
+      </c>
+      <c r="M73">
+        <f>L73*L73</f>
+        <v>104522262773769</v>
+      </c>
+      <c r="N73">
+        <f>ROUND(M73/$B$3,0)</f>
+        <v>6230012</v>
+      </c>
+      <c r="O73">
+        <f>IF(L73&lt;0,0-N73,N73)</f>
+        <v>6230012</v>
+      </c>
+      <c r="P73">
+        <f>O73-L73</f>
+        <v>-3993601</v>
+      </c>
+      <c r="Q73">
+        <f>P73*$B$8</f>
+        <v>-15075340581274</v>
+      </c>
+      <c r="R73">
+        <f>ROUND(Q73/$B$3,0)</f>
+        <v>-898560</v>
+      </c>
+      <c r="S73">
+        <f>R73+L73</f>
+        <v>9325053</v>
+      </c>
+      <c r="T73">
+        <f>S73/$B$3</f>
+        <v>0.55581647157669067</v>
+      </c>
+      <c r="U73">
+        <f>SIN(C73)</f>
+        <v>0.55557023301960218</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="7"/>
+        <v>-2.4623855708849618E-4</v>
+      </c>
+      <c r="W73">
+        <f t="shared" si="8"/>
+        <v>-4.4302133830253099E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
+      <c r="A74">
+        <v>91</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="9"/>
+        <v>8.9339041086459741</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="3"/>
+        <v>2.6507188014663878</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="4"/>
+        <v>44471681.887462705</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="5"/>
+        <v>44471682</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="10"/>
+        <v>1977730499909124</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="11"/>
+        <v>117881924</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="12"/>
+        <v>801544036334200</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="13"/>
+        <v>47775748</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="6"/>
+        <v>949978054950030</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="14"/>
+        <v>56623105</v>
+      </c>
+      <c r="L74">
+        <f t="shared" ref="L74:L79" si="30">IF(E74&lt;0,K74+I74,K74-I74)</f>
+        <v>8847357</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="16"/>
+        <v>78275725885449</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="17"/>
+        <v>4665597</v>
+      </c>
+      <c r="O74">
+        <f t="shared" ref="O74:O79" si="31">IF(L74&lt;0,0-N74,N74)</f>
+        <v>4665597</v>
+      </c>
+      <c r="P74">
+        <f t="shared" ref="P74:P79" si="32">O74-L74</f>
+        <v>-4181760</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="20"/>
+        <v>-15785617098240</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="21"/>
+        <v>-940896</v>
+      </c>
+      <c r="S74">
+        <f t="shared" ref="S74:S79" si="33">R74+L74</f>
+        <v>7906461</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="23"/>
+        <v>0.47126179933547974</v>
+      </c>
+      <c r="U74">
+        <f t="shared" ref="U74:U79" si="34">SIN(C74)</f>
+        <v>0.47139673682599786</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="7"/>
+        <v>1.3493749051812776E-4</v>
+      </c>
+      <c r="W74">
+        <f t="shared" si="8"/>
+        <v>2.8633233312863761E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
+      <c r="A75">
+        <v>92</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="9"/>
+        <v>9.0320788790706548</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="3"/>
+        <v>2.7488935718910685</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="4"/>
+        <v>46118781.216627985</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="5"/>
+        <v>46118781</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="10"/>
+        <v>2126941960925961</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="11"/>
+        <v>126775620</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="12"/>
+        <v>862017166971000</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="13"/>
+        <v>51380227</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="6"/>
+        <v>985162420235115</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="14"/>
+        <v>58720256</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="30"/>
+        <v>7340029</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="16"/>
+        <v>53876025720841</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="17"/>
+        <v>3211261</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="31"/>
+        <v>3211261</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="32"/>
+        <v>-4128768</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="20"/>
+        <v>-15585578975232</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="21"/>
+        <v>-928973</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="33"/>
+        <v>6411056</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="23"/>
+        <v>0.38212871551513672</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="34"/>
+        <v>0.38268343236509028</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="7"/>
+        <v>5.5471684995356263E-4</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="8"/>
+        <v>1.4516492151231419E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
+      <c r="A76">
+        <v>93</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="9"/>
+        <v>9.1302536494953355</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="3"/>
+        <v>2.8470683423157492</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="4"/>
+        <v>47765880.545793265</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="5"/>
+        <v>47765881</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="10"/>
+        <v>2281579387706161</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="11"/>
+        <v>135992729</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="12"/>
+        <v>924689360471950</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="13"/>
+        <v>55115781</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="6"/>
+        <v>1020346806881615</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="14"/>
+        <v>60817409</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="30"/>
+        <v>5701628</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="16"/>
+        <v>32508561850384</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="17"/>
+        <v>1937661</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="31"/>
+        <v>1937661</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="32"/>
+        <v>-3763967</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="20"/>
+        <v>-14208501165158</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="21"/>
+        <v>-846893</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="33"/>
+        <v>4854735</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="23"/>
+        <v>0.28936475515365601</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="34"/>
+        <v>0.29028467725446322</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="7"/>
+        <v>9.1992210080721337E-4</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="8"/>
+        <v>3.1791090118031967E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
+      <c r="A77">
+        <v>94</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="9"/>
+        <v>9.2284284199200179</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="3"/>
+        <v>2.9452431127404317</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="4"/>
+        <v>49412979.874958575</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="5"/>
+        <v>49412980</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="10"/>
+        <v>2441642592480400</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="11"/>
+        <v>145533239</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="12"/>
+        <v>989560535242450</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="13"/>
+        <v>58982404</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="6"/>
+        <v>1055531172166700</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="14"/>
+        <v>62914561</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="30"/>
+        <v>3932157</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="16"/>
+        <v>15461858672649</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="17"/>
+        <v>921599</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="31"/>
+        <v>921599</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="32"/>
+        <v>-3010558</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="20"/>
+        <v>-11364477119692</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="21"/>
+        <v>-677376</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="33"/>
+        <v>3254781</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="23"/>
+        <v>0.19400006532669067</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="34"/>
+        <v>0.19509032201612772</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="7"/>
+        <v>1.0902566894370469E-3</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="8"/>
+        <v>5.6198779500464865E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
+      <c r="A78">
+        <v>95</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="9"/>
+        <v>9.3266031903446986</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="3"/>
+        <v>3.0434178831651124</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="4"/>
+        <v>51060079.204123855</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="5"/>
+        <v>51060079</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="10"/>
+        <v>2607131667486241</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="11"/>
+        <v>155397157</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="12"/>
+        <v>1056630738879350</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="13"/>
+        <v>62980100</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="6"/>
+        <v>1090715537451785</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="14"/>
+        <v>65011712</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="30"/>
+        <v>2031612</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="16"/>
+        <v>4127447318544</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="17"/>
+        <v>246015</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="31"/>
+        <v>246015</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="32"/>
+        <v>-1785597</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="20"/>
+        <v>-6740403689778</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="21"/>
+        <v>-401759</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="33"/>
+        <v>1629853</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="23"/>
+        <v>9.7146809101104736E-2</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="34"/>
+        <v>9.8017140329560395E-2</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="7"/>
+        <v>8.7033122845565913E-4</v>
+      </c>
+      <c r="W78">
+        <f t="shared" si="8"/>
+        <v>8.9589275912281292E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
+      <c r="A79">
+        <v>96</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="9"/>
+        <v>9.4247779607693793</v>
+      </c>
+      <c r="C79">
+        <f t="shared" ref="C79:C109" si="35">-2*PI()+B79</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ref="D79:D109" si="36">C79*$B$3</f>
+        <v>52707178.533289135</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ref="E79:E109" si="37">ROUND(D79,0)</f>
+        <v>52707179</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="10"/>
+        <v>2778046718138041</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="11"/>
+        <v>165584488</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="12"/>
+        <v>1125900005380400</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="13"/>
+        <v>67108870</v>
+      </c>
+      <c r="J79">
+        <f t="shared" ref="J79:J111" si="38">E79*$B$6</f>
+        <v>1125899924098285</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="14"/>
+        <v>67108865</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="30"/>
+        <v>-5</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="16"/>
+        <v>25</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="32"/>
+        <v>5</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="20"/>
+        <v>18874370</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="33"/>
+        <v>-4</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="23"/>
+        <v>-2.384185791015625E-7</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="34"/>
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="V79">
+        <f t="shared" ref="V79:V109" si="39">U79-T79</f>
+        <v>2.3841857922407735E-7</v>
+      </c>
+      <c r="W79">
+        <f t="shared" ref="W79:W109" si="40">V79/T79</f>
+        <v>-1.0000000005138645</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/doc/design/sincos_error.xlsx
+++ b/doc/design/sincos_error.xlsx
@@ -1498,11 +1498,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2110439224"/>
-        <c:axId val="2110442200"/>
+        <c:axId val="2142849320"/>
+        <c:axId val="2142852344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2110439224"/>
+        <c:axId val="2142849320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1512,7 +1512,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110442200"/>
+        <c:crossAx val="2142852344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1520,7 +1520,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2110442200"/>
+        <c:axId val="2142852344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1531,14 +1531,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110439224"/>
+        <c:crossAx val="2142849320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1790,199 +1789,199 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
                 <c:pt idx="0">
-                  <c:v>2.38418579101562E-7</c:v>
+                  <c:v>3.0517578125E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.0971468091011047</c:v>
+                  <c:v>-0.09710693359375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.194000065326691</c:v>
+                  <c:v>-0.1939697265625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.289364755153656</c:v>
+                  <c:v>-0.289337158203125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.382128715515137</c:v>
+                  <c:v>-0.382095336914062</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.47126179933548</c:v>
+                  <c:v>-0.471237182617187</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.555816471576691</c:v>
+                  <c:v>-0.5557861328125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.634927630424499</c:v>
+                  <c:v>-0.634918212890625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.707812309265137</c:v>
+                  <c:v>-0.707778930664062</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.77377039194107</c:v>
+                  <c:v>-0.77374267578125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.832183718681335</c:v>
+                  <c:v>-0.8321533203125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.882516741752624</c:v>
+                  <c:v>-0.882476806640625</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.924316346645355</c:v>
+                  <c:v>-0.924301147460937</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.95721161365509</c:v>
+                  <c:v>-0.957168579101562</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.980914235115051</c:v>
+                  <c:v>-0.98089599609375</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.995218217372894</c:v>
+                  <c:v>-0.995193481445312</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.999999940395355</c:v>
+                  <c:v>-0.999984741210937</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.995218217372894</c:v>
+                  <c:v>-0.995193481445312</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.980914294719696</c:v>
+                  <c:v>-0.98089599609375</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.957211673259735</c:v>
+                  <c:v>-0.957199096679687</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.924316346645355</c:v>
+                  <c:v>-0.924301147460937</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.882516860961914</c:v>
+                  <c:v>-0.882492065429687</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-0.832183837890625</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.773770451545715</c:v>
+                  <c:v>-0.773773193359375</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.707812488079071</c:v>
+                  <c:v>-0.707809448242187</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.634927749633789</c:v>
+                  <c:v>-0.634933471679687</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-0.555816650390625</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.471262037754059</c:v>
+                  <c:v>-0.471267700195312</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.382128894329071</c:v>
+                  <c:v>-0.382125854492187</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.289364993572235</c:v>
+                  <c:v>-0.28936767578125</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-0.194000244140625</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.097146987915039</c:v>
+                  <c:v>-0.0971527099609375</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.097146987915039</c:v>
+                  <c:v>0.0971527099609375</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.194000244140625</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.289364993572235</c:v>
+                  <c:v>0.28936767578125</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.382128894329071</c:v>
+                  <c:v>0.382125854492187</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.471262037754059</c:v>
+                  <c:v>0.471267700195312</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.555816650390625</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.634927749633789</c:v>
+                  <c:v>0.634933471679687</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.707812488079071</c:v>
+                  <c:v>0.707809448242187</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.773770451545715</c:v>
+                  <c:v>0.773773193359375</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.832183837890625</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.882516860961914</c:v>
+                  <c:v>0.882492065429687</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.924316346645355</c:v>
+                  <c:v>0.924301147460937</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.957211673259735</c:v>
+                  <c:v>0.957199096679687</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.980914294719696</c:v>
+                  <c:v>0.98089599609375</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.995218217372894</c:v>
+                  <c:v>0.995193481445312</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.999999940395355</c:v>
+                  <c:v>0.999984741210937</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.995218217372894</c:v>
+                  <c:v>0.995193481445312</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.980914235115051</c:v>
+                  <c:v>0.98089599609375</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.95721161365509</c:v>
+                  <c:v>0.957168579101562</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.924316346645355</c:v>
+                  <c:v>0.924301147460937</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.882516741752624</c:v>
+                  <c:v>0.882476806640625</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.832183718681335</c:v>
+                  <c:v>0.8321533203125</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.77377039194107</c:v>
+                  <c:v>0.77374267578125</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.707812309265137</c:v>
+                  <c:v>0.707778930664062</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.634927630424499</c:v>
+                  <c:v>0.634918212890625</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.555816471576691</c:v>
+                  <c:v>0.5557861328125</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.47126179933548</c:v>
+                  <c:v>0.471237182617187</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.382128715515137</c:v>
+                  <c:v>0.382095336914062</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.289364755153656</c:v>
+                  <c:v>0.289337158203125</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.194000065326691</c:v>
+                  <c:v>0.1939697265625</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.0971468091011047</c:v>
+                  <c:v>0.09710693359375</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-2.38418579101562E-7</c:v>
+                  <c:v>-3.0517578125E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2415,11 +2414,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2126714008"/>
-        <c:axId val="2126711016"/>
+        <c:axId val="2142020008"/>
+        <c:axId val="2142022984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2126714008"/>
+        <c:axId val="2142020008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2429,7 +2428,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126711016"/>
+        <c:crossAx val="2142022984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2437,7 +2436,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126711016"/>
+        <c:axId val="2142022984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2448,14 +2447,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126714008"/>
+        <c:crossAx val="2142020008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -66834,7 +66832,7 @@
   <dimension ref="A1:W79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -66851,7 +66849,7 @@
         <v>19</v>
       </c>
       <c r="B1">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -66859,7 +66857,7 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -66868,11 +66866,11 @@
       </c>
       <c r="B3">
         <f>2^B2</f>
-        <v>16777216</v>
+        <v>65536</v>
       </c>
       <c r="C3">
         <f>1/B3</f>
-        <v>5.9604644775390625E-8</v>
+        <v>1.52587890625E-5</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -66881,7 +66879,7 @@
       </c>
       <c r="B4">
         <f>B1-B2-1</f>
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -66890,11 +66888,11 @@
       </c>
       <c r="B5">
         <f>2^B4</f>
-        <v>8388608</v>
+        <v>524288</v>
       </c>
       <c r="C5">
         <f>B5^(1/3)</f>
-        <v>203.18733465192955</v>
+        <v>80.634947193271827</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -66903,7 +66901,7 @@
       </c>
       <c r="B6">
         <f>ROUND(A6*$B$3,0)</f>
-        <v>21361415</v>
+        <v>83443</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -66912,7 +66910,7 @@
       </c>
       <c r="B7">
         <f t="shared" ref="B7:B11" si="0">ROUND(A7*$B$3,0)</f>
-        <v>6799550</v>
+        <v>26561</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -66921,7 +66919,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>3774874</v>
+        <v>14746</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -66930,7 +66928,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>26353589</v>
+        <v>102944</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -66939,7 +66937,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>52707178</v>
+        <v>205887</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -66948,73 +66946,73 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>105414357</v>
+        <v>411775</v>
       </c>
       <c r="V11">
         <f>MIN(V15:V79)</f>
-        <v>-1.0902566894379351E-3</v>
+        <v>-1.1205954536286089E-3</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="F12">
         <f>LOG(F13)/LOG(2)</f>
-        <v>51.302992284494152</v>
+        <v>35.302986426904013</v>
       </c>
       <c r="G12">
         <f t="shared" ref="G12:W12" si="1">LOG(G13)/LOG(2)</f>
-        <v>27.302992286201352</v>
+        <v>19.302986919141855</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>50.000000126263409</v>
+        <v>34.000008762690989</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
-        <v>26.000000128986983</v>
+        <v>18.000011006847668</v>
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>50.000000022110896</v>
+        <v>33.999996620553745</v>
       </c>
       <c r="K12">
         <f t="shared" si="1"/>
-        <v>26.000000021497833</v>
+        <v>17.999994496544673</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>23.999999914008672</v>
+        <v>15.999977986052736</v>
       </c>
       <c r="M12">
         <f t="shared" si="1"/>
-        <v>47.999999828017344</v>
+        <v>31.999955972105472</v>
       </c>
       <c r="N12">
         <f t="shared" si="1"/>
-        <v>23.999999828017337</v>
+        <v>15.999955971769557</v>
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>23.999999828017337</v>
+        <v>15.999955971769557</v>
       </c>
       <c r="P12">
         <f t="shared" si="1"/>
-        <v>21.995678834325425</v>
+        <v>13.995678834325426</v>
       </c>
       <c r="Q12">
         <f t="shared" si="1"/>
-        <v>43.843675893753833</v>
+        <v>27.843714875957239</v>
       </c>
       <c r="R12">
         <f t="shared" si="1"/>
-        <v>19.843675740880375</v>
+        <v>11.843528534611089</v>
       </c>
       <c r="S12">
         <f t="shared" si="1"/>
-        <v>23.999999914008672</v>
+        <v>15.999977986052736</v>
       </c>
       <c r="T12">
         <f t="shared" si="1"/>
-        <v>-8.5991327994145617E-8</v>
+        <v>-2.2013947263955502E-5</v>
       </c>
       <c r="U12">
         <f t="shared" si="1"/>
@@ -67022,7 +67020,7 @@
       </c>
       <c r="V12">
         <f t="shared" si="1"/>
-        <v>-9.8411164423388335</v>
+        <v>-9.80151874013327</v>
       </c>
       <c r="W12" t="e">
         <f t="shared" si="1"/>
@@ -67032,63 +67030,63 @@
     <row r="13" spans="1:23">
       <c r="F13">
         <f t="shared" ref="F13:W13" si="2">MAX(F15:F1048576)</f>
-        <v>2778046718138041</v>
+        <v>42389456769</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>165584488</v>
+        <v>646812</v>
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>1125900005380400</v>
+        <v>17179973532</v>
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>67108870</v>
+        <v>262146</v>
       </c>
       <c r="J13">
         <f t="shared" si="2"/>
-        <v>1125899924098285</v>
+        <v>17179828941</v>
       </c>
       <c r="K13">
         <f t="shared" si="2"/>
-        <v>67108865</v>
+        <v>262143</v>
       </c>
       <c r="L13">
         <f t="shared" si="2"/>
-        <v>16777215</v>
+        <v>65535</v>
       </c>
       <c r="M13">
         <f t="shared" si="2"/>
-        <v>281474943156225</v>
+        <v>4294836225</v>
       </c>
       <c r="N13">
         <f t="shared" si="2"/>
-        <v>16777214</v>
+        <v>65534</v>
       </c>
       <c r="O13">
         <f t="shared" si="2"/>
-        <v>16777214</v>
+        <v>65534</v>
       </c>
       <c r="P13">
         <f t="shared" si="2"/>
-        <v>4181760</v>
+        <v>16335</v>
       </c>
       <c r="Q13">
         <f t="shared" si="2"/>
-        <v>15785617098240</v>
+        <v>240875910</v>
       </c>
       <c r="R13">
         <f t="shared" si="2"/>
-        <v>940896</v>
+        <v>3675</v>
       </c>
       <c r="S13">
         <f t="shared" si="2"/>
-        <v>16777215</v>
+        <v>65535</v>
       </c>
       <c r="T13">
         <f t="shared" si="2"/>
-        <v>0.99999994039535522</v>
+        <v>0.9999847412109375</v>
       </c>
       <c r="U13">
         <f t="shared" si="2"/>
@@ -67096,7 +67094,7 @@
       </c>
       <c r="V13">
         <f t="shared" si="2"/>
-        <v>1.0902566894370469E-3</v>
+        <v>1.1205954536277207E-3</v>
       </c>
       <c r="W13" t="e">
         <f t="shared" si="2"/>
@@ -67188,43 +67186,43 @@
       </c>
       <c r="D15">
         <f t="shared" ref="D15:D78" si="4">C15*$B$3</f>
-        <v>-52707178.533289135</v>
+        <v>-205887.41614566068</v>
       </c>
       <c r="E15">
         <f t="shared" ref="E15:E78" si="5">ROUND(D15,0)</f>
-        <v>-52707179</v>
+        <v>-205887</v>
       </c>
       <c r="F15">
         <f>E15*E15</f>
-        <v>2778046718138041</v>
+        <v>42389456769</v>
       </c>
       <c r="G15">
         <f>ROUND(F15/$B$3,0)</f>
-        <v>165584488</v>
+        <v>646812</v>
       </c>
       <c r="H15">
         <f>G15*$B$7</f>
-        <v>1125900005380400</v>
+        <v>17179973532</v>
       </c>
       <c r="I15">
         <f>ROUND(H15/$B$3,0)</f>
-        <v>67108870</v>
+        <v>262146</v>
       </c>
       <c r="J15">
         <f t="shared" ref="J15:J78" si="6">E15*$B$6</f>
-        <v>-1125899924098285</v>
+        <v>-17179828941</v>
       </c>
       <c r="K15">
         <f>ROUND(J15/$B$3,0)</f>
-        <v>-67108865</v>
+        <v>-262143</v>
       </c>
       <c r="L15">
         <f>IF(E15&lt;0,K15+I15,K15-I15)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M15">
         <f>L15*L15</f>
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="N15">
         <f>ROUND(M15/$B$3,0)</f>
@@ -67236,11 +67234,11 @@
       </c>
       <c r="P15">
         <f>O15-L15</f>
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="Q15">
         <f>P15*$B$8</f>
-        <v>-18874370</v>
+        <v>-44238</v>
       </c>
       <c r="R15">
         <f>ROUND(Q15/$B$3,0)</f>
@@ -67248,11 +67246,11 @@
       </c>
       <c r="S15">
         <f>R15+L15</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T15">
         <f>S15/$B$3</f>
-        <v>2.384185791015625E-7</v>
+        <v>3.0517578125E-5</v>
       </c>
       <c r="U15">
         <f>SIN(C15)</f>
@@ -67260,11 +67258,11 @@
       </c>
       <c r="V15">
         <f t="shared" ref="V15:V78" si="7">U15-T15</f>
-        <v>-2.3841857922407735E-7</v>
+        <v>-3.0517578125122515E-5</v>
       </c>
       <c r="W15">
         <f t="shared" ref="W15:W78" si="8">V15/T15</f>
-        <v>-1.0000000005138645</v>
+        <v>-1.0000000000040146</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -67281,71 +67279,71 @@
       </c>
       <c r="D16">
         <f t="shared" si="4"/>
-        <v>-51060079.204123847</v>
+        <v>-199453.43439110878</v>
       </c>
       <c r="E16">
         <f t="shared" si="5"/>
-        <v>-51060079</v>
+        <v>-199453</v>
       </c>
       <c r="F16">
         <f t="shared" ref="F16:F79" si="10">E16*E16</f>
-        <v>2607131667486241</v>
+        <v>39781499209</v>
       </c>
       <c r="G16">
         <f t="shared" ref="G16:G79" si="11">ROUND(F16/$B$3,0)</f>
-        <v>155397157</v>
+        <v>607018</v>
       </c>
       <c r="H16">
         <f t="shared" ref="H16:H79" si="12">G16*$B$7</f>
-        <v>1056630738879350</v>
+        <v>16123005098</v>
       </c>
       <c r="I16">
         <f t="shared" ref="I16:I79" si="13">ROUND(H16/$B$3,0)</f>
-        <v>62980100</v>
+        <v>246018</v>
       </c>
       <c r="J16">
         <f t="shared" si="6"/>
-        <v>-1090715537451785</v>
+        <v>-16642956679</v>
       </c>
       <c r="K16">
         <f t="shared" ref="K16:K79" si="14">ROUND(J16/$B$3,0)</f>
-        <v>-65011712</v>
+        <v>-253951</v>
       </c>
       <c r="L16">
         <f t="shared" ref="L16:L47" si="15">IF(E16&lt;0,K16+I16,K16-I16)</f>
-        <v>-2031612</v>
+        <v>-7933</v>
       </c>
       <c r="M16">
         <f t="shared" ref="M16:M79" si="16">L16*L16</f>
-        <v>4127447318544</v>
+        <v>62932489</v>
       </c>
       <c r="N16">
         <f t="shared" ref="N16:N79" si="17">ROUND(M16/$B$3,0)</f>
-        <v>246015</v>
+        <v>960</v>
       </c>
       <c r="O16">
         <f t="shared" ref="O16:O47" si="18">IF(L16&lt;0,0-N16,N16)</f>
-        <v>-246015</v>
+        <v>-960</v>
       </c>
       <c r="P16">
         <f t="shared" ref="P16:P47" si="19">O16-L16</f>
-        <v>1785597</v>
+        <v>6973</v>
       </c>
       <c r="Q16">
         <f t="shared" ref="Q16:Q79" si="20">P16*$B$8</f>
-        <v>6740403689778</v>
+        <v>102823858</v>
       </c>
       <c r="R16">
         <f t="shared" ref="R16:R79" si="21">ROUND(Q16/$B$3,0)</f>
-        <v>401759</v>
+        <v>1569</v>
       </c>
       <c r="S16">
         <f t="shared" ref="S16:S47" si="22">R16+L16</f>
-        <v>-1629853</v>
+        <v>-6364</v>
       </c>
       <c r="T16">
         <f t="shared" ref="T16:T79" si="23">S16/$B$3</f>
-        <v>-9.7146809101104736E-2</v>
+        <v>-9.710693359375E-2</v>
       </c>
       <c r="U16">
         <f t="shared" ref="U16:U47" si="24">SIN(C16)</f>
@@ -67353,11 +67351,11 @@
       </c>
       <c r="V16">
         <f t="shared" si="7"/>
-        <v>-8.7033122845608935E-4</v>
+        <v>-9.1020673581082567E-4</v>
       </c>
       <c r="W16">
         <f t="shared" si="8"/>
-        <v>8.9589275912325579E-3</v>
+        <v>9.3732414579035632E-3</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -67374,71 +67372,71 @@
       </c>
       <c r="D17">
         <f t="shared" si="4"/>
-        <v>-49412979.87495856</v>
+        <v>-193019.45263655687</v>
       </c>
       <c r="E17">
         <f t="shared" si="5"/>
-        <v>-49412980</v>
+        <v>-193019</v>
       </c>
       <c r="F17">
         <f t="shared" si="10"/>
-        <v>2441642592480400</v>
+        <v>37256334361</v>
       </c>
       <c r="G17">
         <f t="shared" si="11"/>
-        <v>145533239</v>
+        <v>568487</v>
       </c>
       <c r="H17">
         <f t="shared" si="12"/>
-        <v>989560535242450</v>
+        <v>15099583207</v>
       </c>
       <c r="I17">
         <f t="shared" si="13"/>
-        <v>58982404</v>
+        <v>230401</v>
       </c>
       <c r="J17">
         <f t="shared" si="6"/>
-        <v>-1055531172166700</v>
+        <v>-16106084417</v>
       </c>
       <c r="K17">
         <f t="shared" si="14"/>
-        <v>-62914561</v>
+        <v>-245759</v>
       </c>
       <c r="L17">
         <f t="shared" si="15"/>
-        <v>-3932157</v>
+        <v>-15358</v>
       </c>
       <c r="M17">
         <f t="shared" si="16"/>
-        <v>15461858672649</v>
+        <v>235868164</v>
       </c>
       <c r="N17">
         <f t="shared" si="17"/>
-        <v>921599</v>
+        <v>3599</v>
       </c>
       <c r="O17">
         <f t="shared" si="18"/>
-        <v>-921599</v>
+        <v>-3599</v>
       </c>
       <c r="P17">
         <f t="shared" si="19"/>
-        <v>3010558</v>
+        <v>11759</v>
       </c>
       <c r="Q17">
         <f t="shared" si="20"/>
-        <v>11364477119692</v>
+        <v>173398214</v>
       </c>
       <c r="R17">
         <f t="shared" si="21"/>
-        <v>677376</v>
+        <v>2646</v>
       </c>
       <c r="S17">
         <f t="shared" si="22"/>
-        <v>-3254781</v>
+        <v>-12712</v>
       </c>
       <c r="T17">
         <f t="shared" si="23"/>
-        <v>-0.19400006532669067</v>
+        <v>-0.1939697265625</v>
       </c>
       <c r="U17">
         <f t="shared" si="24"/>
@@ -67446,11 +67444,11 @@
       </c>
       <c r="V17">
         <f t="shared" si="7"/>
-        <v>-1.0902566894379351E-3</v>
+        <v>-1.1205954536286089E-3</v>
       </c>
       <c r="W17">
         <f t="shared" si="8"/>
-        <v>5.6198779500510653E-3</v>
+        <v>5.7771667439430862E-3</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -67467,71 +67465,71 @@
       </c>
       <c r="D18">
         <f t="shared" si="4"/>
-        <v>-47765880.54579328</v>
+        <v>-186585.470882005</v>
       </c>
       <c r="E18">
         <f t="shared" si="5"/>
-        <v>-47765881</v>
+        <v>-186585</v>
       </c>
       <c r="F18">
         <f t="shared" si="10"/>
-        <v>2281579387706161</v>
+        <v>34813962225</v>
       </c>
       <c r="G18">
         <f t="shared" si="11"/>
-        <v>135992729</v>
+        <v>531219</v>
       </c>
       <c r="H18">
         <f t="shared" si="12"/>
-        <v>924689360471950</v>
+        <v>14109707859</v>
       </c>
       <c r="I18">
         <f t="shared" si="13"/>
-        <v>55115781</v>
+        <v>215297</v>
       </c>
       <c r="J18">
         <f t="shared" si="6"/>
-        <v>-1020346806881615</v>
+        <v>-15569212155</v>
       </c>
       <c r="K18">
         <f t="shared" si="14"/>
-        <v>-60817409</v>
+        <v>-237567</v>
       </c>
       <c r="L18">
         <f t="shared" si="15"/>
-        <v>-5701628</v>
+        <v>-22270</v>
       </c>
       <c r="M18">
         <f t="shared" si="16"/>
-        <v>32508561850384</v>
+        <v>495952900</v>
       </c>
       <c r="N18">
         <f t="shared" si="17"/>
-        <v>1937661</v>
+        <v>7568</v>
       </c>
       <c r="O18">
         <f t="shared" si="18"/>
-        <v>-1937661</v>
+        <v>-7568</v>
       </c>
       <c r="P18">
         <f t="shared" si="19"/>
-        <v>3763967</v>
+        <v>14702</v>
       </c>
       <c r="Q18">
         <f t="shared" si="20"/>
-        <v>14208501165158</v>
+        <v>216795692</v>
       </c>
       <c r="R18">
         <f t="shared" si="21"/>
-        <v>846893</v>
+        <v>3308</v>
       </c>
       <c r="S18">
         <f t="shared" si="22"/>
-        <v>-4854735</v>
+        <v>-18962</v>
       </c>
       <c r="T18">
         <f t="shared" si="23"/>
-        <v>-0.28936475515365601</v>
+        <v>-0.289337158203125</v>
       </c>
       <c r="U18">
         <f t="shared" si="24"/>
@@ -67539,11 +67537,11 @@
       </c>
       <c r="V18">
         <f t="shared" si="7"/>
-        <v>-9.199221008063807E-4</v>
+        <v>-9.4751905133738656E-4</v>
       </c>
       <c r="W18">
         <f t="shared" si="8"/>
-        <v>3.1791090118003192E-3</v>
+        <v>3.2747921394603399E-3</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -67560,71 +67558,71 @@
       </c>
       <c r="D19">
         <f t="shared" si="4"/>
-        <v>-46118781.216627993</v>
+        <v>-180151.4891274531</v>
       </c>
       <c r="E19">
         <f t="shared" si="5"/>
-        <v>-46118781</v>
+        <v>-180151</v>
       </c>
       <c r="F19">
         <f t="shared" si="10"/>
-        <v>2126941960925961</v>
+        <v>32454382801</v>
       </c>
       <c r="G19">
         <f t="shared" si="11"/>
-        <v>126775620</v>
+        <v>495215</v>
       </c>
       <c r="H19">
         <f t="shared" si="12"/>
-        <v>862017166971000</v>
+        <v>13153405615</v>
       </c>
       <c r="I19">
         <f t="shared" si="13"/>
-        <v>51380227</v>
+        <v>200705</v>
       </c>
       <c r="J19">
         <f t="shared" si="6"/>
-        <v>-985162420235115</v>
+        <v>-15032339893</v>
       </c>
       <c r="K19">
         <f t="shared" si="14"/>
-        <v>-58720256</v>
+        <v>-229375</v>
       </c>
       <c r="L19">
         <f t="shared" si="15"/>
-        <v>-7340029</v>
+        <v>-28670</v>
       </c>
       <c r="M19">
         <f t="shared" si="16"/>
-        <v>53876025720841</v>
+        <v>821968900</v>
       </c>
       <c r="N19">
         <f t="shared" si="17"/>
-        <v>3211261</v>
+        <v>12542</v>
       </c>
       <c r="O19">
         <f t="shared" si="18"/>
-        <v>-3211261</v>
+        <v>-12542</v>
       </c>
       <c r="P19">
         <f t="shared" si="19"/>
-        <v>4128768</v>
+        <v>16128</v>
       </c>
       <c r="Q19">
         <f t="shared" si="20"/>
-        <v>15585578975232</v>
+        <v>237823488</v>
       </c>
       <c r="R19">
         <f t="shared" si="21"/>
-        <v>928973</v>
+        <v>3629</v>
       </c>
       <c r="S19">
         <f t="shared" si="22"/>
-        <v>-6411056</v>
+        <v>-25041</v>
       </c>
       <c r="T19">
         <f t="shared" si="23"/>
-        <v>-0.38212871551513672</v>
+        <v>-0.3820953369140625</v>
       </c>
       <c r="U19">
         <f t="shared" si="24"/>
@@ -67632,11 +67630,11 @@
       </c>
       <c r="V19">
         <f t="shared" si="7"/>
-        <v>-5.5471684995317405E-4</v>
+        <v>-5.880954510273928E-4</v>
       </c>
       <c r="W19">
         <f t="shared" si="8"/>
-        <v>1.4516492151221251E-3</v>
+        <v>1.5391327614125321E-3</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -67653,71 +67651,71 @@
       </c>
       <c r="D20">
         <f t="shared" si="4"/>
-        <v>-44471681.887462705</v>
+        <v>-173717.50737290119</v>
       </c>
       <c r="E20">
         <f t="shared" si="5"/>
-        <v>-44471682</v>
+        <v>-173718</v>
       </c>
       <c r="F20">
         <f t="shared" si="10"/>
-        <v>1977730499909124</v>
+        <v>30177943524</v>
       </c>
       <c r="G20">
         <f t="shared" si="11"/>
-        <v>117881924</v>
+        <v>460479</v>
       </c>
       <c r="H20">
         <f t="shared" si="12"/>
-        <v>801544036334200</v>
+        <v>12230782719</v>
       </c>
       <c r="I20">
         <f t="shared" si="13"/>
-        <v>47775748</v>
+        <v>186627</v>
       </c>
       <c r="J20">
         <f t="shared" si="6"/>
-        <v>-949978054950030</v>
+        <v>-14495551074</v>
       </c>
       <c r="K20">
         <f t="shared" si="14"/>
-        <v>-56623105</v>
+        <v>-221185</v>
       </c>
       <c r="L20">
         <f t="shared" si="15"/>
-        <v>-8847357</v>
+        <v>-34558</v>
       </c>
       <c r="M20">
         <f t="shared" si="16"/>
-        <v>78275725885449</v>
+        <v>1194255364</v>
       </c>
       <c r="N20">
         <f t="shared" si="17"/>
-        <v>4665597</v>
+        <v>18223</v>
       </c>
       <c r="O20">
         <f t="shared" si="18"/>
-        <v>-4665597</v>
+        <v>-18223</v>
       </c>
       <c r="P20">
         <f t="shared" si="19"/>
-        <v>4181760</v>
+        <v>16335</v>
       </c>
       <c r="Q20">
         <f t="shared" si="20"/>
-        <v>15785617098240</v>
+        <v>240875910</v>
       </c>
       <c r="R20">
         <f t="shared" si="21"/>
-        <v>940896</v>
+        <v>3675</v>
       </c>
       <c r="S20">
         <f t="shared" si="22"/>
-        <v>-7906461</v>
+        <v>-30883</v>
       </c>
       <c r="T20">
         <f t="shared" si="23"/>
-        <v>-0.47126179933547974</v>
+        <v>-0.4712371826171875</v>
       </c>
       <c r="U20">
         <f t="shared" si="24"/>
@@ -67725,11 +67723,11 @@
       </c>
       <c r="V20">
         <f t="shared" si="7"/>
-        <v>-1.3493749051812776E-4</v>
+        <v>-1.5955420881036408E-4</v>
       </c>
       <c r="W20">
         <f t="shared" si="8"/>
-        <v>2.8633233312863761E-4</v>
+        <v>3.3858577950963379E-4</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -67746,71 +67744,71 @@
       </c>
       <c r="D21">
         <f t="shared" si="4"/>
-        <v>-42824582.558297426</v>
+        <v>-167283.52561834932</v>
       </c>
       <c r="E21">
         <f t="shared" si="5"/>
-        <v>-42824583</v>
+        <v>-167284</v>
       </c>
       <c r="F21">
         <f t="shared" si="10"/>
-        <v>1833944909123889</v>
+        <v>27983936656</v>
       </c>
       <c r="G21">
         <f t="shared" si="11"/>
-        <v>109311635</v>
+        <v>427001</v>
       </c>
       <c r="H21">
         <f t="shared" si="12"/>
-        <v>743269927764250</v>
+        <v>11341573561</v>
       </c>
       <c r="I21">
         <f t="shared" si="13"/>
-        <v>44302340</v>
+        <v>173059</v>
       </c>
       <c r="J21">
         <f t="shared" si="6"/>
-        <v>-914793689664945</v>
+        <v>-13958678812</v>
       </c>
       <c r="K21">
         <f t="shared" si="14"/>
-        <v>-54525953</v>
+        <v>-212993</v>
       </c>
       <c r="L21">
         <f t="shared" si="15"/>
-        <v>-10223613</v>
+        <v>-39934</v>
       </c>
       <c r="M21">
         <f t="shared" si="16"/>
-        <v>104522262773769</v>
+        <v>1594724356</v>
       </c>
       <c r="N21">
         <f t="shared" si="17"/>
-        <v>6230012</v>
+        <v>24334</v>
       </c>
       <c r="O21">
         <f t="shared" si="18"/>
-        <v>-6230012</v>
+        <v>-24334</v>
       </c>
       <c r="P21">
         <f t="shared" si="19"/>
-        <v>3993601</v>
+        <v>15600</v>
       </c>
       <c r="Q21">
         <f t="shared" si="20"/>
-        <v>15075340581274</v>
+        <v>230037600</v>
       </c>
       <c r="R21">
         <f t="shared" si="21"/>
-        <v>898560</v>
+        <v>3510</v>
       </c>
       <c r="S21">
         <f t="shared" si="22"/>
-        <v>-9325053</v>
+        <v>-36424</v>
       </c>
       <c r="T21">
         <f t="shared" si="23"/>
-        <v>-0.55581647157669067</v>
+        <v>-0.5557861328125</v>
       </c>
       <c r="U21">
         <f t="shared" si="24"/>
@@ -67818,11 +67816,11 @@
       </c>
       <c r="V21">
         <f t="shared" si="7"/>
-        <v>2.4623855708849618E-4</v>
+        <v>2.1589979289782235E-4</v>
       </c>
       <c r="W21">
         <f t="shared" si="8"/>
-        <v>-4.4302133830253099E-4</v>
+        <v>-3.8845840180517474E-4</v>
       </c>
     </row>
     <row r="22" spans="1:23" s="2" customFormat="1">
@@ -67839,71 +67837,71 @@
       </c>
       <c r="D22" s="2">
         <f t="shared" si="4"/>
-        <v>-41177483.229132138</v>
+        <v>-160849.54386379741</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="5"/>
-        <v>-41177483</v>
+        <v>-160850</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="10"/>
-        <v>1695585106215289</v>
+        <v>25872722500</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="11"/>
-        <v>101064748</v>
+        <v>394786</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="12"/>
-        <v>687194807263400</v>
+        <v>10485910946</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" si="13"/>
-        <v>40960002</v>
+        <v>160002</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="6"/>
-        <v>-879609303018445</v>
+        <v>-13421806550</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="14"/>
-        <v>-52428800</v>
+        <v>-204801</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="15"/>
-        <v>-11468798</v>
+        <v>-44799</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="16"/>
-        <v>131533327564804</v>
+        <v>2006950401</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="17"/>
-        <v>7839997</v>
+        <v>30624</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="18"/>
-        <v>-7839997</v>
+        <v>-30624</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="19"/>
-        <v>3628801</v>
+        <v>14175</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="20"/>
-        <v>13698266546074</v>
+        <v>209024550</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="21"/>
-        <v>816480</v>
+        <v>3189</v>
       </c>
       <c r="S22" s="2">
         <f t="shared" si="22"/>
-        <v>-10652318</v>
+        <v>-41610</v>
       </c>
       <c r="T22" s="2">
         <f t="shared" si="23"/>
-        <v>-0.63492763042449951</v>
+        <v>-0.634918212890625</v>
       </c>
       <c r="U22" s="2">
         <f t="shared" si="24"/>
@@ -67911,11 +67909,11 @@
       </c>
       <c r="V22" s="2">
         <f t="shared" si="7"/>
-        <v>5.3434626085402392E-4</v>
+        <v>5.2492872697951221E-4</v>
       </c>
       <c r="W22" s="2">
         <f t="shared" si="8"/>
-        <v>-8.4158608831808284E-4</v>
+        <v>-8.2676589885434537E-4</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -67932,71 +67930,71 @@
       </c>
       <c r="D23">
         <f t="shared" si="4"/>
-        <v>-39530383.899966851</v>
+        <v>-154415.56210924551</v>
       </c>
       <c r="E23">
         <f t="shared" si="5"/>
-        <v>-39530384</v>
+        <v>-154416</v>
       </c>
       <c r="F23">
         <f t="shared" si="10"/>
-        <v>1562651259187456</v>
+        <v>23844301056</v>
       </c>
       <c r="G23">
         <f t="shared" si="11"/>
-        <v>93141273</v>
+        <v>363835</v>
       </c>
       <c r="H23">
         <f t="shared" si="12"/>
-        <v>633318742827150</v>
+        <v>9663821435</v>
       </c>
       <c r="I23">
         <f t="shared" si="13"/>
-        <v>37748739</v>
+        <v>147458</v>
       </c>
       <c r="J23">
         <f t="shared" si="6"/>
-        <v>-844424937733360</v>
+        <v>-12884934288</v>
       </c>
       <c r="K23">
         <f t="shared" si="14"/>
-        <v>-50331648</v>
+        <v>-196608</v>
       </c>
       <c r="L23">
         <f t="shared" si="15"/>
-        <v>-12582909</v>
+        <v>-49150</v>
       </c>
       <c r="M23">
         <f t="shared" si="16"/>
-        <v>158329598902281</v>
+        <v>2415722500</v>
       </c>
       <c r="N23">
         <f t="shared" si="17"/>
-        <v>9437180</v>
+        <v>36861</v>
       </c>
       <c r="O23">
         <f t="shared" si="18"/>
-        <v>-9437180</v>
+        <v>-36861</v>
       </c>
       <c r="P23">
         <f t="shared" si="19"/>
-        <v>3145729</v>
+        <v>12289</v>
       </c>
       <c r="Q23">
         <f t="shared" si="20"/>
-        <v>11874730613146</v>
+        <v>181213594</v>
       </c>
       <c r="R23">
         <f t="shared" si="21"/>
-        <v>707789</v>
+        <v>2765</v>
       </c>
       <c r="S23">
         <f t="shared" si="22"/>
-        <v>-11875120</v>
+        <v>-46385</v>
       </c>
       <c r="T23">
         <f t="shared" si="23"/>
-        <v>-0.70781230926513672</v>
+        <v>-0.7077789306640625</v>
       </c>
       <c r="U23">
         <f t="shared" si="24"/>
@@ -68004,11 +68002,11 @@
       </c>
       <c r="V23">
         <f t="shared" si="7"/>
-        <v>7.0552807858914601E-4</v>
+        <v>6.7214947751492726E-4</v>
       </c>
       <c r="W23">
         <f t="shared" si="8"/>
-        <v>-9.9677282996340913E-4</v>
+        <v>-9.4966019528766349E-4</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -68025,71 +68023,71 @@
       </c>
       <c r="D24">
         <f t="shared" si="4"/>
-        <v>-37883284.570801571</v>
+        <v>-147981.58035469364</v>
       </c>
       <c r="E24">
         <f t="shared" si="5"/>
-        <v>-37883285</v>
+        <v>-147982</v>
       </c>
       <c r="F24">
         <f t="shared" si="10"/>
-        <v>1435143282391225</v>
+        <v>21898672324</v>
       </c>
       <c r="G24">
         <f t="shared" si="11"/>
-        <v>85541206</v>
+        <v>334147</v>
       </c>
       <c r="H24">
         <f t="shared" si="12"/>
-        <v>581641707257300</v>
+        <v>8875278467</v>
       </c>
       <c r="I24">
         <f t="shared" si="13"/>
-        <v>34668547</v>
+        <v>135426</v>
       </c>
       <c r="J24">
         <f t="shared" si="6"/>
-        <v>-809240572448275</v>
+        <v>-12348062026</v>
       </c>
       <c r="K24">
         <f t="shared" si="14"/>
-        <v>-48234497</v>
+        <v>-188416</v>
       </c>
       <c r="L24">
         <f t="shared" si="15"/>
-        <v>-13565950</v>
+        <v>-52990</v>
       </c>
       <c r="M24">
         <f t="shared" si="16"/>
-        <v>184034999402500</v>
+        <v>2807940100</v>
       </c>
       <c r="N24">
         <f t="shared" si="17"/>
-        <v>10969341</v>
+        <v>42846</v>
       </c>
       <c r="O24">
         <f t="shared" si="18"/>
-        <v>-10969341</v>
+        <v>-42846</v>
       </c>
       <c r="P24">
         <f t="shared" si="19"/>
-        <v>2596609</v>
+        <v>10144</v>
       </c>
       <c r="Q24">
         <f t="shared" si="20"/>
-        <v>9801871802266</v>
+        <v>149583424</v>
       </c>
       <c r="R24">
         <f t="shared" si="21"/>
-        <v>584237</v>
+        <v>2282</v>
       </c>
       <c r="S24">
         <f t="shared" si="22"/>
-        <v>-12981713</v>
+        <v>-50708</v>
       </c>
       <c r="T24">
         <f t="shared" si="23"/>
-        <v>-0.77377039194107056</v>
+        <v>-0.77374267578125</v>
       </c>
       <c r="U24">
         <f t="shared" si="24"/>
@@ -68097,11 +68095,11 @@
       </c>
       <c r="V24">
         <f t="shared" si="7"/>
-        <v>7.5993857833378531E-4</v>
+        <v>7.3222241851322867E-4</v>
       </c>
       <c r="W24">
         <f t="shared" si="8"/>
-        <v>-9.8212413688692976E-4</v>
+        <v>-9.4633841641719165E-4</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -68118,71 +68116,71 @@
       </c>
       <c r="D25">
         <f t="shared" si="4"/>
-        <v>-36236185.241636276</v>
+        <v>-141547.5986001417</v>
       </c>
       <c r="E25">
         <f t="shared" si="5"/>
-        <v>-36236185</v>
+        <v>-141548</v>
       </c>
       <c r="F25">
         <f t="shared" si="10"/>
-        <v>1313061103354225</v>
+        <v>20035836304</v>
       </c>
       <c r="G25">
         <f t="shared" si="11"/>
-        <v>78264541</v>
+        <v>305723</v>
       </c>
       <c r="H25">
         <f t="shared" si="12"/>
-        <v>532163659756550</v>
+        <v>8120308603</v>
       </c>
       <c r="I25">
         <f t="shared" si="13"/>
-        <v>31719426</v>
+        <v>123906</v>
       </c>
       <c r="J25">
         <f t="shared" si="6"/>
-        <v>-774056185801775</v>
+        <v>-11811189764</v>
       </c>
       <c r="K25">
         <f t="shared" si="14"/>
-        <v>-46137344</v>
+        <v>-180224</v>
       </c>
       <c r="L25">
         <f t="shared" si="15"/>
-        <v>-14417918</v>
+        <v>-56318</v>
       </c>
       <c r="M25">
         <f t="shared" si="16"/>
-        <v>207876359454724</v>
+        <v>3171717124</v>
       </c>
       <c r="N25">
         <f t="shared" si="17"/>
-        <v>12390397</v>
+        <v>48397</v>
       </c>
       <c r="O25">
         <f t="shared" si="18"/>
-        <v>-12390397</v>
+        <v>-48397</v>
       </c>
       <c r="P25">
         <f t="shared" si="19"/>
-        <v>2027521</v>
+        <v>7921</v>
       </c>
       <c r="Q25">
         <f t="shared" si="20"/>
-        <v>7653636307354</v>
+        <v>116803066</v>
       </c>
       <c r="R25">
         <f t="shared" si="21"/>
-        <v>456192</v>
+        <v>1782</v>
       </c>
       <c r="S25">
         <f t="shared" si="22"/>
-        <v>-13961726</v>
+        <v>-54536</v>
       </c>
       <c r="T25">
         <f t="shared" si="23"/>
-        <v>-0.83218371868133545</v>
+        <v>-0.8321533203125</v>
       </c>
       <c r="U25">
         <f t="shared" si="24"/>
@@ -68190,11 +68188,11 @@
       </c>
       <c r="V25">
         <f t="shared" si="7"/>
-        <v>7.141063787899915E-4</v>
+        <v>6.8370800995454228E-4</v>
       </c>
       <c r="W25">
         <f t="shared" si="8"/>
-        <v>-8.5811145154528212E-4</v>
+        <v>-8.2161302883198043E-4</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -68211,71 +68209,71 @@
       </c>
       <c r="D26">
         <f t="shared" si="4"/>
-        <v>-34589085.912470996</v>
+        <v>-135113.61684558983</v>
       </c>
       <c r="E26">
         <f t="shared" si="5"/>
-        <v>-34589086</v>
+        <v>-135114</v>
       </c>
       <c r="F26">
         <f t="shared" si="10"/>
-        <v>1196404870315396</v>
+        <v>18255792996</v>
       </c>
       <c r="G26">
         <f t="shared" si="11"/>
-        <v>71311287</v>
+        <v>278561</v>
       </c>
       <c r="H26">
         <f t="shared" si="12"/>
-        <v>484884661520850</v>
+        <v>7398858721</v>
       </c>
       <c r="I26">
         <f t="shared" si="13"/>
-        <v>28901378</v>
+        <v>112898</v>
       </c>
       <c r="J26">
         <f t="shared" si="6"/>
-        <v>-738871820516690</v>
+        <v>-11274317502</v>
       </c>
       <c r="K26">
         <f t="shared" si="14"/>
-        <v>-44040192</v>
+        <v>-172032</v>
       </c>
       <c r="L26">
         <f t="shared" si="15"/>
-        <v>-15138814</v>
+        <v>-59134</v>
       </c>
       <c r="M26">
         <f t="shared" si="16"/>
-        <v>229183689326596</v>
+        <v>3496829956</v>
       </c>
       <c r="N26">
         <f t="shared" si="17"/>
-        <v>13660412</v>
+        <v>53357</v>
       </c>
       <c r="O26">
         <f t="shared" si="18"/>
-        <v>-13660412</v>
+        <v>-53357</v>
       </c>
       <c r="P26">
         <f t="shared" si="19"/>
-        <v>1478402</v>
+        <v>5777</v>
       </c>
       <c r="Q26">
         <f t="shared" si="20"/>
-        <v>5580781271348</v>
+        <v>85187642</v>
       </c>
       <c r="R26">
         <f t="shared" si="21"/>
-        <v>332640</v>
+        <v>1300</v>
       </c>
       <c r="S26">
         <f t="shared" si="22"/>
-        <v>-14806174</v>
+        <v>-57834</v>
       </c>
       <c r="T26">
         <f t="shared" si="23"/>
-        <v>-0.88251674175262451</v>
+        <v>-0.882476806640625</v>
       </c>
       <c r="U26">
         <f t="shared" si="24"/>
@@ -68283,11 +68281,11 @@
       </c>
       <c r="V26">
         <f t="shared" si="7"/>
-        <v>5.9547740426946216E-4</v>
+        <v>5.5554229226995044E-4</v>
       </c>
       <c r="W26">
         <f t="shared" si="8"/>
-        <v>-6.7474913063618523E-4</v>
+        <v>-6.2952622447355318E-4</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -68304,71 +68302,71 @@
       </c>
       <c r="D27">
         <f t="shared" si="4"/>
-        <v>-32941986.583305717</v>
+        <v>-128679.63509103796</v>
       </c>
       <c r="E27">
         <f t="shared" si="5"/>
-        <v>-32941987</v>
+        <v>-128680</v>
       </c>
       <c r="F27">
         <f t="shared" si="10"/>
-        <v>1085174507508169</v>
+        <v>16558542400</v>
       </c>
       <c r="G27">
         <f t="shared" si="11"/>
-        <v>64681441</v>
+        <v>252663</v>
       </c>
       <c r="H27">
         <f t="shared" si="12"/>
-        <v>439804692151550</v>
+        <v>6710981943</v>
       </c>
       <c r="I27">
         <f t="shared" si="13"/>
-        <v>26214402</v>
+        <v>102401</v>
       </c>
       <c r="J27">
         <f t="shared" si="6"/>
-        <v>-703687455231605</v>
+        <v>-10737445240</v>
       </c>
       <c r="K27">
         <f t="shared" si="14"/>
-        <v>-41943041</v>
+        <v>-163840</v>
       </c>
       <c r="L27">
         <f t="shared" si="15"/>
-        <v>-15728639</v>
+        <v>-61439</v>
       </c>
       <c r="M27">
         <f t="shared" si="16"/>
-        <v>247390084792321</v>
+        <v>3774750721</v>
       </c>
       <c r="N27">
         <f t="shared" si="17"/>
-        <v>14745598</v>
+        <v>57598</v>
       </c>
       <c r="O27">
         <f t="shared" si="18"/>
-        <v>-14745598</v>
+        <v>-57598</v>
       </c>
       <c r="P27">
         <f t="shared" si="19"/>
-        <v>983041</v>
+        <v>3841</v>
       </c>
       <c r="Q27">
         <f t="shared" si="20"/>
-        <v>3710855911834</v>
+        <v>56639386</v>
       </c>
       <c r="R27">
         <f t="shared" si="21"/>
-        <v>221184</v>
+        <v>864</v>
       </c>
       <c r="S27">
         <f t="shared" si="22"/>
-        <v>-15507455</v>
+        <v>-60575</v>
       </c>
       <c r="T27">
         <f t="shared" si="23"/>
-        <v>-0.92431634664535522</v>
+        <v>-0.9243011474609375</v>
       </c>
       <c r="U27">
         <f t="shared" si="24"/>
@@ -68376,11 +68374,11 @@
       </c>
       <c r="V27">
         <f t="shared" si="7"/>
-        <v>4.3681413406859715E-4</v>
+        <v>4.2161494965087254E-4</v>
       </c>
       <c r="W27">
         <f t="shared" si="8"/>
-        <v>-4.7258077351324337E-4</v>
+        <v>-4.5614457020750444E-4</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -68397,71 +68395,71 @@
       </c>
       <c r="D28">
         <f t="shared" si="4"/>
-        <v>-31294887.254140422</v>
+        <v>-122245.65333648602</v>
       </c>
       <c r="E28">
         <f t="shared" si="5"/>
-        <v>-31294887</v>
+        <v>-122246</v>
       </c>
       <c r="F28">
         <f t="shared" si="10"/>
-        <v>979369952342769</v>
+        <v>14944084516</v>
       </c>
       <c r="G28">
         <f t="shared" si="11"/>
-        <v>58374998</v>
+        <v>228029</v>
       </c>
       <c r="H28">
         <f t="shared" si="12"/>
-        <v>396923717650900</v>
+        <v>6056678269</v>
       </c>
       <c r="I28">
         <f t="shared" si="13"/>
-        <v>23658497</v>
+        <v>92418</v>
       </c>
       <c r="J28">
         <f t="shared" si="6"/>
-        <v>-668503068585105</v>
+        <v>-10200572978</v>
       </c>
       <c r="K28">
         <f t="shared" si="14"/>
-        <v>-39845888</v>
+        <v>-155648</v>
       </c>
       <c r="L28">
         <f t="shared" si="15"/>
-        <v>-16187391</v>
+        <v>-63230</v>
       </c>
       <c r="M28">
         <f t="shared" si="16"/>
-        <v>262031627386881</v>
+        <v>3998032900</v>
       </c>
       <c r="N28">
         <f t="shared" si="17"/>
-        <v>15618302</v>
+        <v>61005</v>
       </c>
       <c r="O28">
         <f t="shared" si="18"/>
-        <v>-15618302</v>
+        <v>-61005</v>
       </c>
       <c r="P28">
         <f t="shared" si="19"/>
-        <v>569089</v>
+        <v>2225</v>
       </c>
       <c r="Q28">
         <f t="shared" si="20"/>
-        <v>2148239269786</v>
+        <v>32809850</v>
       </c>
       <c r="R28">
         <f t="shared" si="21"/>
-        <v>128045</v>
+        <v>501</v>
       </c>
       <c r="S28">
         <f t="shared" si="22"/>
-        <v>-16059346</v>
+        <v>-62729</v>
       </c>
       <c r="T28">
         <f t="shared" si="23"/>
-        <v>-0.95721161365509033</v>
+        <v>-0.9571685791015625</v>
       </c>
       <c r="U28">
         <f t="shared" si="24"/>
@@ -68469,11 +68467,11 @@
       </c>
       <c r="V28">
         <f t="shared" si="7"/>
-        <v>2.7127792288139663E-4</v>
+        <v>2.282433693535646E-4</v>
       </c>
       <c r="W28">
         <f t="shared" si="8"/>
-        <v>-2.8340433715124725E-4</v>
+        <v>-2.384568134986244E-4</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -68490,71 +68488,71 @@
       </c>
       <c r="D29">
         <f t="shared" si="4"/>
-        <v>-29647787.924975142</v>
+        <v>-115811.67158193415</v>
       </c>
       <c r="E29">
         <f t="shared" si="5"/>
-        <v>-29647788</v>
+        <v>-115812</v>
       </c>
       <c r="F29">
         <f t="shared" si="10"/>
-        <v>878991333292944</v>
+        <v>13412419344</v>
       </c>
       <c r="G29">
         <f t="shared" si="11"/>
-        <v>52391966</v>
+        <v>204657</v>
       </c>
       <c r="H29">
         <f t="shared" si="12"/>
-        <v>356241792415300</v>
+        <v>5435894577</v>
       </c>
       <c r="I29">
         <f t="shared" si="13"/>
-        <v>21233665</v>
+        <v>82945</v>
       </c>
       <c r="J29">
         <f t="shared" si="6"/>
-        <v>-633318703300020</v>
+        <v>-9663700716</v>
       </c>
       <c r="K29">
         <f t="shared" si="14"/>
-        <v>-37748736</v>
+        <v>-147456</v>
       </c>
       <c r="L29">
         <f t="shared" si="15"/>
-        <v>-16515071</v>
+        <v>-64511</v>
       </c>
       <c r="M29">
         <f t="shared" si="16"/>
-        <v>272747570135041</v>
+        <v>4161669121</v>
       </c>
       <c r="N29">
         <f t="shared" si="17"/>
-        <v>16257022</v>
+        <v>63502</v>
       </c>
       <c r="O29">
         <f t="shared" si="18"/>
-        <v>-16257022</v>
+        <v>-63502</v>
       </c>
       <c r="P29">
         <f t="shared" si="19"/>
-        <v>258049</v>
+        <v>1009</v>
       </c>
       <c r="Q29">
         <f t="shared" si="20"/>
-        <v>974102460826</v>
+        <v>14878714</v>
       </c>
       <c r="R29">
         <f t="shared" si="21"/>
-        <v>58061</v>
+        <v>227</v>
       </c>
       <c r="S29">
         <f t="shared" si="22"/>
-        <v>-16457010</v>
+        <v>-64284</v>
       </c>
       <c r="T29">
         <f t="shared" si="23"/>
-        <v>-0.98091423511505127</v>
+        <v>-0.98089599609375</v>
       </c>
       <c r="U29">
         <f t="shared" si="24"/>
@@ -68562,11 +68560,11 @@
       </c>
       <c r="V29">
         <f t="shared" si="7"/>
-        <v>1.2895471182083895E-4</v>
+        <v>1.1071569051956942E-4</v>
       </c>
       <c r="W29">
         <f t="shared" si="8"/>
-        <v>-1.3146379897903499E-4</v>
+        <v>-1.1287199760267721E-4</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -68583,71 +68581,71 @@
       </c>
       <c r="D30">
         <f t="shared" si="4"/>
-        <v>-28000688.595809847</v>
+        <v>-109377.68982738222</v>
       </c>
       <c r="E30">
         <f t="shared" si="5"/>
-        <v>-28000689</v>
+        <v>-109378</v>
       </c>
       <c r="F30">
         <f t="shared" si="10"/>
-        <v>784038584474721</v>
+        <v>11963546884</v>
       </c>
       <c r="G30">
         <f t="shared" si="11"/>
-        <v>46732341</v>
+        <v>182549</v>
       </c>
       <c r="H30">
         <f t="shared" si="12"/>
-        <v>317758889246550</v>
+        <v>4848683989</v>
       </c>
       <c r="I30">
         <f t="shared" si="13"/>
-        <v>18939906</v>
+        <v>73985</v>
       </c>
       <c r="J30">
         <f t="shared" si="6"/>
-        <v>-598134338014935</v>
+        <v>-9126828454</v>
       </c>
       <c r="K30">
         <f t="shared" si="14"/>
-        <v>-35651585</v>
+        <v>-139264</v>
       </c>
       <c r="L30">
         <f t="shared" si="15"/>
-        <v>-16711679</v>
+        <v>-65279</v>
       </c>
       <c r="M30">
         <f t="shared" si="16"/>
-        <v>279280214999041</v>
+        <v>4261347841</v>
       </c>
       <c r="N30">
         <f t="shared" si="17"/>
-        <v>16646398</v>
+        <v>65023</v>
       </c>
       <c r="O30">
         <f t="shared" si="18"/>
-        <v>-16646398</v>
+        <v>-65023</v>
       </c>
       <c r="P30">
         <f t="shared" si="19"/>
-        <v>65281</v>
+        <v>256</v>
       </c>
       <c r="Q30">
         <f t="shared" si="20"/>
-        <v>246427549594</v>
+        <v>3774976</v>
       </c>
       <c r="R30">
         <f t="shared" si="21"/>
-        <v>14688</v>
+        <v>58</v>
       </c>
       <c r="S30">
         <f t="shared" si="22"/>
-        <v>-16696991</v>
+        <v>-65221</v>
       </c>
       <c r="T30">
         <f t="shared" si="23"/>
-        <v>-0.99521821737289429</v>
+        <v>-0.9951934814453125</v>
       </c>
       <c r="U30">
         <f t="shared" si="24"/>
@@ -68655,11 +68653,11 @@
       </c>
       <c r="V30">
         <f t="shared" si="7"/>
-        <v>3.3490700697358378E-5</v>
+        <v>8.7547731155712682E-6</v>
       </c>
       <c r="W30">
         <f t="shared" si="8"/>
-        <v>-3.3651615407286986E-5</v>
+        <v>-8.7970563300482756E-6</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -68676,51 +68674,51 @@
       </c>
       <c r="D31">
         <f t="shared" si="4"/>
-        <v>-26353589.266644567</v>
+        <v>-102943.70807283034</v>
       </c>
       <c r="E31">
         <f t="shared" si="5"/>
-        <v>-26353589</v>
+        <v>-102944</v>
       </c>
       <c r="F31">
         <f t="shared" si="10"/>
-        <v>694511653180921</v>
+        <v>10597467136</v>
       </c>
       <c r="G31">
         <f t="shared" si="11"/>
-        <v>41396120</v>
+        <v>161705</v>
       </c>
       <c r="H31">
         <f t="shared" si="12"/>
-        <v>281474987746000</v>
+        <v>4295046505</v>
       </c>
       <c r="I31">
         <f t="shared" si="13"/>
-        <v>16777217</v>
+        <v>65537</v>
       </c>
       <c r="J31">
         <f t="shared" si="6"/>
-        <v>-562949951368435</v>
+        <v>-8589956192</v>
       </c>
       <c r="K31">
         <f t="shared" si="14"/>
-        <v>-33554432</v>
+        <v>-131072</v>
       </c>
       <c r="L31">
         <f t="shared" si="15"/>
-        <v>-16777215</v>
+        <v>-65535</v>
       </c>
       <c r="M31">
         <f t="shared" si="16"/>
-        <v>281474943156225</v>
+        <v>4294836225</v>
       </c>
       <c r="N31">
         <f t="shared" si="17"/>
-        <v>16777214</v>
+        <v>65534</v>
       </c>
       <c r="O31">
         <f t="shared" si="18"/>
-        <v>-16777214</v>
+        <v>-65534</v>
       </c>
       <c r="P31">
         <f t="shared" si="19"/>
@@ -68728,7 +68726,7 @@
       </c>
       <c r="Q31">
         <f t="shared" si="20"/>
-        <v>3774874</v>
+        <v>14746</v>
       </c>
       <c r="R31">
         <f t="shared" si="21"/>
@@ -68736,11 +68734,11 @@
       </c>
       <c r="S31">
         <f t="shared" si="22"/>
-        <v>-16777215</v>
+        <v>-65535</v>
       </c>
       <c r="T31">
         <f t="shared" si="23"/>
-        <v>-0.99999994039535522</v>
+        <v>-0.9999847412109375</v>
       </c>
       <c r="U31">
         <f t="shared" si="24"/>
@@ -68748,11 +68746,11 @@
       </c>
       <c r="V31">
         <f t="shared" si="7"/>
-        <v>-5.9604644775390625E-8</v>
+        <v>-1.52587890625E-5</v>
       </c>
       <c r="W31">
         <f t="shared" si="8"/>
-        <v>5.9604648328104516E-8</v>
+        <v>1.5259021896696422E-5</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -68769,71 +68767,71 @@
       </c>
       <c r="D32">
         <f t="shared" si="4"/>
-        <v>-24706489.937479287</v>
+        <v>-96509.726318278466</v>
       </c>
       <c r="E32">
         <f t="shared" si="5"/>
-        <v>-24706490</v>
+        <v>-96510</v>
       </c>
       <c r="F32">
         <f t="shared" si="10"/>
-        <v>610410648120100</v>
+        <v>9314180100</v>
       </c>
       <c r="G32">
         <f t="shared" si="11"/>
-        <v>36383310</v>
+        <v>142123</v>
       </c>
       <c r="H32">
         <f t="shared" si="12"/>
-        <v>247390135510500</v>
+        <v>3774929003</v>
       </c>
       <c r="I32">
         <f t="shared" si="13"/>
-        <v>14745601</v>
+        <v>57601</v>
       </c>
       <c r="J32">
         <f t="shared" si="6"/>
-        <v>-527765586083350</v>
+        <v>-8053083930</v>
       </c>
       <c r="K32">
         <f t="shared" si="14"/>
-        <v>-31457280</v>
+        <v>-122880</v>
       </c>
       <c r="L32">
         <f t="shared" si="15"/>
-        <v>-16711679</v>
+        <v>-65279</v>
       </c>
       <c r="M32">
         <f t="shared" si="16"/>
-        <v>279280214999041</v>
+        <v>4261347841</v>
       </c>
       <c r="N32">
         <f t="shared" si="17"/>
-        <v>16646398</v>
+        <v>65023</v>
       </c>
       <c r="O32">
         <f t="shared" si="18"/>
-        <v>-16646398</v>
+        <v>-65023</v>
       </c>
       <c r="P32">
         <f t="shared" si="19"/>
-        <v>65281</v>
+        <v>256</v>
       </c>
       <c r="Q32">
         <f t="shared" si="20"/>
-        <v>246427549594</v>
+        <v>3774976</v>
       </c>
       <c r="R32">
         <f t="shared" si="21"/>
-        <v>14688</v>
+        <v>58</v>
       </c>
       <c r="S32">
         <f t="shared" si="22"/>
-        <v>-16696991</v>
+        <v>-65221</v>
       </c>
       <c r="T32">
         <f t="shared" si="23"/>
-        <v>-0.99521821737289429</v>
+        <v>-0.9951934814453125</v>
       </c>
       <c r="U32">
         <f t="shared" si="24"/>
@@ -68841,11 +68839,11 @@
       </c>
       <c r="V32">
         <f t="shared" si="7"/>
-        <v>3.3490700697358378E-5</v>
+        <v>8.7547731155712682E-6</v>
       </c>
       <c r="W32">
         <f t="shared" si="8"/>
-        <v>-3.3651615407286986E-5</v>
+        <v>-8.7970563300482756E-6</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -68862,71 +68860,71 @@
       </c>
       <c r="D33">
         <f t="shared" si="4"/>
-        <v>-23059390.608313993</v>
+        <v>-90075.744563726534</v>
       </c>
       <c r="E33">
         <f t="shared" si="5"/>
-        <v>-23059391</v>
+        <v>-90076</v>
       </c>
       <c r="F33">
         <f t="shared" si="10"/>
-        <v>531735513290881</v>
+        <v>8113685776</v>
       </c>
       <c r="G33">
         <f t="shared" si="11"/>
-        <v>31693906</v>
+        <v>123805</v>
       </c>
       <c r="H33">
         <f t="shared" si="12"/>
-        <v>215504298542300</v>
+        <v>3288384605</v>
       </c>
       <c r="I33">
         <f t="shared" si="13"/>
-        <v>12845057</v>
+        <v>50177</v>
       </c>
       <c r="J33">
         <f t="shared" si="6"/>
-        <v>-492581220798265</v>
+        <v>-7516211668</v>
       </c>
       <c r="K33">
         <f t="shared" si="14"/>
-        <v>-29360129</v>
+        <v>-114688</v>
       </c>
       <c r="L33">
         <f t="shared" si="15"/>
-        <v>-16515072</v>
+        <v>-64511</v>
       </c>
       <c r="M33">
         <f t="shared" si="16"/>
-        <v>272747603165184</v>
+        <v>4161669121</v>
       </c>
       <c r="N33">
         <f t="shared" si="17"/>
-        <v>16257024</v>
+        <v>63502</v>
       </c>
       <c r="O33">
         <f t="shared" si="18"/>
-        <v>-16257024</v>
+        <v>-63502</v>
       </c>
       <c r="P33">
         <f t="shared" si="19"/>
-        <v>258048</v>
+        <v>1009</v>
       </c>
       <c r="Q33">
         <f t="shared" si="20"/>
-        <v>974098685952</v>
+        <v>14878714</v>
       </c>
       <c r="R33">
         <f t="shared" si="21"/>
-        <v>58061</v>
+        <v>227</v>
       </c>
       <c r="S33">
         <f t="shared" si="22"/>
-        <v>-16457011</v>
+        <v>-64284</v>
       </c>
       <c r="T33">
         <f t="shared" si="23"/>
-        <v>-0.98091429471969604</v>
+        <v>-0.98089599609375</v>
       </c>
       <c r="U33">
         <f t="shared" si="24"/>
@@ -68934,11 +68932,11 @@
       </c>
       <c r="V33">
         <f t="shared" si="7"/>
-        <v>1.2901431646561434E-4</v>
+        <v>1.1071569051956942E-4</v>
       </c>
       <c r="W33">
         <f t="shared" si="8"/>
-        <v>-1.3152455536646164E-4</v>
+        <v>-1.1287199760267721E-4</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -68955,71 +68953,71 @@
       </c>
       <c r="D34">
         <f t="shared" si="4"/>
-        <v>-21412291.279148713</v>
+        <v>-83641.762809174659</v>
       </c>
       <c r="E34">
         <f t="shared" si="5"/>
-        <v>-21412291</v>
+        <v>-83642</v>
       </c>
       <c r="F34">
         <f t="shared" si="10"/>
-        <v>458486205868681</v>
+        <v>6995984164</v>
       </c>
       <c r="G34">
         <f t="shared" si="11"/>
-        <v>27327907</v>
+        <v>106750</v>
       </c>
       <c r="H34">
         <f t="shared" si="12"/>
-        <v>185817470041850</v>
+        <v>2835386750</v>
       </c>
       <c r="I34">
         <f t="shared" si="13"/>
-        <v>11075584</v>
+        <v>43265</v>
       </c>
       <c r="J34">
         <f t="shared" si="6"/>
-        <v>-457396834151765</v>
+        <v>-6979339406</v>
       </c>
       <c r="K34">
         <f t="shared" si="14"/>
-        <v>-27262976</v>
+        <v>-106496</v>
       </c>
       <c r="L34">
         <f t="shared" si="15"/>
-        <v>-16187392</v>
+        <v>-63231</v>
       </c>
       <c r="M34">
         <f t="shared" si="16"/>
-        <v>262031659761664</v>
+        <v>3998159361</v>
       </c>
       <c r="N34">
         <f t="shared" si="17"/>
-        <v>15618304</v>
+        <v>61007</v>
       </c>
       <c r="O34">
         <f t="shared" si="18"/>
-        <v>-15618304</v>
+        <v>-61007</v>
       </c>
       <c r="P34">
         <f t="shared" si="19"/>
-        <v>569088</v>
+        <v>2224</v>
       </c>
       <c r="Q34">
         <f t="shared" si="20"/>
-        <v>2148235494912</v>
+        <v>32795104</v>
       </c>
       <c r="R34">
         <f t="shared" si="21"/>
-        <v>128045</v>
+        <v>500</v>
       </c>
       <c r="S34">
         <f t="shared" si="22"/>
-        <v>-16059347</v>
+        <v>-62731</v>
       </c>
       <c r="T34">
         <f t="shared" si="23"/>
-        <v>-0.95721167325973511</v>
+        <v>-0.9571990966796875</v>
       </c>
       <c r="U34">
         <f t="shared" si="24"/>
@@ -69027,11 +69025,11 @@
       </c>
       <c r="V34">
         <f t="shared" si="7"/>
-        <v>2.7133752752617202E-4</v>
+        <v>2.587609474785646E-4</v>
       </c>
       <c r="W34">
         <f t="shared" si="8"/>
-        <v>-2.8346658853641645E-4</v>
+        <v>-2.7033137450311982E-4</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -69048,71 +69046,71 @@
       </c>
       <c r="D35">
         <f t="shared" si="4"/>
-        <v>-19765191.949983418</v>
+        <v>-77207.781054622727</v>
       </c>
       <c r="E35">
         <f t="shared" si="5"/>
-        <v>-19765192</v>
+        <v>-77208</v>
       </c>
       <c r="F35">
         <f t="shared" si="10"/>
-        <v>390662814796864</v>
+        <v>5961075264</v>
       </c>
       <c r="G35">
         <f t="shared" si="11"/>
-        <v>23285318</v>
+        <v>90959</v>
       </c>
       <c r="H35">
         <f t="shared" si="12"/>
-        <v>158329684006900</v>
+        <v>2415961999</v>
       </c>
       <c r="I35">
         <f t="shared" si="13"/>
-        <v>9437185</v>
+        <v>36865</v>
       </c>
       <c r="J35">
         <f t="shared" si="6"/>
-        <v>-422212468866680</v>
+        <v>-6442467144</v>
       </c>
       <c r="K35">
         <f t="shared" si="14"/>
-        <v>-25165824</v>
+        <v>-98304</v>
       </c>
       <c r="L35">
         <f t="shared" si="15"/>
-        <v>-15728639</v>
+        <v>-61439</v>
       </c>
       <c r="M35">
         <f t="shared" si="16"/>
-        <v>247390084792321</v>
+        <v>3774750721</v>
       </c>
       <c r="N35">
         <f t="shared" si="17"/>
-        <v>14745598</v>
+        <v>57598</v>
       </c>
       <c r="O35">
         <f t="shared" si="18"/>
-        <v>-14745598</v>
+        <v>-57598</v>
       </c>
       <c r="P35">
         <f t="shared" si="19"/>
-        <v>983041</v>
+        <v>3841</v>
       </c>
       <c r="Q35">
         <f t="shared" si="20"/>
-        <v>3710855911834</v>
+        <v>56639386</v>
       </c>
       <c r="R35">
         <f t="shared" si="21"/>
-        <v>221184</v>
+        <v>864</v>
       </c>
       <c r="S35">
         <f t="shared" si="22"/>
-        <v>-15507455</v>
+        <v>-60575</v>
       </c>
       <c r="T35">
         <f t="shared" si="23"/>
-        <v>-0.92431634664535522</v>
+        <v>-0.9243011474609375</v>
       </c>
       <c r="U35">
         <f t="shared" si="24"/>
@@ -69120,11 +69118,11 @@
       </c>
       <c r="V35">
         <f t="shared" si="7"/>
-        <v>4.3681413406870817E-4</v>
+        <v>4.2161494965098356E-4</v>
       </c>
       <c r="W35">
         <f t="shared" si="8"/>
-        <v>-4.7258077351336345E-4</v>
+        <v>-4.5614457020762457E-4</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -69141,71 +69139,71 @@
       </c>
       <c r="D36">
         <f t="shared" si="4"/>
-        <v>-18118092.620818138</v>
+        <v>-70773.799300070852</v>
       </c>
       <c r="E36">
         <f t="shared" si="5"/>
-        <v>-18118093</v>
+        <v>-70774</v>
       </c>
       <c r="F36">
         <f t="shared" si="10"/>
-        <v>328265293956649</v>
+        <v>5008959076</v>
       </c>
       <c r="G36">
         <f t="shared" si="11"/>
-        <v>19566136</v>
+        <v>76431</v>
       </c>
       <c r="H36">
         <f t="shared" si="12"/>
-        <v>133040920038800</v>
+        <v>2030083791</v>
       </c>
       <c r="I36">
         <f t="shared" si="13"/>
-        <v>7929857</v>
+        <v>30977</v>
       </c>
       <c r="J36">
         <f t="shared" si="6"/>
-        <v>-387028103581595</v>
+        <v>-5905594882</v>
       </c>
       <c r="K36">
         <f t="shared" si="14"/>
-        <v>-23068673</v>
+        <v>-90112</v>
       </c>
       <c r="L36">
         <f t="shared" si="15"/>
-        <v>-15138816</v>
+        <v>-59135</v>
       </c>
       <c r="M36">
         <f t="shared" si="16"/>
-        <v>229183749881856</v>
+        <v>3496948225</v>
       </c>
       <c r="N36">
         <f t="shared" si="17"/>
-        <v>13660416</v>
+        <v>53359</v>
       </c>
       <c r="O36">
         <f t="shared" si="18"/>
-        <v>-13660416</v>
+        <v>-53359</v>
       </c>
       <c r="P36">
         <f t="shared" si="19"/>
-        <v>1478400</v>
+        <v>5776</v>
       </c>
       <c r="Q36">
         <f t="shared" si="20"/>
-        <v>5580773721600</v>
+        <v>85172896</v>
       </c>
       <c r="R36">
         <f t="shared" si="21"/>
-        <v>332640</v>
+        <v>1300</v>
       </c>
       <c r="S36">
         <f t="shared" si="22"/>
-        <v>-14806176</v>
+        <v>-57835</v>
       </c>
       <c r="T36">
         <f t="shared" si="23"/>
-        <v>-0.88251686096191406</v>
+        <v>-0.8824920654296875</v>
       </c>
       <c r="U36">
         <f t="shared" si="24"/>
@@ -69213,11 +69211,11 @@
       </c>
       <c r="V36">
         <f t="shared" si="7"/>
-        <v>5.9559661355912397E-4</v>
+        <v>5.7080108133256147E-4</v>
       </c>
       <c r="W36">
         <f t="shared" si="8"/>
-        <v>-6.7488411825916098E-4</v>
+        <v>-6.4680590760284864E-4</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -69234,67 +69232,67 @@
       </c>
       <c r="D37">
         <f t="shared" si="4"/>
-        <v>-16470993.291652858</v>
+        <v>-64339.817545518978</v>
       </c>
       <c r="E37">
         <f t="shared" si="5"/>
-        <v>-16470993</v>
+        <v>-64340</v>
       </c>
       <c r="F37">
         <f t="shared" si="10"/>
-        <v>271293610406049</v>
+        <v>4139635600</v>
       </c>
       <c r="G37">
         <f t="shared" si="11"/>
-        <v>16170359</v>
+        <v>63166</v>
       </c>
       <c r="H37">
         <f t="shared" si="12"/>
-        <v>109951164538450</v>
+        <v>1677752126</v>
       </c>
       <c r="I37">
         <f t="shared" si="13"/>
-        <v>6553600</v>
+        <v>25600</v>
       </c>
       <c r="J37">
         <f t="shared" si="6"/>
-        <v>-351843716935095</v>
+        <v>-5368722620</v>
       </c>
       <c r="K37">
         <f t="shared" si="14"/>
-        <v>-20971520</v>
+        <v>-81920</v>
       </c>
       <c r="L37">
         <f t="shared" si="15"/>
-        <v>-14417920</v>
+        <v>-56320</v>
       </c>
       <c r="M37">
         <f t="shared" si="16"/>
-        <v>207876417126400</v>
+        <v>3171942400</v>
       </c>
       <c r="N37">
         <f t="shared" si="17"/>
-        <v>12390400</v>
+        <v>48400</v>
       </c>
       <c r="O37">
         <f t="shared" si="18"/>
-        <v>-12390400</v>
+        <v>-48400</v>
       </c>
       <c r="P37">
         <f t="shared" si="19"/>
-        <v>2027520</v>
+        <v>7920</v>
       </c>
       <c r="Q37">
         <f t="shared" si="20"/>
-        <v>7653632532480</v>
+        <v>116788320</v>
       </c>
       <c r="R37">
         <f t="shared" si="21"/>
-        <v>456192</v>
+        <v>1782</v>
       </c>
       <c r="S37">
         <f t="shared" si="22"/>
-        <v>-13961728</v>
+        <v>-54538</v>
       </c>
       <c r="T37">
         <f t="shared" si="23"/>
@@ -69327,71 +69325,71 @@
       </c>
       <c r="D38">
         <f t="shared" si="4"/>
-        <v>-14823893.962487563</v>
+        <v>-57905.835790967045</v>
       </c>
       <c r="E38">
         <f t="shared" si="5"/>
-        <v>-14823894</v>
+        <v>-57906</v>
       </c>
       <c r="F38">
         <f t="shared" si="10"/>
-        <v>219747833323236</v>
+        <v>3353104836</v>
       </c>
       <c r="G38">
         <f t="shared" si="11"/>
-        <v>13097992</v>
+        <v>51164</v>
       </c>
       <c r="H38">
         <f t="shared" si="12"/>
-        <v>89060451503600</v>
+        <v>1358967004</v>
       </c>
       <c r="I38">
         <f t="shared" si="13"/>
-        <v>5308417</v>
+        <v>20736</v>
       </c>
       <c r="J38">
         <f t="shared" si="6"/>
-        <v>-316659351650010</v>
+        <v>-4831850358</v>
       </c>
       <c r="K38">
         <f t="shared" si="14"/>
-        <v>-18874368</v>
+        <v>-73728</v>
       </c>
       <c r="L38">
         <f t="shared" si="15"/>
-        <v>-13565951</v>
+        <v>-52992</v>
       </c>
       <c r="M38">
         <f t="shared" si="16"/>
-        <v>184035026534401</v>
+        <v>2808152064</v>
       </c>
       <c r="N38">
         <f t="shared" si="17"/>
-        <v>10969342</v>
+        <v>42849</v>
       </c>
       <c r="O38">
         <f t="shared" si="18"/>
-        <v>-10969342</v>
+        <v>-42849</v>
       </c>
       <c r="P38">
         <f t="shared" si="19"/>
-        <v>2596609</v>
+        <v>10143</v>
       </c>
       <c r="Q38">
         <f t="shared" si="20"/>
-        <v>9801871802266</v>
+        <v>149568678</v>
       </c>
       <c r="R38">
         <f t="shared" si="21"/>
-        <v>584237</v>
+        <v>2282</v>
       </c>
       <c r="S38">
         <f t="shared" si="22"/>
-        <v>-12981714</v>
+        <v>-50710</v>
       </c>
       <c r="T38">
         <f t="shared" si="23"/>
-        <v>-0.77377045154571533</v>
+        <v>-0.773773193359375</v>
       </c>
       <c r="U38">
         <f t="shared" si="24"/>
@@ -69399,11 +69397,11 @@
       </c>
       <c r="V38">
         <f t="shared" si="7"/>
-        <v>7.599981829785607E-4</v>
+        <v>7.6273999663822867E-4</v>
       </c>
       <c r="W38">
         <f t="shared" si="8"/>
-        <v>-9.8220109266302096E-4</v>
+        <v>-9.8574104554689313E-4</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -69420,71 +69418,71 @@
       </c>
       <c r="D39">
         <f t="shared" si="4"/>
-        <v>-13176794.633322284</v>
+        <v>-51471.85403641517</v>
       </c>
       <c r="E39">
         <f t="shared" si="5"/>
-        <v>-13176795</v>
+        <v>-51472</v>
       </c>
       <c r="F39">
         <f t="shared" si="10"/>
-        <v>173627926472025</v>
+        <v>2649366784</v>
       </c>
       <c r="G39">
         <f t="shared" si="11"/>
-        <v>10349031</v>
+        <v>40426</v>
       </c>
       <c r="H39">
         <f t="shared" si="12"/>
-        <v>70368753736050</v>
+        <v>1073754986</v>
       </c>
       <c r="I39">
         <f t="shared" si="13"/>
-        <v>4194305</v>
+        <v>16384</v>
       </c>
       <c r="J39">
         <f t="shared" si="6"/>
-        <v>-281474986364925</v>
+        <v>-4294978096</v>
       </c>
       <c r="K39">
         <f t="shared" si="14"/>
-        <v>-16777217</v>
+        <v>-65536</v>
       </c>
       <c r="L39">
         <f t="shared" si="15"/>
-        <v>-12582912</v>
+        <v>-49152</v>
       </c>
       <c r="M39">
         <f t="shared" si="16"/>
-        <v>158329674399744</v>
+        <v>2415919104</v>
       </c>
       <c r="N39">
         <f t="shared" si="17"/>
-        <v>9437184</v>
+        <v>36864</v>
       </c>
       <c r="O39">
         <f t="shared" si="18"/>
-        <v>-9437184</v>
+        <v>-36864</v>
       </c>
       <c r="P39">
         <f t="shared" si="19"/>
-        <v>3145728</v>
+        <v>12288</v>
       </c>
       <c r="Q39">
         <f t="shared" si="20"/>
-        <v>11874726838272</v>
+        <v>181198848</v>
       </c>
       <c r="R39">
         <f t="shared" si="21"/>
-        <v>707789</v>
+        <v>2765</v>
       </c>
       <c r="S39">
         <f t="shared" si="22"/>
-        <v>-11875123</v>
+        <v>-46387</v>
       </c>
       <c r="T39">
         <f t="shared" si="23"/>
-        <v>-0.70781248807907104</v>
+        <v>-0.7078094482421875</v>
       </c>
       <c r="U39">
         <f t="shared" si="24"/>
@@ -69492,11 +69490,11 @@
       </c>
       <c r="V39">
         <f t="shared" si="7"/>
-        <v>7.0570689252358321E-4</v>
+        <v>7.0266705564003828E-4</v>
       </c>
       <c r="W39">
         <f t="shared" si="8"/>
-        <v>-9.9702520711212337E-4</v>
+        <v>-9.9273477824445532E-4</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -69513,71 +69511,71 @@
       </c>
       <c r="D40">
         <f t="shared" si="4"/>
-        <v>-11529695.304157004</v>
+        <v>-45037.872281863296</v>
       </c>
       <c r="E40">
         <f t="shared" si="5"/>
-        <v>-11529695</v>
+        <v>-45038</v>
       </c>
       <c r="F40">
         <f t="shared" si="10"/>
-        <v>132933866793025</v>
+        <v>2028421444</v>
       </c>
       <c r="G40">
         <f t="shared" si="11"/>
-        <v>7923476</v>
+        <v>30951</v>
       </c>
       <c r="H40">
         <f t="shared" si="12"/>
-        <v>53876071235800</v>
+        <v>822089511</v>
       </c>
       <c r="I40">
         <f t="shared" si="13"/>
-        <v>3211264</v>
+        <v>12544</v>
       </c>
       <c r="J40">
         <f t="shared" si="6"/>
-        <v>-246290599718425</v>
+        <v>-3758105834</v>
       </c>
       <c r="K40">
         <f t="shared" si="14"/>
-        <v>-14680064</v>
+        <v>-57344</v>
       </c>
       <c r="L40">
         <f t="shared" si="15"/>
-        <v>-11468800</v>
+        <v>-44800</v>
       </c>
       <c r="M40">
         <f t="shared" si="16"/>
-        <v>131533373440000</v>
+        <v>2007040000</v>
       </c>
       <c r="N40">
         <f t="shared" si="17"/>
-        <v>7840000</v>
+        <v>30625</v>
       </c>
       <c r="O40">
         <f t="shared" si="18"/>
-        <v>-7840000</v>
+        <v>-30625</v>
       </c>
       <c r="P40">
         <f t="shared" si="19"/>
-        <v>3628800</v>
+        <v>14175</v>
       </c>
       <c r="Q40">
         <f t="shared" si="20"/>
-        <v>13698262771200</v>
+        <v>209024550</v>
       </c>
       <c r="R40">
         <f t="shared" si="21"/>
-        <v>816480</v>
+        <v>3189</v>
       </c>
       <c r="S40">
         <f t="shared" si="22"/>
-        <v>-10652320</v>
+        <v>-41611</v>
       </c>
       <c r="T40">
         <f t="shared" si="23"/>
-        <v>-0.63492774963378906</v>
+        <v>-0.6349334716796875</v>
       </c>
       <c r="U40">
         <f t="shared" si="24"/>
@@ -69585,11 +69583,11 @@
       </c>
       <c r="V40">
         <f t="shared" si="7"/>
-        <v>5.3446547014335266E-4</v>
+        <v>5.4018751604179016E-4</v>
       </c>
       <c r="W40">
         <f t="shared" si="8"/>
-        <v>-8.4177368283496726E-4</v>
+        <v>-8.5077813682234887E-4</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -69606,67 +69604,67 @@
       </c>
       <c r="D41">
         <f t="shared" si="4"/>
-        <v>-9882595.974991709</v>
+        <v>-38603.890527311363</v>
       </c>
       <c r="E41">
         <f t="shared" si="5"/>
-        <v>-9882596</v>
+        <v>-38604</v>
       </c>
       <c r="F41">
         <f t="shared" si="10"/>
-        <v>97665703699216</v>
+        <v>1490268816</v>
       </c>
       <c r="G41">
         <f t="shared" si="11"/>
-        <v>5821330</v>
+        <v>22740</v>
       </c>
       <c r="H41">
         <f t="shared" si="12"/>
-        <v>39582424401500</v>
+        <v>603997140</v>
       </c>
       <c r="I41">
         <f t="shared" si="13"/>
-        <v>2359296</v>
+        <v>9216</v>
       </c>
       <c r="J41">
         <f t="shared" si="6"/>
-        <v>-211106234433340</v>
+        <v>-3221233572</v>
       </c>
       <c r="K41">
         <f t="shared" si="14"/>
-        <v>-12582912</v>
+        <v>-49152</v>
       </c>
       <c r="L41">
         <f t="shared" si="15"/>
-        <v>-10223616</v>
+        <v>-39936</v>
       </c>
       <c r="M41">
         <f t="shared" si="16"/>
-        <v>104522324115456</v>
+        <v>1594884096</v>
       </c>
       <c r="N41">
         <f t="shared" si="17"/>
-        <v>6230016</v>
+        <v>24336</v>
       </c>
       <c r="O41">
         <f t="shared" si="18"/>
-        <v>-6230016</v>
+        <v>-24336</v>
       </c>
       <c r="P41">
         <f t="shared" si="19"/>
-        <v>3993600</v>
+        <v>15600</v>
       </c>
       <c r="Q41">
         <f t="shared" si="20"/>
-        <v>15075336806400</v>
+        <v>230037600</v>
       </c>
       <c r="R41">
         <f t="shared" si="21"/>
-        <v>898560</v>
+        <v>3510</v>
       </c>
       <c r="S41">
         <f t="shared" si="22"/>
-        <v>-9325056</v>
+        <v>-36426</v>
       </c>
       <c r="T41">
         <f t="shared" si="23"/>
@@ -69699,71 +69697,71 @@
       </c>
       <c r="D42">
         <f t="shared" si="4"/>
-        <v>-8235496.6458264291</v>
+        <v>-32169.908772759489</v>
       </c>
       <c r="E42">
         <f t="shared" si="5"/>
-        <v>-8235497</v>
+        <v>-32170</v>
       </c>
       <c r="F42">
         <f t="shared" si="10"/>
-        <v>67823410837009</v>
+        <v>1034908900</v>
       </c>
       <c r="G42">
         <f t="shared" si="11"/>
-        <v>4042590</v>
+        <v>15791</v>
       </c>
       <c r="H42">
         <f t="shared" si="12"/>
-        <v>27487792834500</v>
+        <v>419424751</v>
       </c>
       <c r="I42">
         <f t="shared" si="13"/>
-        <v>1638400</v>
+        <v>6400</v>
       </c>
       <c r="J42">
         <f t="shared" si="6"/>
-        <v>-175921869148255</v>
+        <v>-2684361310</v>
       </c>
       <c r="K42">
         <f t="shared" si="14"/>
-        <v>-10485761</v>
+        <v>-40960</v>
       </c>
       <c r="L42">
         <f t="shared" si="15"/>
-        <v>-8847361</v>
+        <v>-34560</v>
       </c>
       <c r="M42">
         <f t="shared" si="16"/>
-        <v>78275796664321</v>
+        <v>1194393600</v>
       </c>
       <c r="N42">
         <f t="shared" si="17"/>
-        <v>4665601</v>
+        <v>18225</v>
       </c>
       <c r="O42">
         <f t="shared" si="18"/>
-        <v>-4665601</v>
+        <v>-18225</v>
       </c>
       <c r="P42">
         <f t="shared" si="19"/>
-        <v>4181760</v>
+        <v>16335</v>
       </c>
       <c r="Q42">
         <f t="shared" si="20"/>
-        <v>15785617098240</v>
+        <v>240875910</v>
       </c>
       <c r="R42">
         <f t="shared" si="21"/>
-        <v>940896</v>
+        <v>3675</v>
       </c>
       <c r="S42">
         <f t="shared" si="22"/>
-        <v>-7906465</v>
+        <v>-30885</v>
       </c>
       <c r="T42">
         <f t="shared" si="23"/>
-        <v>-0.47126203775405884</v>
+        <v>-0.4712677001953125</v>
       </c>
       <c r="U42">
         <f t="shared" si="24"/>
@@ -69771,11 +69769,11 @@
       </c>
       <c r="V42">
         <f t="shared" si="7"/>
-        <v>-1.3469907193891517E-4</v>
+        <v>-1.2903663068525306E-4</v>
       </c>
       <c r="W42">
         <f t="shared" si="8"/>
-        <v>2.8582627317248841E-4</v>
+        <v>2.7380749971146978E-4</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -69792,71 +69790,71 @@
       </c>
       <c r="D43">
         <f t="shared" si="4"/>
-        <v>-6588397.3166611493</v>
+        <v>-25735.927018207614</v>
       </c>
       <c r="E43">
         <f t="shared" si="5"/>
-        <v>-6588397</v>
+        <v>-25736</v>
       </c>
       <c r="F43">
         <f t="shared" si="10"/>
-        <v>43406975029609</v>
+        <v>662341696</v>
       </c>
       <c r="G43">
         <f t="shared" si="11"/>
-        <v>2587257</v>
+        <v>10107</v>
       </c>
       <c r="H43">
         <f t="shared" si="12"/>
-        <v>17592183334350</v>
+        <v>268452027</v>
       </c>
       <c r="I43">
         <f t="shared" si="13"/>
-        <v>1048576</v>
+        <v>4096</v>
       </c>
       <c r="J43">
         <f t="shared" si="6"/>
-        <v>-140737482501755</v>
+        <v>-2147489048</v>
       </c>
       <c r="K43">
         <f t="shared" si="14"/>
-        <v>-8388608</v>
+        <v>-32768</v>
       </c>
       <c r="L43">
         <f t="shared" si="15"/>
-        <v>-7340032</v>
+        <v>-28672</v>
       </c>
       <c r="M43">
         <f t="shared" si="16"/>
-        <v>53876069761024</v>
+        <v>822083584</v>
       </c>
       <c r="N43">
         <f t="shared" si="17"/>
-        <v>3211264</v>
+        <v>12544</v>
       </c>
       <c r="O43">
         <f t="shared" si="18"/>
-        <v>-3211264</v>
+        <v>-12544</v>
       </c>
       <c r="P43">
         <f t="shared" si="19"/>
-        <v>4128768</v>
+        <v>16128</v>
       </c>
       <c r="Q43">
         <f t="shared" si="20"/>
-        <v>15585578975232</v>
+        <v>237823488</v>
       </c>
       <c r="R43">
         <f t="shared" si="21"/>
-        <v>928973</v>
+        <v>3629</v>
       </c>
       <c r="S43">
         <f t="shared" si="22"/>
-        <v>-6411059</v>
+        <v>-25043</v>
       </c>
       <c r="T43">
         <f t="shared" si="23"/>
-        <v>-0.38212889432907104</v>
+        <v>-0.3821258544921875</v>
       </c>
       <c r="U43">
         <f t="shared" si="24"/>
@@ -69864,11 +69862,11 @@
       </c>
       <c r="V43">
         <f t="shared" si="7"/>
-        <v>-5.5453803601912544E-4</v>
+        <v>-5.5757787290267036E-4</v>
       </c>
       <c r="W43">
         <f t="shared" si="8"/>
-        <v>1.4511805944242048E-3</v>
+        <v>1.4591472059477461E-3</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -69885,71 +69883,71 @@
       </c>
       <c r="D44">
         <f t="shared" si="4"/>
-        <v>-4941297.9874958545</v>
+        <v>-19301.945263655682</v>
       </c>
       <c r="E44">
         <f t="shared" si="5"/>
-        <v>-4941298</v>
+        <v>-19302</v>
       </c>
       <c r="F44">
         <f t="shared" si="10"/>
-        <v>24416425924804</v>
+        <v>372567204</v>
       </c>
       <c r="G44">
         <f t="shared" si="11"/>
-        <v>1455332</v>
+        <v>5685</v>
       </c>
       <c r="H44">
         <f t="shared" si="12"/>
-        <v>9895602700600</v>
+        <v>150999285</v>
       </c>
       <c r="I44">
         <f t="shared" si="13"/>
-        <v>589824</v>
+        <v>2304</v>
       </c>
       <c r="J44">
         <f t="shared" si="6"/>
-        <v>-105553117216670</v>
+        <v>-1610616786</v>
       </c>
       <c r="K44">
         <f t="shared" si="14"/>
-        <v>-6291456</v>
+        <v>-24576</v>
       </c>
       <c r="L44">
         <f t="shared" si="15"/>
-        <v>-5701632</v>
+        <v>-22272</v>
       </c>
       <c r="M44">
         <f t="shared" si="16"/>
-        <v>32508607463424</v>
+        <v>496041984</v>
       </c>
       <c r="N44">
         <f t="shared" si="17"/>
-        <v>1937664</v>
+        <v>7569</v>
       </c>
       <c r="O44">
         <f t="shared" si="18"/>
-        <v>-1937664</v>
+        <v>-7569</v>
       </c>
       <c r="P44">
         <f t="shared" si="19"/>
-        <v>3763968</v>
+        <v>14703</v>
       </c>
       <c r="Q44">
         <f t="shared" si="20"/>
-        <v>14208504940032</v>
+        <v>216810438</v>
       </c>
       <c r="R44">
         <f t="shared" si="21"/>
-        <v>846893</v>
+        <v>3308</v>
       </c>
       <c r="S44">
         <f t="shared" si="22"/>
-        <v>-4854739</v>
+        <v>-18964</v>
       </c>
       <c r="T44">
         <f t="shared" si="23"/>
-        <v>-0.28936499357223511</v>
+        <v>-0.28936767578125</v>
       </c>
       <c r="U44">
         <f t="shared" si="24"/>
@@ -69957,11 +69955,11 @@
       </c>
       <c r="V44">
         <f t="shared" si="7"/>
-        <v>-9.1968368222716812E-4</v>
+        <v>-9.1700147321227554E-4</v>
       </c>
       <c r="W44">
         <f t="shared" si="8"/>
-        <v>3.1782824552258238E-3</v>
+        <v>3.1689837876207388E-3</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -69978,67 +69976,67 @@
       </c>
       <c r="D45">
         <f t="shared" si="4"/>
-        <v>-3294198.6583305746</v>
+        <v>-12867.963509103807</v>
       </c>
       <c r="E45">
         <f t="shared" si="5"/>
-        <v>-3294199</v>
+        <v>-12868</v>
       </c>
       <c r="F45">
         <f t="shared" si="10"/>
-        <v>10851747051601</v>
+        <v>165585424</v>
       </c>
       <c r="G45">
         <f t="shared" si="11"/>
-        <v>646815</v>
+        <v>2527</v>
       </c>
       <c r="H45">
         <f t="shared" si="12"/>
-        <v>4398050933250</v>
+        <v>67119647</v>
       </c>
       <c r="I45">
         <f t="shared" si="13"/>
-        <v>262144</v>
+        <v>1024</v>
       </c>
       <c r="J45">
         <f t="shared" si="6"/>
-        <v>-70368751931585</v>
+        <v>-1073744524</v>
       </c>
       <c r="K45">
         <f t="shared" si="14"/>
-        <v>-4194304</v>
+        <v>-16384</v>
       </c>
       <c r="L45">
         <f t="shared" si="15"/>
-        <v>-3932160</v>
+        <v>-15360</v>
       </c>
       <c r="M45">
         <f t="shared" si="16"/>
-        <v>15461882265600</v>
+        <v>235929600</v>
       </c>
       <c r="N45">
         <f t="shared" si="17"/>
-        <v>921600</v>
+        <v>3600</v>
       </c>
       <c r="O45">
         <f t="shared" si="18"/>
-        <v>-921600</v>
+        <v>-3600</v>
       </c>
       <c r="P45">
         <f t="shared" si="19"/>
-        <v>3010560</v>
+        <v>11760</v>
       </c>
       <c r="Q45">
         <f t="shared" si="20"/>
-        <v>11364484669440</v>
+        <v>173412960</v>
       </c>
       <c r="R45">
         <f t="shared" si="21"/>
-        <v>677376</v>
+        <v>2646</v>
       </c>
       <c r="S45">
         <f t="shared" si="22"/>
-        <v>-3254784</v>
+        <v>-12714</v>
       </c>
       <c r="T45">
         <f t="shared" si="23"/>
@@ -70071,71 +70069,71 @@
       </c>
       <c r="D46">
         <f t="shared" si="4"/>
-        <v>-1647099.3291652799</v>
+        <v>-6433.9817545518745</v>
       </c>
       <c r="E46">
         <f t="shared" si="5"/>
-        <v>-1647099</v>
+        <v>-6434</v>
       </c>
       <c r="F46">
         <f t="shared" si="10"/>
-        <v>2712935115801</v>
+        <v>41396356</v>
       </c>
       <c r="G46">
         <f t="shared" si="11"/>
-        <v>161704</v>
+        <v>632</v>
       </c>
       <c r="H46">
         <f t="shared" si="12"/>
-        <v>1099514433200</v>
+        <v>16786552</v>
       </c>
       <c r="I46">
         <f t="shared" si="13"/>
-        <v>65536</v>
+        <v>256</v>
       </c>
       <c r="J46">
         <f t="shared" si="6"/>
-        <v>-35184365285085</v>
+        <v>-536872262</v>
       </c>
       <c r="K46">
         <f t="shared" si="14"/>
-        <v>-2097152</v>
+        <v>-8192</v>
       </c>
       <c r="L46">
         <f t="shared" si="15"/>
-        <v>-2031616</v>
+        <v>-7936</v>
       </c>
       <c r="M46">
         <f t="shared" si="16"/>
-        <v>4127463571456</v>
+        <v>62980096</v>
       </c>
       <c r="N46">
         <f t="shared" si="17"/>
-        <v>246016</v>
+        <v>961</v>
       </c>
       <c r="O46">
         <f t="shared" si="18"/>
-        <v>-246016</v>
+        <v>-961</v>
       </c>
       <c r="P46">
         <f t="shared" si="19"/>
-        <v>1785600</v>
+        <v>6975</v>
       </c>
       <c r="Q46">
         <f t="shared" si="20"/>
-        <v>6740415014400</v>
+        <v>102853350</v>
       </c>
       <c r="R46">
         <f t="shared" si="21"/>
-        <v>401760</v>
+        <v>1569</v>
       </c>
       <c r="S46">
         <f t="shared" si="22"/>
-        <v>-1629856</v>
+        <v>-6367</v>
       </c>
       <c r="T46">
         <f t="shared" si="23"/>
-        <v>-9.7146987915039062E-2</v>
+        <v>-9.71527099609375E-2</v>
       </c>
       <c r="U46">
         <f t="shared" si="24"/>
@@ -70143,11 +70141,11 @@
       </c>
       <c r="V46">
         <f t="shared" si="7"/>
-        <v>-8.7015241452120806E-4</v>
+        <v>-8.6443036862277056E-4</v>
       </c>
       <c r="W46">
         <f t="shared" si="8"/>
-        <v>8.9570704475388282E-3</v>
+        <v>8.8976454590956322E-3</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -70257,71 +70255,71 @@
       </c>
       <c r="D48">
         <f t="shared" si="4"/>
-        <v>1647099.3291652799</v>
+        <v>6433.9817545518745</v>
       </c>
       <c r="E48">
         <f t="shared" si="5"/>
-        <v>1647099</v>
+        <v>6434</v>
       </c>
       <c r="F48">
         <f>E48*E48</f>
-        <v>2712935115801</v>
+        <v>41396356</v>
       </c>
       <c r="G48">
         <f>ROUND(F48/$B$3,0)</f>
-        <v>161704</v>
+        <v>632</v>
       </c>
       <c r="H48">
         <f>G48*$B$7</f>
-        <v>1099514433200</v>
+        <v>16786552</v>
       </c>
       <c r="I48">
         <f>ROUND(H48/$B$3,0)</f>
-        <v>65536</v>
+        <v>256</v>
       </c>
       <c r="J48">
         <f t="shared" si="6"/>
-        <v>35184365285085</v>
+        <v>536872262</v>
       </c>
       <c r="K48">
         <f>ROUND(J48/$B$3,0)</f>
-        <v>2097152</v>
+        <v>8192</v>
       </c>
       <c r="L48">
         <f>IF(E48&lt;0,K48+I48,K48-I48)</f>
-        <v>2031616</v>
+        <v>7936</v>
       </c>
       <c r="M48">
         <f>L48*L48</f>
-        <v>4127463571456</v>
+        <v>62980096</v>
       </c>
       <c r="N48">
         <f>ROUND(M48/$B$3,0)</f>
-        <v>246016</v>
+        <v>961</v>
       </c>
       <c r="O48">
         <f>IF(L48&lt;0,0-N48,N48)</f>
-        <v>246016</v>
+        <v>961</v>
       </c>
       <c r="P48">
         <f>O48-L48</f>
-        <v>-1785600</v>
+        <v>-6975</v>
       </c>
       <c r="Q48">
         <f>P48*$B$8</f>
-        <v>-6740415014400</v>
+        <v>-102853350</v>
       </c>
       <c r="R48">
         <f>ROUND(Q48/$B$3,0)</f>
-        <v>-401760</v>
+        <v>-1569</v>
       </c>
       <c r="S48">
         <f>R48+L48</f>
-        <v>1629856</v>
+        <v>6367</v>
       </c>
       <c r="T48">
         <f>S48/$B$3</f>
-        <v>9.7146987915039062E-2</v>
+        <v>9.71527099609375E-2</v>
       </c>
       <c r="U48">
         <f>SIN(C48)</f>
@@ -70329,11 +70327,11 @@
       </c>
       <c r="V48">
         <f t="shared" si="7"/>
-        <v>8.7015241452120806E-4</v>
+        <v>8.6443036862277056E-4</v>
       </c>
       <c r="W48">
         <f t="shared" si="8"/>
-        <v>8.9570704475388282E-3</v>
+        <v>8.8976454590956322E-3</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -70350,67 +70348,67 @@
       </c>
       <c r="D49">
         <f t="shared" si="4"/>
-        <v>3294198.6583305746</v>
+        <v>12867.963509103807</v>
       </c>
       <c r="E49">
         <f t="shared" si="5"/>
-        <v>3294199</v>
+        <v>12868</v>
       </c>
       <c r="F49">
         <f t="shared" si="10"/>
-        <v>10851747051601</v>
+        <v>165585424</v>
       </c>
       <c r="G49">
         <f t="shared" si="11"/>
-        <v>646815</v>
+        <v>2527</v>
       </c>
       <c r="H49">
         <f t="shared" si="12"/>
-        <v>4398050933250</v>
+        <v>67119647</v>
       </c>
       <c r="I49">
         <f t="shared" si="13"/>
-        <v>262144</v>
+        <v>1024</v>
       </c>
       <c r="J49">
         <f t="shared" si="6"/>
-        <v>70368751931585</v>
+        <v>1073744524</v>
       </c>
       <c r="K49">
         <f t="shared" si="14"/>
-        <v>4194304</v>
+        <v>16384</v>
       </c>
       <c r="L49">
         <f t="shared" ref="L49:L72" si="25">IF(E49&lt;0,K49+I49,K49-I49)</f>
-        <v>3932160</v>
+        <v>15360</v>
       </c>
       <c r="M49">
         <f t="shared" si="16"/>
-        <v>15461882265600</v>
+        <v>235929600</v>
       </c>
       <c r="N49">
         <f t="shared" si="17"/>
-        <v>921600</v>
+        <v>3600</v>
       </c>
       <c r="O49">
         <f t="shared" ref="O49:O72" si="26">IF(L49&lt;0,0-N49,N49)</f>
-        <v>921600</v>
+        <v>3600</v>
       </c>
       <c r="P49">
         <f t="shared" ref="P49:P72" si="27">O49-L49</f>
-        <v>-3010560</v>
+        <v>-11760</v>
       </c>
       <c r="Q49">
         <f t="shared" si="20"/>
-        <v>-11364484669440</v>
+        <v>-173412960</v>
       </c>
       <c r="R49">
         <f t="shared" si="21"/>
-        <v>-677376</v>
+        <v>-2646</v>
       </c>
       <c r="S49">
         <f t="shared" ref="S49:S72" si="28">R49+L49</f>
-        <v>3254784</v>
+        <v>12714</v>
       </c>
       <c r="T49">
         <f t="shared" si="23"/>
@@ -70443,71 +70441,71 @@
       </c>
       <c r="D50">
         <f t="shared" si="4"/>
-        <v>4941297.9874958545</v>
+        <v>19301.945263655682</v>
       </c>
       <c r="E50">
         <f t="shared" si="5"/>
-        <v>4941298</v>
+        <v>19302</v>
       </c>
       <c r="F50">
         <f t="shared" si="10"/>
-        <v>24416425924804</v>
+        <v>372567204</v>
       </c>
       <c r="G50">
         <f t="shared" si="11"/>
-        <v>1455332</v>
+        <v>5685</v>
       </c>
       <c r="H50">
         <f t="shared" si="12"/>
-        <v>9895602700600</v>
+        <v>150999285</v>
       </c>
       <c r="I50">
         <f t="shared" si="13"/>
-        <v>589824</v>
+        <v>2304</v>
       </c>
       <c r="J50">
         <f t="shared" si="6"/>
-        <v>105553117216670</v>
+        <v>1610616786</v>
       </c>
       <c r="K50">
         <f t="shared" si="14"/>
-        <v>6291456</v>
+        <v>24576</v>
       </c>
       <c r="L50">
         <f t="shared" si="25"/>
-        <v>5701632</v>
+        <v>22272</v>
       </c>
       <c r="M50">
         <f t="shared" si="16"/>
-        <v>32508607463424</v>
+        <v>496041984</v>
       </c>
       <c r="N50">
         <f t="shared" si="17"/>
-        <v>1937664</v>
+        <v>7569</v>
       </c>
       <c r="O50">
         <f t="shared" si="26"/>
-        <v>1937664</v>
+        <v>7569</v>
       </c>
       <c r="P50">
         <f t="shared" si="27"/>
-        <v>-3763968</v>
+        <v>-14703</v>
       </c>
       <c r="Q50">
         <f t="shared" si="20"/>
-        <v>-14208504940032</v>
+        <v>-216810438</v>
       </c>
       <c r="R50">
         <f t="shared" si="21"/>
-        <v>-846893</v>
+        <v>-3308</v>
       </c>
       <c r="S50">
         <f t="shared" si="28"/>
-        <v>4854739</v>
+        <v>18964</v>
       </c>
       <c r="T50">
         <f t="shared" si="23"/>
-        <v>0.28936499357223511</v>
+        <v>0.28936767578125</v>
       </c>
       <c r="U50">
         <f t="shared" si="29"/>
@@ -70515,11 +70513,11 @@
       </c>
       <c r="V50">
         <f t="shared" si="7"/>
-        <v>9.1968368222716812E-4</v>
+        <v>9.1700147321227554E-4</v>
       </c>
       <c r="W50">
         <f t="shared" si="8"/>
-        <v>3.1782824552258238E-3</v>
+        <v>3.1689837876207388E-3</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -70536,71 +70534,71 @@
       </c>
       <c r="D51">
         <f t="shared" si="4"/>
-        <v>6588397.3166611493</v>
+        <v>25735.927018207614</v>
       </c>
       <c r="E51">
         <f t="shared" si="5"/>
-        <v>6588397</v>
+        <v>25736</v>
       </c>
       <c r="F51">
         <f t="shared" si="10"/>
-        <v>43406975029609</v>
+        <v>662341696</v>
       </c>
       <c r="G51">
         <f t="shared" si="11"/>
-        <v>2587257</v>
+        <v>10107</v>
       </c>
       <c r="H51">
         <f t="shared" si="12"/>
-        <v>17592183334350</v>
+        <v>268452027</v>
       </c>
       <c r="I51">
         <f t="shared" si="13"/>
-        <v>1048576</v>
+        <v>4096</v>
       </c>
       <c r="J51">
         <f t="shared" si="6"/>
-        <v>140737482501755</v>
+        <v>2147489048</v>
       </c>
       <c r="K51">
         <f t="shared" si="14"/>
-        <v>8388608</v>
+        <v>32768</v>
       </c>
       <c r="L51">
         <f t="shared" si="25"/>
-        <v>7340032</v>
+        <v>28672</v>
       </c>
       <c r="M51">
         <f t="shared" si="16"/>
-        <v>53876069761024</v>
+        <v>822083584</v>
       </c>
       <c r="N51">
         <f t="shared" si="17"/>
-        <v>3211264</v>
+        <v>12544</v>
       </c>
       <c r="O51">
         <f t="shared" si="26"/>
-        <v>3211264</v>
+        <v>12544</v>
       </c>
       <c r="P51">
         <f t="shared" si="27"/>
-        <v>-4128768</v>
+        <v>-16128</v>
       </c>
       <c r="Q51">
         <f t="shared" si="20"/>
-        <v>-15585578975232</v>
+        <v>-237823488</v>
       </c>
       <c r="R51">
         <f t="shared" si="21"/>
-        <v>-928973</v>
+        <v>-3629</v>
       </c>
       <c r="S51">
         <f t="shared" si="28"/>
-        <v>6411059</v>
+        <v>25043</v>
       </c>
       <c r="T51">
         <f t="shared" si="23"/>
-        <v>0.38212889432907104</v>
+        <v>0.3821258544921875</v>
       </c>
       <c r="U51">
         <f t="shared" si="29"/>
@@ -70608,11 +70606,11 @@
       </c>
       <c r="V51">
         <f t="shared" si="7"/>
-        <v>5.5453803601912544E-4</v>
+        <v>5.5757787290267036E-4</v>
       </c>
       <c r="W51">
         <f t="shared" si="8"/>
-        <v>1.4511805944242048E-3</v>
+        <v>1.4591472059477461E-3</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -70629,71 +70627,71 @@
       </c>
       <c r="D52">
         <f t="shared" si="4"/>
-        <v>8235496.6458264291</v>
+        <v>32169.908772759489</v>
       </c>
       <c r="E52">
         <f t="shared" si="5"/>
-        <v>8235497</v>
+        <v>32170</v>
       </c>
       <c r="F52">
         <f t="shared" si="10"/>
-        <v>67823410837009</v>
+        <v>1034908900</v>
       </c>
       <c r="G52">
         <f t="shared" si="11"/>
-        <v>4042590</v>
+        <v>15791</v>
       </c>
       <c r="H52">
         <f t="shared" si="12"/>
-        <v>27487792834500</v>
+        <v>419424751</v>
       </c>
       <c r="I52">
         <f t="shared" si="13"/>
-        <v>1638400</v>
+        <v>6400</v>
       </c>
       <c r="J52">
         <f t="shared" si="6"/>
-        <v>175921869148255</v>
+        <v>2684361310</v>
       </c>
       <c r="K52">
         <f t="shared" si="14"/>
-        <v>10485761</v>
+        <v>40960</v>
       </c>
       <c r="L52">
         <f t="shared" si="25"/>
-        <v>8847361</v>
+        <v>34560</v>
       </c>
       <c r="M52">
         <f t="shared" si="16"/>
-        <v>78275796664321</v>
+        <v>1194393600</v>
       </c>
       <c r="N52">
         <f t="shared" si="17"/>
-        <v>4665601</v>
+        <v>18225</v>
       </c>
       <c r="O52">
         <f t="shared" si="26"/>
-        <v>4665601</v>
+        <v>18225</v>
       </c>
       <c r="P52">
         <f t="shared" si="27"/>
-        <v>-4181760</v>
+        <v>-16335</v>
       </c>
       <c r="Q52">
         <f t="shared" si="20"/>
-        <v>-15785617098240</v>
+        <v>-240875910</v>
       </c>
       <c r="R52">
         <f t="shared" si="21"/>
-        <v>-940896</v>
+        <v>-3675</v>
       </c>
       <c r="S52">
         <f t="shared" si="28"/>
-        <v>7906465</v>
+        <v>30885</v>
       </c>
       <c r="T52">
         <f t="shared" si="23"/>
-        <v>0.47126203775405884</v>
+        <v>0.4712677001953125</v>
       </c>
       <c r="U52">
         <f t="shared" si="29"/>
@@ -70701,11 +70699,11 @@
       </c>
       <c r="V52">
         <f t="shared" si="7"/>
-        <v>1.3469907193891517E-4</v>
+        <v>1.2903663068525306E-4</v>
       </c>
       <c r="W52">
         <f t="shared" si="8"/>
-        <v>2.8582627317248841E-4</v>
+        <v>2.7380749971146978E-4</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -70722,67 +70720,67 @@
       </c>
       <c r="D53">
         <f t="shared" si="4"/>
-        <v>9882595.974991709</v>
+        <v>38603.890527311363</v>
       </c>
       <c r="E53">
         <f t="shared" si="5"/>
-        <v>9882596</v>
+        <v>38604</v>
       </c>
       <c r="F53">
         <f t="shared" si="10"/>
-        <v>97665703699216</v>
+        <v>1490268816</v>
       </c>
       <c r="G53">
         <f t="shared" si="11"/>
-        <v>5821330</v>
+        <v>22740</v>
       </c>
       <c r="H53">
         <f t="shared" si="12"/>
-        <v>39582424401500</v>
+        <v>603997140</v>
       </c>
       <c r="I53">
         <f t="shared" si="13"/>
-        <v>2359296</v>
+        <v>9216</v>
       </c>
       <c r="J53">
         <f t="shared" si="6"/>
-        <v>211106234433340</v>
+        <v>3221233572</v>
       </c>
       <c r="K53">
         <f t="shared" si="14"/>
-        <v>12582912</v>
+        <v>49152</v>
       </c>
       <c r="L53">
         <f t="shared" si="25"/>
-        <v>10223616</v>
+        <v>39936</v>
       </c>
       <c r="M53">
         <f t="shared" si="16"/>
-        <v>104522324115456</v>
+        <v>1594884096</v>
       </c>
       <c r="N53">
         <f t="shared" si="17"/>
-        <v>6230016</v>
+        <v>24336</v>
       </c>
       <c r="O53">
         <f t="shared" si="26"/>
-        <v>6230016</v>
+        <v>24336</v>
       </c>
       <c r="P53">
         <f t="shared" si="27"/>
-        <v>-3993600</v>
+        <v>-15600</v>
       </c>
       <c r="Q53">
         <f t="shared" si="20"/>
-        <v>-15075336806400</v>
+        <v>-230037600</v>
       </c>
       <c r="R53">
         <f t="shared" si="21"/>
-        <v>-898560</v>
+        <v>-3510</v>
       </c>
       <c r="S53">
         <f t="shared" si="28"/>
-        <v>9325056</v>
+        <v>36426</v>
       </c>
       <c r="T53">
         <f t="shared" si="23"/>
@@ -70815,71 +70813,71 @@
       </c>
       <c r="D54">
         <f t="shared" si="4"/>
-        <v>11529695.304157004</v>
+        <v>45037.872281863296</v>
       </c>
       <c r="E54">
         <f t="shared" si="5"/>
-        <v>11529695</v>
+        <v>45038</v>
       </c>
       <c r="F54">
         <f t="shared" si="10"/>
-        <v>132933866793025</v>
+        <v>2028421444</v>
       </c>
       <c r="G54">
         <f t="shared" si="11"/>
-        <v>7923476</v>
+        <v>30951</v>
       </c>
       <c r="H54">
         <f t="shared" si="12"/>
-        <v>53876071235800</v>
+        <v>822089511</v>
       </c>
       <c r="I54">
         <f t="shared" si="13"/>
-        <v>3211264</v>
+        <v>12544</v>
       </c>
       <c r="J54">
         <f t="shared" si="6"/>
-        <v>246290599718425</v>
+        <v>3758105834</v>
       </c>
       <c r="K54">
         <f t="shared" si="14"/>
-        <v>14680064</v>
+        <v>57344</v>
       </c>
       <c r="L54">
         <f t="shared" si="25"/>
-        <v>11468800</v>
+        <v>44800</v>
       </c>
       <c r="M54">
         <f t="shared" si="16"/>
-        <v>131533373440000</v>
+        <v>2007040000</v>
       </c>
       <c r="N54">
         <f t="shared" si="17"/>
-        <v>7840000</v>
+        <v>30625</v>
       </c>
       <c r="O54">
         <f t="shared" si="26"/>
-        <v>7840000</v>
+        <v>30625</v>
       </c>
       <c r="P54">
         <f t="shared" si="27"/>
-        <v>-3628800</v>
+        <v>-14175</v>
       </c>
       <c r="Q54">
         <f t="shared" si="20"/>
-        <v>-13698262771200</v>
+        <v>-209024550</v>
       </c>
       <c r="R54">
         <f t="shared" si="21"/>
-        <v>-816480</v>
+        <v>-3189</v>
       </c>
       <c r="S54">
         <f t="shared" si="28"/>
-        <v>10652320</v>
+        <v>41611</v>
       </c>
       <c r="T54">
         <f t="shared" si="23"/>
-        <v>0.63492774963378906</v>
+        <v>0.6349334716796875</v>
       </c>
       <c r="U54">
         <f t="shared" si="29"/>
@@ -70887,11 +70885,11 @@
       </c>
       <c r="V54">
         <f t="shared" si="7"/>
-        <v>-5.3446547014335266E-4</v>
+        <v>-5.4018751604179016E-4</v>
       </c>
       <c r="W54">
         <f t="shared" si="8"/>
-        <v>-8.4177368283496726E-4</v>
+        <v>-8.5077813682234887E-4</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -70908,71 +70906,71 @@
       </c>
       <c r="D55">
         <f t="shared" si="4"/>
-        <v>13176794.633322284</v>
+        <v>51471.85403641517</v>
       </c>
       <c r="E55">
         <f t="shared" si="5"/>
-        <v>13176795</v>
+        <v>51472</v>
       </c>
       <c r="F55">
         <f t="shared" si="10"/>
-        <v>173627926472025</v>
+        <v>2649366784</v>
       </c>
       <c r="G55">
         <f t="shared" si="11"/>
-        <v>10349031</v>
+        <v>40426</v>
       </c>
       <c r="H55">
         <f t="shared" si="12"/>
-        <v>70368753736050</v>
+        <v>1073754986</v>
       </c>
       <c r="I55">
         <f t="shared" si="13"/>
-        <v>4194305</v>
+        <v>16384</v>
       </c>
       <c r="J55">
         <f t="shared" si="6"/>
-        <v>281474986364925</v>
+        <v>4294978096</v>
       </c>
       <c r="K55">
         <f t="shared" si="14"/>
-        <v>16777217</v>
+        <v>65536</v>
       </c>
       <c r="L55">
         <f t="shared" si="25"/>
-        <v>12582912</v>
+        <v>49152</v>
       </c>
       <c r="M55">
         <f t="shared" si="16"/>
-        <v>158329674399744</v>
+        <v>2415919104</v>
       </c>
       <c r="N55">
         <f t="shared" si="17"/>
-        <v>9437184</v>
+        <v>36864</v>
       </c>
       <c r="O55">
         <f t="shared" si="26"/>
-        <v>9437184</v>
+        <v>36864</v>
       </c>
       <c r="P55">
         <f t="shared" si="27"/>
-        <v>-3145728</v>
+        <v>-12288</v>
       </c>
       <c r="Q55">
         <f t="shared" si="20"/>
-        <v>-11874726838272</v>
+        <v>-181198848</v>
       </c>
       <c r="R55">
         <f t="shared" si="21"/>
-        <v>-707789</v>
+        <v>-2765</v>
       </c>
       <c r="S55">
         <f t="shared" si="28"/>
-        <v>11875123</v>
+        <v>46387</v>
       </c>
       <c r="T55">
         <f t="shared" si="23"/>
-        <v>0.70781248807907104</v>
+        <v>0.7078094482421875</v>
       </c>
       <c r="U55">
         <f t="shared" si="29"/>
@@ -70980,11 +70978,11 @@
       </c>
       <c r="V55">
         <f t="shared" si="7"/>
-        <v>-7.0570689252358321E-4</v>
+        <v>-7.0266705564003828E-4</v>
       </c>
       <c r="W55">
         <f t="shared" si="8"/>
-        <v>-9.9702520711212337E-4</v>
+        <v>-9.9273477824445532E-4</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -71001,71 +70999,71 @@
       </c>
       <c r="D56">
         <f t="shared" si="4"/>
-        <v>14823893.962487563</v>
+        <v>57905.835790967045</v>
       </c>
       <c r="E56">
         <f t="shared" si="5"/>
-        <v>14823894</v>
+        <v>57906</v>
       </c>
       <c r="F56">
         <f t="shared" si="10"/>
-        <v>219747833323236</v>
+        <v>3353104836</v>
       </c>
       <c r="G56">
         <f t="shared" si="11"/>
-        <v>13097992</v>
+        <v>51164</v>
       </c>
       <c r="H56">
         <f t="shared" si="12"/>
-        <v>89060451503600</v>
+        <v>1358967004</v>
       </c>
       <c r="I56">
         <f t="shared" si="13"/>
-        <v>5308417</v>
+        <v>20736</v>
       </c>
       <c r="J56">
         <f t="shared" si="6"/>
-        <v>316659351650010</v>
+        <v>4831850358</v>
       </c>
       <c r="K56">
         <f t="shared" si="14"/>
-        <v>18874368</v>
+        <v>73728</v>
       </c>
       <c r="L56">
         <f t="shared" si="25"/>
-        <v>13565951</v>
+        <v>52992</v>
       </c>
       <c r="M56">
         <f t="shared" si="16"/>
-        <v>184035026534401</v>
+        <v>2808152064</v>
       </c>
       <c r="N56">
         <f t="shared" si="17"/>
-        <v>10969342</v>
+        <v>42849</v>
       </c>
       <c r="O56">
         <f t="shared" si="26"/>
-        <v>10969342</v>
+        <v>42849</v>
       </c>
       <c r="P56">
         <f t="shared" si="27"/>
-        <v>-2596609</v>
+        <v>-10143</v>
       </c>
       <c r="Q56">
         <f t="shared" si="20"/>
-        <v>-9801871802266</v>
+        <v>-149568678</v>
       </c>
       <c r="R56">
         <f t="shared" si="21"/>
-        <v>-584237</v>
+        <v>-2282</v>
       </c>
       <c r="S56">
         <f t="shared" si="28"/>
-        <v>12981714</v>
+        <v>50710</v>
       </c>
       <c r="T56">
         <f t="shared" si="23"/>
-        <v>0.77377045154571533</v>
+        <v>0.773773193359375</v>
       </c>
       <c r="U56">
         <f t="shared" si="29"/>
@@ -71073,11 +71071,11 @@
       </c>
       <c r="V56">
         <f t="shared" si="7"/>
-        <v>-7.599981829785607E-4</v>
+        <v>-7.6273999663822867E-4</v>
       </c>
       <c r="W56">
         <f t="shared" si="8"/>
-        <v>-9.8220109266302096E-4</v>
+        <v>-9.8574104554689313E-4</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -71094,67 +71092,67 @@
       </c>
       <c r="D57">
         <f t="shared" si="4"/>
-        <v>16470993.291652858</v>
+        <v>64339.817545518978</v>
       </c>
       <c r="E57">
         <f t="shared" si="5"/>
-        <v>16470993</v>
+        <v>64340</v>
       </c>
       <c r="F57">
         <f t="shared" si="10"/>
-        <v>271293610406049</v>
+        <v>4139635600</v>
       </c>
       <c r="G57">
         <f t="shared" si="11"/>
-        <v>16170359</v>
+        <v>63166</v>
       </c>
       <c r="H57">
         <f t="shared" si="12"/>
-        <v>109951164538450</v>
+        <v>1677752126</v>
       </c>
       <c r="I57">
         <f t="shared" si="13"/>
-        <v>6553600</v>
+        <v>25600</v>
       </c>
       <c r="J57">
         <f t="shared" si="6"/>
-        <v>351843716935095</v>
+        <v>5368722620</v>
       </c>
       <c r="K57">
         <f t="shared" si="14"/>
-        <v>20971520</v>
+        <v>81920</v>
       </c>
       <c r="L57">
         <f t="shared" si="25"/>
-        <v>14417920</v>
+        <v>56320</v>
       </c>
       <c r="M57">
         <f t="shared" si="16"/>
-        <v>207876417126400</v>
+        <v>3171942400</v>
       </c>
       <c r="N57">
         <f t="shared" si="17"/>
-        <v>12390400</v>
+        <v>48400</v>
       </c>
       <c r="O57">
         <f t="shared" si="26"/>
-        <v>12390400</v>
+        <v>48400</v>
       </c>
       <c r="P57">
         <f t="shared" si="27"/>
-        <v>-2027520</v>
+        <v>-7920</v>
       </c>
       <c r="Q57">
         <f t="shared" si="20"/>
-        <v>-7653632532480</v>
+        <v>-116788320</v>
       </c>
       <c r="R57">
         <f t="shared" si="21"/>
-        <v>-456192</v>
+        <v>-1782</v>
       </c>
       <c r="S57">
         <f t="shared" si="28"/>
-        <v>13961728</v>
+        <v>54538</v>
       </c>
       <c r="T57">
         <f t="shared" si="23"/>
@@ -71187,71 +71185,71 @@
       </c>
       <c r="D58">
         <f t="shared" si="4"/>
-        <v>18118092.620818138</v>
+        <v>70773.799300070852</v>
       </c>
       <c r="E58">
         <f t="shared" si="5"/>
-        <v>18118093</v>
+        <v>70774</v>
       </c>
       <c r="F58">
         <f t="shared" si="10"/>
-        <v>328265293956649</v>
+        <v>5008959076</v>
       </c>
       <c r="G58">
         <f t="shared" si="11"/>
-        <v>19566136</v>
+        <v>76431</v>
       </c>
       <c r="H58">
         <f t="shared" si="12"/>
-        <v>133040920038800</v>
+        <v>2030083791</v>
       </c>
       <c r="I58">
         <f t="shared" si="13"/>
-        <v>7929857</v>
+        <v>30977</v>
       </c>
       <c r="J58">
         <f t="shared" si="6"/>
-        <v>387028103581595</v>
+        <v>5905594882</v>
       </c>
       <c r="K58">
         <f t="shared" si="14"/>
-        <v>23068673</v>
+        <v>90112</v>
       </c>
       <c r="L58">
         <f t="shared" si="25"/>
-        <v>15138816</v>
+        <v>59135</v>
       </c>
       <c r="M58">
         <f t="shared" si="16"/>
-        <v>229183749881856</v>
+        <v>3496948225</v>
       </c>
       <c r="N58">
         <f t="shared" si="17"/>
-        <v>13660416</v>
+        <v>53359</v>
       </c>
       <c r="O58">
         <f t="shared" si="26"/>
-        <v>13660416</v>
+        <v>53359</v>
       </c>
       <c r="P58">
         <f t="shared" si="27"/>
-        <v>-1478400</v>
+        <v>-5776</v>
       </c>
       <c r="Q58">
         <f t="shared" si="20"/>
-        <v>-5580773721600</v>
+        <v>-85172896</v>
       </c>
       <c r="R58">
         <f t="shared" si="21"/>
-        <v>-332640</v>
+        <v>-1300</v>
       </c>
       <c r="S58">
         <f t="shared" si="28"/>
-        <v>14806176</v>
+        <v>57835</v>
       </c>
       <c r="T58">
         <f t="shared" si="23"/>
-        <v>0.88251686096191406</v>
+        <v>0.8824920654296875</v>
       </c>
       <c r="U58">
         <f t="shared" si="29"/>
@@ -71259,11 +71257,11 @@
       </c>
       <c r="V58">
         <f t="shared" si="7"/>
-        <v>-5.9559661355912397E-4</v>
+        <v>-5.7080108133256147E-4</v>
       </c>
       <c r="W58">
         <f t="shared" si="8"/>
-        <v>-6.7488411825916098E-4</v>
+        <v>-6.4680590760284864E-4</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -71280,71 +71278,71 @@
       </c>
       <c r="D59">
         <f t="shared" si="4"/>
-        <v>19765191.949983418</v>
+        <v>77207.781054622727</v>
       </c>
       <c r="E59">
         <f t="shared" si="5"/>
-        <v>19765192</v>
+        <v>77208</v>
       </c>
       <c r="F59">
         <f t="shared" si="10"/>
-        <v>390662814796864</v>
+        <v>5961075264</v>
       </c>
       <c r="G59">
         <f t="shared" si="11"/>
-        <v>23285318</v>
+        <v>90959</v>
       </c>
       <c r="H59">
         <f t="shared" si="12"/>
-        <v>158329684006900</v>
+        <v>2415961999</v>
       </c>
       <c r="I59">
         <f t="shared" si="13"/>
-        <v>9437185</v>
+        <v>36865</v>
       </c>
       <c r="J59">
         <f t="shared" si="6"/>
-        <v>422212468866680</v>
+        <v>6442467144</v>
       </c>
       <c r="K59">
         <f t="shared" si="14"/>
-        <v>25165824</v>
+        <v>98304</v>
       </c>
       <c r="L59">
         <f t="shared" si="25"/>
-        <v>15728639</v>
+        <v>61439</v>
       </c>
       <c r="M59">
         <f t="shared" si="16"/>
-        <v>247390084792321</v>
+        <v>3774750721</v>
       </c>
       <c r="N59">
         <f t="shared" si="17"/>
-        <v>14745598</v>
+        <v>57598</v>
       </c>
       <c r="O59">
         <f t="shared" si="26"/>
-        <v>14745598</v>
+        <v>57598</v>
       </c>
       <c r="P59">
         <f t="shared" si="27"/>
-        <v>-983041</v>
+        <v>-3841</v>
       </c>
       <c r="Q59">
         <f t="shared" si="20"/>
-        <v>-3710855911834</v>
+        <v>-56639386</v>
       </c>
       <c r="R59">
         <f t="shared" si="21"/>
-        <v>-221184</v>
+        <v>-864</v>
       </c>
       <c r="S59">
         <f t="shared" si="28"/>
-        <v>15507455</v>
+        <v>60575</v>
       </c>
       <c r="T59">
         <f t="shared" si="23"/>
-        <v>0.92431634664535522</v>
+        <v>0.9243011474609375</v>
       </c>
       <c r="U59">
         <f t="shared" si="29"/>
@@ -71352,11 +71350,11 @@
       </c>
       <c r="V59">
         <f t="shared" si="7"/>
-        <v>-4.3681413406870817E-4</v>
+        <v>-4.2161494965098356E-4</v>
       </c>
       <c r="W59">
         <f t="shared" si="8"/>
-        <v>-4.7258077351336345E-4</v>
+        <v>-4.5614457020762457E-4</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -71373,71 +71371,71 @@
       </c>
       <c r="D60">
         <f t="shared" si="4"/>
-        <v>21412291.279148713</v>
+        <v>83641.762809174659</v>
       </c>
       <c r="E60">
         <f t="shared" si="5"/>
-        <v>21412291</v>
+        <v>83642</v>
       </c>
       <c r="F60">
         <f t="shared" si="10"/>
-        <v>458486205868681</v>
+        <v>6995984164</v>
       </c>
       <c r="G60">
         <f t="shared" si="11"/>
-        <v>27327907</v>
+        <v>106750</v>
       </c>
       <c r="H60">
         <f t="shared" si="12"/>
-        <v>185817470041850</v>
+        <v>2835386750</v>
       </c>
       <c r="I60">
         <f t="shared" si="13"/>
-        <v>11075584</v>
+        <v>43265</v>
       </c>
       <c r="J60">
         <f t="shared" si="6"/>
-        <v>457396834151765</v>
+        <v>6979339406</v>
       </c>
       <c r="K60">
         <f t="shared" si="14"/>
-        <v>27262976</v>
+        <v>106496</v>
       </c>
       <c r="L60">
         <f t="shared" si="25"/>
-        <v>16187392</v>
+        <v>63231</v>
       </c>
       <c r="M60">
         <f t="shared" si="16"/>
-        <v>262031659761664</v>
+        <v>3998159361</v>
       </c>
       <c r="N60">
         <f t="shared" si="17"/>
-        <v>15618304</v>
+        <v>61007</v>
       </c>
       <c r="O60">
         <f t="shared" si="26"/>
-        <v>15618304</v>
+        <v>61007</v>
       </c>
       <c r="P60">
         <f t="shared" si="27"/>
-        <v>-569088</v>
+        <v>-2224</v>
       </c>
       <c r="Q60">
         <f t="shared" si="20"/>
-        <v>-2148235494912</v>
+        <v>-32795104</v>
       </c>
       <c r="R60">
         <f t="shared" si="21"/>
-        <v>-128045</v>
+        <v>-500</v>
       </c>
       <c r="S60">
         <f t="shared" si="28"/>
-        <v>16059347</v>
+        <v>62731</v>
       </c>
       <c r="T60">
         <f t="shared" si="23"/>
-        <v>0.95721167325973511</v>
+        <v>0.9571990966796875</v>
       </c>
       <c r="U60">
         <f t="shared" si="29"/>
@@ -71445,11 +71443,11 @@
       </c>
       <c r="V60">
         <f t="shared" si="7"/>
-        <v>-2.7133752752617202E-4</v>
+        <v>-2.587609474785646E-4</v>
       </c>
       <c r="W60">
         <f t="shared" si="8"/>
-        <v>-2.8346658853641645E-4</v>
+        <v>-2.7033137450311982E-4</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -71466,71 +71464,71 @@
       </c>
       <c r="D61">
         <f t="shared" si="4"/>
-        <v>23059390.608313993</v>
+        <v>90075.744563726534</v>
       </c>
       <c r="E61">
         <f t="shared" si="5"/>
-        <v>23059391</v>
+        <v>90076</v>
       </c>
       <c r="F61">
         <f t="shared" si="10"/>
-        <v>531735513290881</v>
+        <v>8113685776</v>
       </c>
       <c r="G61">
         <f t="shared" si="11"/>
-        <v>31693906</v>
+        <v>123805</v>
       </c>
       <c r="H61">
         <f t="shared" si="12"/>
-        <v>215504298542300</v>
+        <v>3288384605</v>
       </c>
       <c r="I61">
         <f t="shared" si="13"/>
-        <v>12845057</v>
+        <v>50177</v>
       </c>
       <c r="J61">
         <f t="shared" si="6"/>
-        <v>492581220798265</v>
+        <v>7516211668</v>
       </c>
       <c r="K61">
         <f t="shared" si="14"/>
-        <v>29360129</v>
+        <v>114688</v>
       </c>
       <c r="L61">
         <f t="shared" si="25"/>
-        <v>16515072</v>
+        <v>64511</v>
       </c>
       <c r="M61">
         <f t="shared" si="16"/>
-        <v>272747603165184</v>
+        <v>4161669121</v>
       </c>
       <c r="N61">
         <f t="shared" si="17"/>
-        <v>16257024</v>
+        <v>63502</v>
       </c>
       <c r="O61">
         <f t="shared" si="26"/>
-        <v>16257024</v>
+        <v>63502</v>
       </c>
       <c r="P61">
         <f t="shared" si="27"/>
-        <v>-258048</v>
+        <v>-1009</v>
       </c>
       <c r="Q61">
         <f t="shared" si="20"/>
-        <v>-974098685952</v>
+        <v>-14878714</v>
       </c>
       <c r="R61">
         <f t="shared" si="21"/>
-        <v>-58061</v>
+        <v>-227</v>
       </c>
       <c r="S61">
         <f t="shared" si="28"/>
-        <v>16457011</v>
+        <v>64284</v>
       </c>
       <c r="T61">
         <f t="shared" si="23"/>
-        <v>0.98091429471969604</v>
+        <v>0.98089599609375</v>
       </c>
       <c r="U61">
         <f t="shared" si="29"/>
@@ -71538,11 +71536,11 @@
       </c>
       <c r="V61">
         <f t="shared" si="7"/>
-        <v>-1.2901431646561434E-4</v>
+        <v>-1.1071569051956942E-4</v>
       </c>
       <c r="W61">
         <f t="shared" si="8"/>
-        <v>-1.3152455536646164E-4</v>
+        <v>-1.1287199760267721E-4</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -71559,71 +71557,71 @@
       </c>
       <c r="D62">
         <f t="shared" si="4"/>
-        <v>24706489.937479287</v>
+        <v>96509.726318278466</v>
       </c>
       <c r="E62">
         <f t="shared" si="5"/>
-        <v>24706490</v>
+        <v>96510</v>
       </c>
       <c r="F62">
         <f t="shared" si="10"/>
-        <v>610410648120100</v>
+        <v>9314180100</v>
       </c>
       <c r="G62">
         <f t="shared" si="11"/>
-        <v>36383310</v>
+        <v>142123</v>
       </c>
       <c r="H62">
         <f t="shared" si="12"/>
-        <v>247390135510500</v>
+        <v>3774929003</v>
       </c>
       <c r="I62">
         <f t="shared" si="13"/>
-        <v>14745601</v>
+        <v>57601</v>
       </c>
       <c r="J62">
         <f t="shared" si="6"/>
-        <v>527765586083350</v>
+        <v>8053083930</v>
       </c>
       <c r="K62">
         <f t="shared" si="14"/>
-        <v>31457280</v>
+        <v>122880</v>
       </c>
       <c r="L62">
         <f t="shared" si="25"/>
-        <v>16711679</v>
+        <v>65279</v>
       </c>
       <c r="M62">
         <f t="shared" si="16"/>
-        <v>279280214999041</v>
+        <v>4261347841</v>
       </c>
       <c r="N62">
         <f t="shared" si="17"/>
-        <v>16646398</v>
+        <v>65023</v>
       </c>
       <c r="O62">
         <f t="shared" si="26"/>
-        <v>16646398</v>
+        <v>65023</v>
       </c>
       <c r="P62">
         <f t="shared" si="27"/>
-        <v>-65281</v>
+        <v>-256</v>
       </c>
       <c r="Q62">
         <f t="shared" si="20"/>
-        <v>-246427549594</v>
+        <v>-3774976</v>
       </c>
       <c r="R62">
         <f t="shared" si="21"/>
-        <v>-14688</v>
+        <v>-58</v>
       </c>
       <c r="S62">
         <f t="shared" si="28"/>
-        <v>16696991</v>
+        <v>65221</v>
       </c>
       <c r="T62">
         <f t="shared" si="23"/>
-        <v>0.99521821737289429</v>
+        <v>0.9951934814453125</v>
       </c>
       <c r="U62">
         <f t="shared" si="29"/>
@@ -71631,11 +71629,11 @@
       </c>
       <c r="V62">
         <f t="shared" si="7"/>
-        <v>-3.3490700697358378E-5</v>
+        <v>-8.7547731155712682E-6</v>
       </c>
       <c r="W62">
         <f t="shared" si="8"/>
-        <v>-3.3651615407286986E-5</v>
+        <v>-8.7970563300482756E-6</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -71652,51 +71650,51 @@
       </c>
       <c r="D63">
         <f t="shared" si="4"/>
-        <v>26353589.266644567</v>
+        <v>102943.70807283034</v>
       </c>
       <c r="E63">
         <f t="shared" si="5"/>
-        <v>26353589</v>
+        <v>102944</v>
       </c>
       <c r="F63">
         <f t="shared" si="10"/>
-        <v>694511653180921</v>
+        <v>10597467136</v>
       </c>
       <c r="G63">
         <f t="shared" si="11"/>
-        <v>41396120</v>
+        <v>161705</v>
       </c>
       <c r="H63">
         <f t="shared" si="12"/>
-        <v>281474987746000</v>
+        <v>4295046505</v>
       </c>
       <c r="I63">
         <f t="shared" si="13"/>
-        <v>16777217</v>
+        <v>65537</v>
       </c>
       <c r="J63">
         <f t="shared" si="6"/>
-        <v>562949951368435</v>
+        <v>8589956192</v>
       </c>
       <c r="K63">
         <f t="shared" si="14"/>
-        <v>33554432</v>
+        <v>131072</v>
       </c>
       <c r="L63">
         <f t="shared" si="25"/>
-        <v>16777215</v>
+        <v>65535</v>
       </c>
       <c r="M63">
         <f t="shared" si="16"/>
-        <v>281474943156225</v>
+        <v>4294836225</v>
       </c>
       <c r="N63">
         <f t="shared" si="17"/>
-        <v>16777214</v>
+        <v>65534</v>
       </c>
       <c r="O63">
         <f t="shared" si="26"/>
-        <v>16777214</v>
+        <v>65534</v>
       </c>
       <c r="P63">
         <f t="shared" si="27"/>
@@ -71704,7 +71702,7 @@
       </c>
       <c r="Q63">
         <f t="shared" si="20"/>
-        <v>-3774874</v>
+        <v>-14746</v>
       </c>
       <c r="R63">
         <f t="shared" si="21"/>
@@ -71712,11 +71710,11 @@
       </c>
       <c r="S63">
         <f t="shared" si="28"/>
-        <v>16777215</v>
+        <v>65535</v>
       </c>
       <c r="T63">
         <f t="shared" si="23"/>
-        <v>0.99999994039535522</v>
+        <v>0.9999847412109375</v>
       </c>
       <c r="U63">
         <f t="shared" si="29"/>
@@ -71724,11 +71722,11 @@
       </c>
       <c r="V63">
         <f t="shared" si="7"/>
-        <v>5.9604644775390625E-8</v>
+        <v>1.52587890625E-5</v>
       </c>
       <c r="W63">
         <f t="shared" si="8"/>
-        <v>5.9604648328104516E-8</v>
+        <v>1.5259021896696422E-5</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -71745,71 +71743,71 @@
       </c>
       <c r="D64">
         <f t="shared" si="4"/>
-        <v>28000688.595809847</v>
+        <v>109377.68982738222</v>
       </c>
       <c r="E64">
         <f t="shared" si="5"/>
-        <v>28000689</v>
+        <v>109378</v>
       </c>
       <c r="F64">
         <f t="shared" si="10"/>
-        <v>784038584474721</v>
+        <v>11963546884</v>
       </c>
       <c r="G64">
         <f t="shared" si="11"/>
-        <v>46732341</v>
+        <v>182549</v>
       </c>
       <c r="H64">
         <f t="shared" si="12"/>
-        <v>317758889246550</v>
+        <v>4848683989</v>
       </c>
       <c r="I64">
         <f t="shared" si="13"/>
-        <v>18939906</v>
+        <v>73985</v>
       </c>
       <c r="J64">
         <f t="shared" si="6"/>
-        <v>598134338014935</v>
+        <v>9126828454</v>
       </c>
       <c r="K64">
         <f t="shared" si="14"/>
-        <v>35651585</v>
+        <v>139264</v>
       </c>
       <c r="L64">
         <f t="shared" si="25"/>
-        <v>16711679</v>
+        <v>65279</v>
       </c>
       <c r="M64">
         <f t="shared" si="16"/>
-        <v>279280214999041</v>
+        <v>4261347841</v>
       </c>
       <c r="N64">
         <f t="shared" si="17"/>
-        <v>16646398</v>
+        <v>65023</v>
       </c>
       <c r="O64">
         <f t="shared" si="26"/>
-        <v>16646398</v>
+        <v>65023</v>
       </c>
       <c r="P64">
         <f t="shared" si="27"/>
-        <v>-65281</v>
+        <v>-256</v>
       </c>
       <c r="Q64">
         <f t="shared" si="20"/>
-        <v>-246427549594</v>
+        <v>-3774976</v>
       </c>
       <c r="R64">
         <f t="shared" si="21"/>
-        <v>-14688</v>
+        <v>-58</v>
       </c>
       <c r="S64">
         <f t="shared" si="28"/>
-        <v>16696991</v>
+        <v>65221</v>
       </c>
       <c r="T64">
         <f t="shared" si="23"/>
-        <v>0.99521821737289429</v>
+        <v>0.9951934814453125</v>
       </c>
       <c r="U64">
         <f t="shared" si="29"/>
@@ -71817,11 +71815,11 @@
       </c>
       <c r="V64">
         <f t="shared" si="7"/>
-        <v>-3.3490700697358378E-5</v>
+        <v>-8.7547731155712682E-6</v>
       </c>
       <c r="W64">
         <f t="shared" si="8"/>
-        <v>-3.3651615407286986E-5</v>
+        <v>-8.7970563300482756E-6</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -71838,71 +71836,71 @@
       </c>
       <c r="D65">
         <f t="shared" si="4"/>
-        <v>29647787.924975127</v>
+        <v>115811.67158193409</v>
       </c>
       <c r="E65">
         <f t="shared" si="5"/>
-        <v>29647788</v>
+        <v>115812</v>
       </c>
       <c r="F65">
         <f t="shared" si="10"/>
-        <v>878991333292944</v>
+        <v>13412419344</v>
       </c>
       <c r="G65">
         <f t="shared" si="11"/>
-        <v>52391966</v>
+        <v>204657</v>
       </c>
       <c r="H65">
         <f t="shared" si="12"/>
-        <v>356241792415300</v>
+        <v>5435894577</v>
       </c>
       <c r="I65">
         <f t="shared" si="13"/>
-        <v>21233665</v>
+        <v>82945</v>
       </c>
       <c r="J65">
         <f t="shared" si="6"/>
-        <v>633318703300020</v>
+        <v>9663700716</v>
       </c>
       <c r="K65">
         <f t="shared" si="14"/>
-        <v>37748736</v>
+        <v>147456</v>
       </c>
       <c r="L65">
         <f t="shared" si="25"/>
-        <v>16515071</v>
+        <v>64511</v>
       </c>
       <c r="M65">
         <f t="shared" si="16"/>
-        <v>272747570135041</v>
+        <v>4161669121</v>
       </c>
       <c r="N65">
         <f t="shared" si="17"/>
-        <v>16257022</v>
+        <v>63502</v>
       </c>
       <c r="O65">
         <f t="shared" si="26"/>
-        <v>16257022</v>
+        <v>63502</v>
       </c>
       <c r="P65">
         <f t="shared" si="27"/>
-        <v>-258049</v>
+        <v>-1009</v>
       </c>
       <c r="Q65">
         <f t="shared" si="20"/>
-        <v>-974102460826</v>
+        <v>-14878714</v>
       </c>
       <c r="R65">
         <f t="shared" si="21"/>
-        <v>-58061</v>
+        <v>-227</v>
       </c>
       <c r="S65">
         <f t="shared" si="28"/>
-        <v>16457010</v>
+        <v>64284</v>
       </c>
       <c r="T65">
         <f t="shared" si="23"/>
-        <v>0.98091423511505127</v>
+        <v>0.98089599609375</v>
       </c>
       <c r="U65">
         <f t="shared" si="29"/>
@@ -71910,11 +71908,11 @@
       </c>
       <c r="V65">
         <f t="shared" si="7"/>
-        <v>-1.2895471182072793E-4</v>
+        <v>-1.107156905194584E-4</v>
       </c>
       <c r="W65">
         <f t="shared" si="8"/>
-        <v>-1.314637989789218E-4</v>
+        <v>-1.1287199760256402E-4</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -71931,71 +71929,71 @@
       </c>
       <c r="D66">
         <f t="shared" si="4"/>
-        <v>31294887.254140437</v>
+        <v>122245.65333648608</v>
       </c>
       <c r="E66">
         <f t="shared" si="5"/>
-        <v>31294887</v>
+        <v>122246</v>
       </c>
       <c r="F66">
         <f t="shared" si="10"/>
-        <v>979369952342769</v>
+        <v>14944084516</v>
       </c>
       <c r="G66">
         <f t="shared" si="11"/>
-        <v>58374998</v>
+        <v>228029</v>
       </c>
       <c r="H66">
         <f t="shared" si="12"/>
-        <v>396923717650900</v>
+        <v>6056678269</v>
       </c>
       <c r="I66">
         <f t="shared" si="13"/>
-        <v>23658497</v>
+        <v>92418</v>
       </c>
       <c r="J66">
         <f t="shared" si="6"/>
-        <v>668503068585105</v>
+        <v>10200572978</v>
       </c>
       <c r="K66">
         <f t="shared" si="14"/>
-        <v>39845888</v>
+        <v>155648</v>
       </c>
       <c r="L66">
         <f t="shared" si="25"/>
-        <v>16187391</v>
+        <v>63230</v>
       </c>
       <c r="M66">
         <f t="shared" si="16"/>
-        <v>262031627386881</v>
+        <v>3998032900</v>
       </c>
       <c r="N66">
         <f t="shared" si="17"/>
-        <v>15618302</v>
+        <v>61005</v>
       </c>
       <c r="O66">
         <f t="shared" si="26"/>
-        <v>15618302</v>
+        <v>61005</v>
       </c>
       <c r="P66">
         <f t="shared" si="27"/>
-        <v>-569089</v>
+        <v>-2225</v>
       </c>
       <c r="Q66">
         <f t="shared" si="20"/>
-        <v>-2148239269786</v>
+        <v>-32809850</v>
       </c>
       <c r="R66">
         <f t="shared" si="21"/>
-        <v>-128045</v>
+        <v>-501</v>
       </c>
       <c r="S66">
         <f t="shared" si="28"/>
-        <v>16059346</v>
+        <v>62729</v>
       </c>
       <c r="T66">
         <f t="shared" si="23"/>
-        <v>0.95721161365509033</v>
+        <v>0.9571685791015625</v>
       </c>
       <c r="U66">
         <f t="shared" si="29"/>
@@ -72003,11 +72001,11 @@
       </c>
       <c r="V66">
         <f t="shared" si="7"/>
-        <v>-2.7127792288161867E-4</v>
+        <v>-2.2824336935378664E-4</v>
       </c>
       <c r="W66">
         <f t="shared" si="8"/>
-        <v>-2.8340433715147922E-4</v>
+        <v>-2.3845681349885637E-4</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -72024,71 +72022,71 @@
       </c>
       <c r="D67">
         <f t="shared" si="4"/>
-        <v>32941986.583305717</v>
+        <v>128679.63509103796</v>
       </c>
       <c r="E67">
         <f t="shared" si="5"/>
-        <v>32941987</v>
+        <v>128680</v>
       </c>
       <c r="F67">
         <f t="shared" si="10"/>
-        <v>1085174507508169</v>
+        <v>16558542400</v>
       </c>
       <c r="G67">
         <f t="shared" si="11"/>
-        <v>64681441</v>
+        <v>252663</v>
       </c>
       <c r="H67">
         <f t="shared" si="12"/>
-        <v>439804692151550</v>
+        <v>6710981943</v>
       </c>
       <c r="I67">
         <f t="shared" si="13"/>
-        <v>26214402</v>
+        <v>102401</v>
       </c>
       <c r="J67">
         <f t="shared" si="6"/>
-        <v>703687455231605</v>
+        <v>10737445240</v>
       </c>
       <c r="K67">
         <f t="shared" si="14"/>
-        <v>41943041</v>
+        <v>163840</v>
       </c>
       <c r="L67">
         <f t="shared" si="25"/>
-        <v>15728639</v>
+        <v>61439</v>
       </c>
       <c r="M67">
         <f t="shared" si="16"/>
-        <v>247390084792321</v>
+        <v>3774750721</v>
       </c>
       <c r="N67">
         <f t="shared" si="17"/>
-        <v>14745598</v>
+        <v>57598</v>
       </c>
       <c r="O67">
         <f t="shared" si="26"/>
-        <v>14745598</v>
+        <v>57598</v>
       </c>
       <c r="P67">
         <f t="shared" si="27"/>
-        <v>-983041</v>
+        <v>-3841</v>
       </c>
       <c r="Q67">
         <f t="shared" si="20"/>
-        <v>-3710855911834</v>
+        <v>-56639386</v>
       </c>
       <c r="R67">
         <f t="shared" si="21"/>
-        <v>-221184</v>
+        <v>-864</v>
       </c>
       <c r="S67">
         <f t="shared" si="28"/>
-        <v>15507455</v>
+        <v>60575</v>
       </c>
       <c r="T67">
         <f t="shared" si="23"/>
-        <v>0.92431634664535522</v>
+        <v>0.9243011474609375</v>
       </c>
       <c r="U67">
         <f t="shared" si="29"/>
@@ -72096,11 +72094,11 @@
       </c>
       <c r="V67">
         <f t="shared" si="7"/>
-        <v>-4.3681413406859715E-4</v>
+        <v>-4.2161494965087254E-4</v>
       </c>
       <c r="W67">
         <f t="shared" si="8"/>
-        <v>-4.7258077351324337E-4</v>
+        <v>-4.5614457020750444E-4</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -72117,71 +72115,71 @@
       </c>
       <c r="D68">
         <f t="shared" si="4"/>
-        <v>34589085.912470996</v>
+        <v>135113.61684558983</v>
       </c>
       <c r="E68">
         <f t="shared" si="5"/>
-        <v>34589086</v>
+        <v>135114</v>
       </c>
       <c r="F68">
         <f t="shared" si="10"/>
-        <v>1196404870315396</v>
+        <v>18255792996</v>
       </c>
       <c r="G68">
         <f t="shared" si="11"/>
-        <v>71311287</v>
+        <v>278561</v>
       </c>
       <c r="H68">
         <f t="shared" si="12"/>
-        <v>484884661520850</v>
+        <v>7398858721</v>
       </c>
       <c r="I68">
         <f t="shared" si="13"/>
-        <v>28901378</v>
+        <v>112898</v>
       </c>
       <c r="J68">
         <f t="shared" si="6"/>
-        <v>738871820516690</v>
+        <v>11274317502</v>
       </c>
       <c r="K68">
         <f t="shared" si="14"/>
-        <v>44040192</v>
+        <v>172032</v>
       </c>
       <c r="L68">
         <f t="shared" si="25"/>
-        <v>15138814</v>
+        <v>59134</v>
       </c>
       <c r="M68">
         <f t="shared" si="16"/>
-        <v>229183689326596</v>
+        <v>3496829956</v>
       </c>
       <c r="N68">
         <f t="shared" si="17"/>
-        <v>13660412</v>
+        <v>53357</v>
       </c>
       <c r="O68">
         <f t="shared" si="26"/>
-        <v>13660412</v>
+        <v>53357</v>
       </c>
       <c r="P68">
         <f t="shared" si="27"/>
-        <v>-1478402</v>
+        <v>-5777</v>
       </c>
       <c r="Q68">
         <f t="shared" si="20"/>
-        <v>-5580781271348</v>
+        <v>-85187642</v>
       </c>
       <c r="R68">
         <f t="shared" si="21"/>
-        <v>-332640</v>
+        <v>-1300</v>
       </c>
       <c r="S68">
         <f t="shared" si="28"/>
-        <v>14806174</v>
+        <v>57834</v>
       </c>
       <c r="T68">
         <f t="shared" si="23"/>
-        <v>0.88251674175262451</v>
+        <v>0.882476806640625</v>
       </c>
       <c r="U68">
         <f t="shared" si="29"/>
@@ -72189,11 +72187,11 @@
       </c>
       <c r="V68">
         <f t="shared" si="7"/>
-        <v>-5.9547740426946216E-4</v>
+        <v>-5.5554229226995044E-4</v>
       </c>
       <c r="W68">
         <f t="shared" si="8"/>
-        <v>-6.7474913063618523E-4</v>
+        <v>-6.2952622447355318E-4</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -72210,71 +72208,71 @@
       </c>
       <c r="D69">
         <f t="shared" si="4"/>
-        <v>36236185.241636276</v>
+        <v>141547.5986001417</v>
       </c>
       <c r="E69">
         <f t="shared" si="5"/>
-        <v>36236185</v>
+        <v>141548</v>
       </c>
       <c r="F69">
         <f t="shared" si="10"/>
-        <v>1313061103354225</v>
+        <v>20035836304</v>
       </c>
       <c r="G69">
         <f t="shared" si="11"/>
-        <v>78264541</v>
+        <v>305723</v>
       </c>
       <c r="H69">
         <f t="shared" si="12"/>
-        <v>532163659756550</v>
+        <v>8120308603</v>
       </c>
       <c r="I69">
         <f t="shared" si="13"/>
-        <v>31719426</v>
+        <v>123906</v>
       </c>
       <c r="J69">
         <f t="shared" si="6"/>
-        <v>774056185801775</v>
+        <v>11811189764</v>
       </c>
       <c r="K69">
         <f t="shared" si="14"/>
-        <v>46137344</v>
+        <v>180224</v>
       </c>
       <c r="L69">
         <f t="shared" si="25"/>
-        <v>14417918</v>
+        <v>56318</v>
       </c>
       <c r="M69">
         <f t="shared" si="16"/>
-        <v>207876359454724</v>
+        <v>3171717124</v>
       </c>
       <c r="N69">
         <f t="shared" si="17"/>
-        <v>12390397</v>
+        <v>48397</v>
       </c>
       <c r="O69">
         <f t="shared" si="26"/>
-        <v>12390397</v>
+        <v>48397</v>
       </c>
       <c r="P69">
         <f t="shared" si="27"/>
-        <v>-2027521</v>
+        <v>-7921</v>
       </c>
       <c r="Q69">
         <f t="shared" si="20"/>
-        <v>-7653636307354</v>
+        <v>-116803066</v>
       </c>
       <c r="R69">
         <f t="shared" si="21"/>
-        <v>-456192</v>
+        <v>-1782</v>
       </c>
       <c r="S69">
         <f t="shared" si="28"/>
-        <v>13961726</v>
+        <v>54536</v>
       </c>
       <c r="T69">
         <f t="shared" si="23"/>
-        <v>0.83218371868133545</v>
+        <v>0.8321533203125</v>
       </c>
       <c r="U69">
         <f t="shared" si="29"/>
@@ -72282,11 +72280,11 @@
       </c>
       <c r="V69">
         <f t="shared" si="7"/>
-        <v>-7.141063787899915E-4</v>
+        <v>-6.8370800995454228E-4</v>
       </c>
       <c r="W69">
         <f t="shared" si="8"/>
-        <v>-8.5811145154528212E-4</v>
+        <v>-8.2161302883198043E-4</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -72303,71 +72301,71 @@
       </c>
       <c r="D70">
         <f t="shared" si="4"/>
-        <v>37883284.570801556</v>
+        <v>147981.58035469358</v>
       </c>
       <c r="E70">
         <f t="shared" si="5"/>
-        <v>37883285</v>
+        <v>147982</v>
       </c>
       <c r="F70">
         <f t="shared" si="10"/>
-        <v>1435143282391225</v>
+        <v>21898672324</v>
       </c>
       <c r="G70">
         <f t="shared" si="11"/>
-        <v>85541206</v>
+        <v>334147</v>
       </c>
       <c r="H70">
         <f t="shared" si="12"/>
-        <v>581641707257300</v>
+        <v>8875278467</v>
       </c>
       <c r="I70">
         <f t="shared" si="13"/>
-        <v>34668547</v>
+        <v>135426</v>
       </c>
       <c r="J70">
         <f t="shared" si="6"/>
-        <v>809240572448275</v>
+        <v>12348062026</v>
       </c>
       <c r="K70">
         <f t="shared" si="14"/>
-        <v>48234497</v>
+        <v>188416</v>
       </c>
       <c r="L70">
         <f t="shared" si="25"/>
-        <v>13565950</v>
+        <v>52990</v>
       </c>
       <c r="M70">
         <f t="shared" si="16"/>
-        <v>184034999402500</v>
+        <v>2807940100</v>
       </c>
       <c r="N70">
         <f t="shared" si="17"/>
-        <v>10969341</v>
+        <v>42846</v>
       </c>
       <c r="O70">
         <f t="shared" si="26"/>
-        <v>10969341</v>
+        <v>42846</v>
       </c>
       <c r="P70">
         <f t="shared" si="27"/>
-        <v>-2596609</v>
+        <v>-10144</v>
       </c>
       <c r="Q70">
         <f t="shared" si="20"/>
-        <v>-9801871802266</v>
+        <v>-149583424</v>
       </c>
       <c r="R70">
         <f t="shared" si="21"/>
-        <v>-584237</v>
+        <v>-2282</v>
       </c>
       <c r="S70">
         <f t="shared" si="28"/>
-        <v>12981713</v>
+        <v>50708</v>
       </c>
       <c r="T70">
         <f t="shared" si="23"/>
-        <v>0.77377039194107056</v>
+        <v>0.77374267578125</v>
       </c>
       <c r="U70">
         <f t="shared" si="29"/>
@@ -72375,11 +72373,11 @@
       </c>
       <c r="V70">
         <f t="shared" si="7"/>
-        <v>-7.599385783332302E-4</v>
+        <v>-7.3222241851267356E-4</v>
       </c>
       <c r="W70">
         <f t="shared" si="8"/>
-        <v>-9.8212413688621245E-4</v>
+        <v>-9.4633841641647424E-4</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -72396,71 +72394,71 @@
       </c>
       <c r="D71">
         <f t="shared" si="4"/>
-        <v>39530383.899966836</v>
+        <v>154415.56210924545</v>
       </c>
       <c r="E71">
         <f t="shared" si="5"/>
-        <v>39530384</v>
+        <v>154416</v>
       </c>
       <c r="F71">
         <f t="shared" si="10"/>
-        <v>1562651259187456</v>
+        <v>23844301056</v>
       </c>
       <c r="G71">
         <f t="shared" si="11"/>
-        <v>93141273</v>
+        <v>363835</v>
       </c>
       <c r="H71">
         <f t="shared" si="12"/>
-        <v>633318742827150</v>
+        <v>9663821435</v>
       </c>
       <c r="I71">
         <f t="shared" si="13"/>
-        <v>37748739</v>
+        <v>147458</v>
       </c>
       <c r="J71">
         <f t="shared" si="6"/>
-        <v>844424937733360</v>
+        <v>12884934288</v>
       </c>
       <c r="K71">
         <f t="shared" si="14"/>
-        <v>50331648</v>
+        <v>196608</v>
       </c>
       <c r="L71">
         <f t="shared" si="25"/>
-        <v>12582909</v>
+        <v>49150</v>
       </c>
       <c r="M71">
         <f t="shared" si="16"/>
-        <v>158329598902281</v>
+        <v>2415722500</v>
       </c>
       <c r="N71">
         <f t="shared" si="17"/>
-        <v>9437180</v>
+        <v>36861</v>
       </c>
       <c r="O71">
         <f t="shared" si="26"/>
-        <v>9437180</v>
+        <v>36861</v>
       </c>
       <c r="P71">
         <f t="shared" si="27"/>
-        <v>-3145729</v>
+        <v>-12289</v>
       </c>
       <c r="Q71">
         <f t="shared" si="20"/>
-        <v>-11874730613146</v>
+        <v>-181213594</v>
       </c>
       <c r="R71">
         <f t="shared" si="21"/>
-        <v>-707789</v>
+        <v>-2765</v>
       </c>
       <c r="S71">
         <f t="shared" si="28"/>
-        <v>11875120</v>
+        <v>46385</v>
       </c>
       <c r="T71">
         <f t="shared" si="23"/>
-        <v>0.70781230926513672</v>
+        <v>0.7077789306640625</v>
       </c>
       <c r="U71">
         <f t="shared" si="29"/>
@@ -72468,11 +72466,11 @@
       </c>
       <c r="V71">
         <f t="shared" si="7"/>
-        <v>-7.0552807858847988E-4</v>
+        <v>-6.7214947751426113E-4</v>
       </c>
       <c r="W71">
         <f t="shared" si="8"/>
-        <v>-9.9677282996246783E-4</v>
+        <v>-9.4966019528672241E-4</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -72489,71 +72487,71 @@
       </c>
       <c r="D72">
         <f t="shared" si="4"/>
-        <v>41177483.229132146</v>
+        <v>160849.54386379744</v>
       </c>
       <c r="E72">
         <f t="shared" si="5"/>
-        <v>41177483</v>
+        <v>160850</v>
       </c>
       <c r="F72">
         <f t="shared" si="10"/>
-        <v>1695585106215289</v>
+        <v>25872722500</v>
       </c>
       <c r="G72">
         <f t="shared" si="11"/>
-        <v>101064748</v>
+        <v>394786</v>
       </c>
       <c r="H72">
         <f t="shared" si="12"/>
-        <v>687194807263400</v>
+        <v>10485910946</v>
       </c>
       <c r="I72">
         <f t="shared" si="13"/>
-        <v>40960002</v>
+        <v>160002</v>
       </c>
       <c r="J72">
         <f t="shared" si="6"/>
-        <v>879609303018445</v>
+        <v>13421806550</v>
       </c>
       <c r="K72">
         <f t="shared" si="14"/>
-        <v>52428800</v>
+        <v>204801</v>
       </c>
       <c r="L72">
         <f t="shared" si="25"/>
-        <v>11468798</v>
+        <v>44799</v>
       </c>
       <c r="M72">
         <f t="shared" si="16"/>
-        <v>131533327564804</v>
+        <v>2006950401</v>
       </c>
       <c r="N72">
         <f t="shared" si="17"/>
-        <v>7839997</v>
+        <v>30624</v>
       </c>
       <c r="O72">
         <f t="shared" si="26"/>
-        <v>7839997</v>
+        <v>30624</v>
       </c>
       <c r="P72">
         <f t="shared" si="27"/>
-        <v>-3628801</v>
+        <v>-14175</v>
       </c>
       <c r="Q72">
         <f t="shared" si="20"/>
-        <v>-13698266546074</v>
+        <v>-209024550</v>
       </c>
       <c r="R72">
         <f t="shared" si="21"/>
-        <v>-816480</v>
+        <v>-3189</v>
       </c>
       <c r="S72">
         <f t="shared" si="28"/>
-        <v>10652318</v>
+        <v>41610</v>
       </c>
       <c r="T72">
         <f t="shared" si="23"/>
-        <v>0.63492763042449951</v>
+        <v>0.634918212890625</v>
       </c>
       <c r="U72">
         <f t="shared" si="29"/>
@@ -72561,11 +72559,11 @@
       </c>
       <c r="V72">
         <f t="shared" si="7"/>
-        <v>-5.3434626085435699E-4</v>
+        <v>-5.2492872697984527E-4</v>
       </c>
       <c r="W72">
         <f t="shared" si="8"/>
-        <v>-8.4158608831860749E-4</v>
+        <v>-8.2676589885487001E-4</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -72582,71 +72580,71 @@
       </c>
       <c r="D73">
         <f t="shared" si="4"/>
-        <v>42824582.558297426</v>
+        <v>167283.52561834932</v>
       </c>
       <c r="E73">
         <f t="shared" si="5"/>
-        <v>42824583</v>
+        <v>167284</v>
       </c>
       <c r="F73">
         <f>E73*E73</f>
-        <v>1833944909123889</v>
+        <v>27983936656</v>
       </c>
       <c r="G73">
         <f>ROUND(F73/$B$3,0)</f>
-        <v>109311635</v>
+        <v>427001</v>
       </c>
       <c r="H73">
         <f>G73*$B$7</f>
-        <v>743269927764250</v>
+        <v>11341573561</v>
       </c>
       <c r="I73">
         <f>ROUND(H73/$B$3,0)</f>
-        <v>44302340</v>
+        <v>173059</v>
       </c>
       <c r="J73">
         <f t="shared" si="6"/>
-        <v>914793689664945</v>
+        <v>13958678812</v>
       </c>
       <c r="K73">
         <f>ROUND(J73/$B$3,0)</f>
-        <v>54525953</v>
+        <v>212993</v>
       </c>
       <c r="L73">
         <f>IF(E73&lt;0,K73+I73,K73-I73)</f>
-        <v>10223613</v>
+        <v>39934</v>
       </c>
       <c r="M73">
         <f>L73*L73</f>
-        <v>104522262773769</v>
+        <v>1594724356</v>
       </c>
       <c r="N73">
         <f>ROUND(M73/$B$3,0)</f>
-        <v>6230012</v>
+        <v>24334</v>
       </c>
       <c r="O73">
         <f>IF(L73&lt;0,0-N73,N73)</f>
-        <v>6230012</v>
+        <v>24334</v>
       </c>
       <c r="P73">
         <f>O73-L73</f>
-        <v>-3993601</v>
+        <v>-15600</v>
       </c>
       <c r="Q73">
         <f>P73*$B$8</f>
-        <v>-15075340581274</v>
+        <v>-230037600</v>
       </c>
       <c r="R73">
         <f>ROUND(Q73/$B$3,0)</f>
-        <v>-898560</v>
+        <v>-3510</v>
       </c>
       <c r="S73">
         <f>R73+L73</f>
-        <v>9325053</v>
+        <v>36424</v>
       </c>
       <c r="T73">
         <f>S73/$B$3</f>
-        <v>0.55581647157669067</v>
+        <v>0.5557861328125</v>
       </c>
       <c r="U73">
         <f>SIN(C73)</f>
@@ -72654,11 +72652,11 @@
       </c>
       <c r="V73">
         <f t="shared" si="7"/>
-        <v>-2.4623855708849618E-4</v>
+        <v>-2.1589979289782235E-4</v>
       </c>
       <c r="W73">
         <f t="shared" si="8"/>
-        <v>-4.4302133830253099E-4</v>
+        <v>-3.8845840180517474E-4</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -72675,71 +72673,71 @@
       </c>
       <c r="D74">
         <f t="shared" si="4"/>
-        <v>44471681.887462705</v>
+        <v>173717.50737290119</v>
       </c>
       <c r="E74">
         <f t="shared" si="5"/>
-        <v>44471682</v>
+        <v>173718</v>
       </c>
       <c r="F74">
         <f t="shared" si="10"/>
-        <v>1977730499909124</v>
+        <v>30177943524</v>
       </c>
       <c r="G74">
         <f t="shared" si="11"/>
-        <v>117881924</v>
+        <v>460479</v>
       </c>
       <c r="H74">
         <f t="shared" si="12"/>
-        <v>801544036334200</v>
+        <v>12230782719</v>
       </c>
       <c r="I74">
         <f t="shared" si="13"/>
-        <v>47775748</v>
+        <v>186627</v>
       </c>
       <c r="J74">
         <f t="shared" si="6"/>
-        <v>949978054950030</v>
+        <v>14495551074</v>
       </c>
       <c r="K74">
         <f t="shared" si="14"/>
-        <v>56623105</v>
+        <v>221185</v>
       </c>
       <c r="L74">
         <f t="shared" ref="L74:L79" si="30">IF(E74&lt;0,K74+I74,K74-I74)</f>
-        <v>8847357</v>
+        <v>34558</v>
       </c>
       <c r="M74">
         <f t="shared" si="16"/>
-        <v>78275725885449</v>
+        <v>1194255364</v>
       </c>
       <c r="N74">
         <f t="shared" si="17"/>
-        <v>4665597</v>
+        <v>18223</v>
       </c>
       <c r="O74">
         <f t="shared" ref="O74:O79" si="31">IF(L74&lt;0,0-N74,N74)</f>
-        <v>4665597</v>
+        <v>18223</v>
       </c>
       <c r="P74">
         <f t="shared" ref="P74:P79" si="32">O74-L74</f>
-        <v>-4181760</v>
+        <v>-16335</v>
       </c>
       <c r="Q74">
         <f t="shared" si="20"/>
-        <v>-15785617098240</v>
+        <v>-240875910</v>
       </c>
       <c r="R74">
         <f t="shared" si="21"/>
-        <v>-940896</v>
+        <v>-3675</v>
       </c>
       <c r="S74">
         <f t="shared" ref="S74:S79" si="33">R74+L74</f>
-        <v>7906461</v>
+        <v>30883</v>
       </c>
       <c r="T74">
         <f t="shared" si="23"/>
-        <v>0.47126179933547974</v>
+        <v>0.4712371826171875</v>
       </c>
       <c r="U74">
         <f t="shared" ref="U74:U79" si="34">SIN(C74)</f>
@@ -72747,11 +72745,11 @@
       </c>
       <c r="V74">
         <f t="shared" si="7"/>
-        <v>1.3493749051812776E-4</v>
+        <v>1.5955420881036408E-4</v>
       </c>
       <c r="W74">
         <f t="shared" si="8"/>
-        <v>2.8633233312863761E-4</v>
+        <v>3.3858577950963379E-4</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -72768,71 +72766,71 @@
       </c>
       <c r="D75">
         <f t="shared" si="4"/>
-        <v>46118781.216627985</v>
+        <v>180151.48912745307</v>
       </c>
       <c r="E75">
         <f t="shared" si="5"/>
-        <v>46118781</v>
+        <v>180151</v>
       </c>
       <c r="F75">
         <f t="shared" si="10"/>
-        <v>2126941960925961</v>
+        <v>32454382801</v>
       </c>
       <c r="G75">
         <f t="shared" si="11"/>
-        <v>126775620</v>
+        <v>495215</v>
       </c>
       <c r="H75">
         <f t="shared" si="12"/>
-        <v>862017166971000</v>
+        <v>13153405615</v>
       </c>
       <c r="I75">
         <f t="shared" si="13"/>
-        <v>51380227</v>
+        <v>200705</v>
       </c>
       <c r="J75">
         <f t="shared" si="6"/>
-        <v>985162420235115</v>
+        <v>15032339893</v>
       </c>
       <c r="K75">
         <f t="shared" si="14"/>
-        <v>58720256</v>
+        <v>229375</v>
       </c>
       <c r="L75">
         <f t="shared" si="30"/>
-        <v>7340029</v>
+        <v>28670</v>
       </c>
       <c r="M75">
         <f t="shared" si="16"/>
-        <v>53876025720841</v>
+        <v>821968900</v>
       </c>
       <c r="N75">
         <f t="shared" si="17"/>
-        <v>3211261</v>
+        <v>12542</v>
       </c>
       <c r="O75">
         <f t="shared" si="31"/>
-        <v>3211261</v>
+        <v>12542</v>
       </c>
       <c r="P75">
         <f t="shared" si="32"/>
-        <v>-4128768</v>
+        <v>-16128</v>
       </c>
       <c r="Q75">
         <f t="shared" si="20"/>
-        <v>-15585578975232</v>
+        <v>-237823488</v>
       </c>
       <c r="R75">
         <f t="shared" si="21"/>
-        <v>-928973</v>
+        <v>-3629</v>
       </c>
       <c r="S75">
         <f t="shared" si="33"/>
-        <v>6411056</v>
+        <v>25041</v>
       </c>
       <c r="T75">
         <f t="shared" si="23"/>
-        <v>0.38212871551513672</v>
+        <v>0.3820953369140625</v>
       </c>
       <c r="U75">
         <f t="shared" si="34"/>
@@ -72840,11 +72838,11 @@
       </c>
       <c r="V75">
         <f t="shared" si="7"/>
-        <v>5.5471684995356263E-4</v>
+        <v>5.8809545102778138E-4</v>
       </c>
       <c r="W75">
         <f t="shared" si="8"/>
-        <v>1.4516492151231419E-3</v>
+        <v>1.5391327614135491E-3</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -72861,71 +72859,71 @@
       </c>
       <c r="D76">
         <f t="shared" si="4"/>
-        <v>47765880.545793265</v>
+        <v>186585.47088200494</v>
       </c>
       <c r="E76">
         <f t="shared" si="5"/>
-        <v>47765881</v>
+        <v>186585</v>
       </c>
       <c r="F76">
         <f t="shared" si="10"/>
-        <v>2281579387706161</v>
+        <v>34813962225</v>
       </c>
       <c r="G76">
         <f t="shared" si="11"/>
-        <v>135992729</v>
+        <v>531219</v>
       </c>
       <c r="H76">
         <f t="shared" si="12"/>
-        <v>924689360471950</v>
+        <v>14109707859</v>
       </c>
       <c r="I76">
         <f t="shared" si="13"/>
-        <v>55115781</v>
+        <v>215297</v>
       </c>
       <c r="J76">
         <f t="shared" si="6"/>
-        <v>1020346806881615</v>
+        <v>15569212155</v>
       </c>
       <c r="K76">
         <f t="shared" si="14"/>
-        <v>60817409</v>
+        <v>237567</v>
       </c>
       <c r="L76">
         <f t="shared" si="30"/>
-        <v>5701628</v>
+        <v>22270</v>
       </c>
       <c r="M76">
         <f t="shared" si="16"/>
-        <v>32508561850384</v>
+        <v>495952900</v>
       </c>
       <c r="N76">
         <f t="shared" si="17"/>
-        <v>1937661</v>
+        <v>7568</v>
       </c>
       <c r="O76">
         <f t="shared" si="31"/>
-        <v>1937661</v>
+        <v>7568</v>
       </c>
       <c r="P76">
         <f t="shared" si="32"/>
-        <v>-3763967</v>
+        <v>-14702</v>
       </c>
       <c r="Q76">
         <f t="shared" si="20"/>
-        <v>-14208501165158</v>
+        <v>-216795692</v>
       </c>
       <c r="R76">
         <f t="shared" si="21"/>
-        <v>-846893</v>
+        <v>-3308</v>
       </c>
       <c r="S76">
         <f t="shared" si="33"/>
-        <v>4854735</v>
+        <v>18962</v>
       </c>
       <c r="T76">
         <f t="shared" si="23"/>
-        <v>0.28936475515365601</v>
+        <v>0.289337158203125</v>
       </c>
       <c r="U76">
         <f t="shared" si="34"/>
@@ -72933,11 +72931,11 @@
       </c>
       <c r="V76">
         <f t="shared" si="7"/>
-        <v>9.1992210080721337E-4</v>
+        <v>9.4751905133821923E-4</v>
       </c>
       <c r="W76">
         <f t="shared" si="8"/>
-        <v>3.1791090118031967E-3</v>
+        <v>3.2747921394632178E-3</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -72954,71 +72952,71 @@
       </c>
       <c r="D77">
         <f t="shared" si="4"/>
-        <v>49412979.874958575</v>
+        <v>193019.45263655693</v>
       </c>
       <c r="E77">
         <f t="shared" si="5"/>
-        <v>49412980</v>
+        <v>193019</v>
       </c>
       <c r="F77">
         <f t="shared" si="10"/>
-        <v>2441642592480400</v>
+        <v>37256334361</v>
       </c>
       <c r="G77">
         <f t="shared" si="11"/>
-        <v>145533239</v>
+        <v>568487</v>
       </c>
       <c r="H77">
         <f t="shared" si="12"/>
-        <v>989560535242450</v>
+        <v>15099583207</v>
       </c>
       <c r="I77">
         <f t="shared" si="13"/>
-        <v>58982404</v>
+        <v>230401</v>
       </c>
       <c r="J77">
         <f t="shared" si="6"/>
-        <v>1055531172166700</v>
+        <v>16106084417</v>
       </c>
       <c r="K77">
         <f t="shared" si="14"/>
-        <v>62914561</v>
+        <v>245759</v>
       </c>
       <c r="L77">
         <f t="shared" si="30"/>
-        <v>3932157</v>
+        <v>15358</v>
       </c>
       <c r="M77">
         <f t="shared" si="16"/>
-        <v>15461858672649</v>
+        <v>235868164</v>
       </c>
       <c r="N77">
         <f t="shared" si="17"/>
-        <v>921599</v>
+        <v>3599</v>
       </c>
       <c r="O77">
         <f t="shared" si="31"/>
-        <v>921599</v>
+        <v>3599</v>
       </c>
       <c r="P77">
         <f t="shared" si="32"/>
-        <v>-3010558</v>
+        <v>-11759</v>
       </c>
       <c r="Q77">
         <f t="shared" si="20"/>
-        <v>-11364477119692</v>
+        <v>-173398214</v>
       </c>
       <c r="R77">
         <f t="shared" si="21"/>
-        <v>-677376</v>
+        <v>-2646</v>
       </c>
       <c r="S77">
         <f t="shared" si="33"/>
-        <v>3254781</v>
+        <v>12712</v>
       </c>
       <c r="T77">
         <f t="shared" si="23"/>
-        <v>0.19400006532669067</v>
+        <v>0.1939697265625</v>
       </c>
       <c r="U77">
         <f t="shared" si="34"/>
@@ -73026,11 +73024,11 @@
       </c>
       <c r="V77">
         <f t="shared" si="7"/>
-        <v>1.0902566894370469E-3</v>
+        <v>1.1205954536277207E-3</v>
       </c>
       <c r="W77">
         <f t="shared" si="8"/>
-        <v>5.6198779500464865E-3</v>
+        <v>5.7771667439385074E-3</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -73047,71 +73045,71 @@
       </c>
       <c r="D78">
         <f t="shared" si="4"/>
-        <v>51060079.204123855</v>
+        <v>199453.43439110881</v>
       </c>
       <c r="E78">
         <f t="shared" si="5"/>
-        <v>51060079</v>
+        <v>199453</v>
       </c>
       <c r="F78">
         <f t="shared" si="10"/>
-        <v>2607131667486241</v>
+        <v>39781499209</v>
       </c>
       <c r="G78">
         <f t="shared" si="11"/>
-        <v>155397157</v>
+        <v>607018</v>
       </c>
       <c r="H78">
         <f t="shared" si="12"/>
-        <v>1056630738879350</v>
+        <v>16123005098</v>
       </c>
       <c r="I78">
         <f t="shared" si="13"/>
-        <v>62980100</v>
+        <v>246018</v>
       </c>
       <c r="J78">
         <f t="shared" si="6"/>
-        <v>1090715537451785</v>
+        <v>16642956679</v>
       </c>
       <c r="K78">
         <f t="shared" si="14"/>
-        <v>65011712</v>
+        <v>253951</v>
       </c>
       <c r="L78">
         <f t="shared" si="30"/>
-        <v>2031612</v>
+        <v>7933</v>
       </c>
       <c r="M78">
         <f t="shared" si="16"/>
-        <v>4127447318544</v>
+        <v>62932489</v>
       </c>
       <c r="N78">
         <f t="shared" si="17"/>
-        <v>246015</v>
+        <v>960</v>
       </c>
       <c r="O78">
         <f t="shared" si="31"/>
-        <v>246015</v>
+        <v>960</v>
       </c>
       <c r="P78">
         <f t="shared" si="32"/>
-        <v>-1785597</v>
+        <v>-6973</v>
       </c>
       <c r="Q78">
         <f t="shared" si="20"/>
-        <v>-6740403689778</v>
+        <v>-102823858</v>
       </c>
       <c r="R78">
         <f t="shared" si="21"/>
-        <v>-401759</v>
+        <v>-1569</v>
       </c>
       <c r="S78">
         <f t="shared" si="33"/>
-        <v>1629853</v>
+        <v>6364</v>
       </c>
       <c r="T78">
         <f t="shared" si="23"/>
-        <v>9.7146809101104736E-2</v>
+        <v>9.710693359375E-2</v>
       </c>
       <c r="U78">
         <f t="shared" si="34"/>
@@ -73119,11 +73117,11 @@
       </c>
       <c r="V78">
         <f t="shared" si="7"/>
-        <v>8.7033122845565913E-4</v>
+        <v>9.1020673581039546E-4</v>
       </c>
       <c r="W78">
         <f t="shared" si="8"/>
-        <v>8.9589275912281292E-3</v>
+        <v>9.3732414578991327E-3</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -73135,48 +73133,48 @@
         <v>9.4247779607693793</v>
       </c>
       <c r="C79">
-        <f t="shared" ref="C79:C109" si="35">-2*PI()+B79</f>
+        <f t="shared" ref="C79" si="35">-2*PI()+B79</f>
         <v>3.1415926535897931</v>
       </c>
       <c r="D79">
-        <f t="shared" ref="D79:D109" si="36">C79*$B$3</f>
-        <v>52707178.533289135</v>
+        <f t="shared" ref="D79" si="36">C79*$B$3</f>
+        <v>205887.41614566068</v>
       </c>
       <c r="E79">
-        <f t="shared" ref="E79:E109" si="37">ROUND(D79,0)</f>
-        <v>52707179</v>
+        <f t="shared" ref="E79" si="37">ROUND(D79,0)</f>
+        <v>205887</v>
       </c>
       <c r="F79">
         <f t="shared" si="10"/>
-        <v>2778046718138041</v>
+        <v>42389456769</v>
       </c>
       <c r="G79">
         <f t="shared" si="11"/>
-        <v>165584488</v>
+        <v>646812</v>
       </c>
       <c r="H79">
         <f t="shared" si="12"/>
-        <v>1125900005380400</v>
+        <v>17179973532</v>
       </c>
       <c r="I79">
         <f t="shared" si="13"/>
-        <v>67108870</v>
+        <v>262146</v>
       </c>
       <c r="J79">
-        <f t="shared" ref="J79:J111" si="38">E79*$B$6</f>
-        <v>1125899924098285</v>
+        <f t="shared" ref="J79" si="38">E79*$B$6</f>
+        <v>17179828941</v>
       </c>
       <c r="K79">
         <f t="shared" si="14"/>
-        <v>67108865</v>
+        <v>262143</v>
       </c>
       <c r="L79">
         <f t="shared" si="30"/>
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="M79">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="N79">
         <f t="shared" si="17"/>
@@ -73188,11 +73186,11 @@
       </c>
       <c r="P79">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q79">
         <f t="shared" si="20"/>
-        <v>18874370</v>
+        <v>44238</v>
       </c>
       <c r="R79">
         <f t="shared" si="21"/>
@@ -73200,23 +73198,23 @@
       </c>
       <c r="S79">
         <f t="shared" si="33"/>
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="T79">
         <f t="shared" si="23"/>
-        <v>-2.384185791015625E-7</v>
+        <v>-3.0517578125E-5</v>
       </c>
       <c r="U79">
         <f t="shared" si="34"/>
         <v>1.22514845490862E-16</v>
       </c>
       <c r="V79">
-        <f t="shared" ref="V79:V109" si="39">U79-T79</f>
-        <v>2.3841857922407735E-7</v>
+        <f t="shared" ref="V79" si="39">U79-T79</f>
+        <v>3.0517578125122515E-5</v>
       </c>
       <c r="W79">
-        <f t="shared" ref="W79:W109" si="40">V79/T79</f>
-        <v>-1.0000000005138645</v>
+        <f t="shared" ref="W79" si="40">V79/T79</f>
+        <v>-1.0000000000040146</v>
       </c>
     </row>
   </sheetData>

--- a/doc/design/sincos_error.xlsx
+++ b/doc/design/sincos_error.xlsx
@@ -1498,11 +1498,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2142849320"/>
-        <c:axId val="2142852344"/>
+        <c:axId val="-2126128696"/>
+        <c:axId val="-2129315144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2142849320"/>
+        <c:axId val="-2126128696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1512,7 +1512,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142852344"/>
+        <c:crossAx val="-2129315144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1520,7 +1520,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142852344"/>
+        <c:axId val="-2129315144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1531,7 +1531,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142849320"/>
+        <c:crossAx val="-2126128696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2414,11 +2414,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2142020008"/>
-        <c:axId val="2142022984"/>
+        <c:axId val="-2126072056"/>
+        <c:axId val="-2126069080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2142020008"/>
+        <c:axId val="-2126072056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2428,7 +2428,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142022984"/>
+        <c:crossAx val="-2126069080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2436,7 +2436,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142022984"/>
+        <c:axId val="-2126069080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2447,13 +2447,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142020008"/>
+        <c:crossAx val="-2126072056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -66831,8 +66832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
